--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -102,85 +102,103 @@
     <t>BIC</t>
   </si>
   <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>LEI</t>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>New Name3</t>
   </si>
   <si>
     <t>SHAR</t>
   </si>
   <si>
+    <t>New address4</t>
+  </si>
+  <si>
+    <t>testabc</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+1</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
+  </si>
+  <si>
+    <t>New Name1</t>
+  </si>
+  <si>
+    <t>New address2</t>
+  </si>
+  <si>
+    <t>DEBT</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
     <t>后面是不同页面的数据</t>
   </si>
   <si>
-    <t>liyukang</t>
-  </si>
-  <si>
-    <t>testabc</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>LEN&amp;DEB</t>
-  </si>
-  <si>
-    <t>honghai</t>
-  </si>
-  <si>
-    <t>teste</t>
+    <t>New address</t>
+  </si>
+  <si>
+    <t>FR</t>
   </si>
   <si>
     <t>BIC不填写不会选择Output Channel选择以及页面不填写BIC</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>New&amp;(2)',.e</t>
-  </si>
-  <si>
-    <t>jia&amp;(1)',.1H</t>
-  </si>
-  <si>
-    <t>FR</t>
   </si>
 </sst>
 </file>
@@ -1401,13 +1419,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
@@ -1506,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:24">
+    <row r="2" spans="1:24">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1514,16 +1532,16 @@
         <v>25</v>
       </c>
       <c r="C2" s="3">
-        <v>906</v>
+        <v>384919.1</v>
       </c>
       <c r="D2" s="3">
-        <v>11010006762</v>
+        <v>11010007424</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="3">
-        <v>56456465</v>
+        <v>56400065</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -1531,59 +1549,183 @@
       <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="M2" s="3">
         <v>12345</v>
       </c>
       <c r="N2" s="3">
-        <v>11010006762</v>
+        <v>11010007424</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="Q2" s="3">
         <v>23456</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3">
+        <v>11010007424</v>
+      </c>
+      <c r="V2" s="9"/>
+      <c r="W2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>384917.2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11021212547</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3">
+        <v>56400065</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3">
+        <v>12345</v>
+      </c>
+      <c r="N3" s="3">
+        <v>11021212547</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>23456</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3">
+        <v>11021162884</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="W3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>384919.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11010007424</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3">
+        <v>56400065</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="3">
+        <v>11010007424</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="3">
-        <v>11010006762</v>
-      </c>
-      <c r="V2" s="9" t="s">
+      <c r="P4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
+        <v>11010007424</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>123</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1597,8 +1739,8 @@
   <sheetPr/>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1609,7 +1751,7 @@
     <col min="4" max="4" width="23.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="20.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="16.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="15.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="28.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="21.4444444444444" customWidth="1"/>
     <col min="9" max="9" width="15.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="15.4444444444444" customWidth="1"/>
@@ -1625,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1640,34 +1782,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>
@@ -1692,55 +1834,51 @@
       <c r="C2" s="3">
         <v>901</v>
       </c>
-      <c r="D2" s="3">
-        <v>11010006762</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>4656465</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J2" s="5">
         <v>123</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="P2" s="6">
         <v>11010006762</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4">
-        <v>123</v>
-      </c>
+      <c r="A3" s="4"/>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" s="4"/>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1541,7 +1541,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="3">
-        <v>56400065</v>
+        <v>564000165</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -1609,7 +1609,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="3">
-        <v>56400065</v>
+        <v>564000165</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>36</v>
@@ -1677,7 +1677,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="3">
-        <v>56400065</v>
+        <v>564000165</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>26</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -102,22 +102,19 @@
     <t>BIC</t>
   </si>
   <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>LEI</t>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>New Name3</t>
   </si>
   <si>
     <t>SHAR</t>
   </si>
   <si>
-    <t>后面是不同页面的数据</t>
-  </si>
-  <si>
-    <t>liyukang</t>
+    <t>New address4</t>
   </si>
   <si>
     <t>testabc</t>
@@ -126,22 +123,37 @@
     <t>SG</t>
   </si>
   <si>
-    <t>LEN&amp;DEB</t>
-  </si>
-  <si>
-    <t>honghai</t>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+1</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
   </si>
   <si>
     <t>teste</t>
   </si>
   <si>
-    <t>BIC不填写不会选择Output Channel选择以及页面不填写BIC</t>
-  </si>
-  <si>
     <t>NOSTRO</t>
   </si>
   <si>
-    <t>abc</t>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
+  </si>
+  <si>
+    <t>New Name1</t>
+  </si>
+  <si>
+    <t>New address2</t>
+  </si>
+  <si>
+    <t>DEBT</t>
   </si>
   <si>
     <t>Instructed Agent BIC</t>
@@ -169,18 +181,6 @@
   </si>
   <si>
     <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>New&amp;(2)',.e</t>
-  </si>
-  <si>
-    <t>jia&amp;(1)',.1H</t>
-  </si>
-  <si>
-    <t>FR</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,22 +847,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1401,13 +1404,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
@@ -1433,157 +1436,275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:24">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:24">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3">
-        <v>906</v>
-      </c>
-      <c r="D2" s="3">
-        <v>11010006762</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="7">
+        <v>384919.1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>11010007424</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3">
-        <v>56456465</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7">
+        <v>564000165</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="9">
+        <v>12345</v>
+      </c>
+      <c r="N2" s="9">
+        <v>11010007424</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="3">
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6">
+        <v>11010007424</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:24">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>384917.2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>11021212547</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6">
+        <v>564000165</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6">
         <v>12345</v>
       </c>
-      <c r="N2" s="3">
-        <v>11010006762</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="N3" s="6">
+        <v>11021212547</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="6">
+        <v>11021162884</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:24">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>384919.3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>11010007424</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6">
+        <v>564000165</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="6">
+        <v>11010007424</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q4" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="3">
-        <v>23456</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="S4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="6">
+        <v>11010007424</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="3">
-        <v>11010006762</v>
-      </c>
-      <c r="V2" s="9" t="s">
+      <c r="X4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="3"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
-        <v>123</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1595,13 +1716,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="23.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="24.4444444444444" customWidth="1"/>
@@ -1625,7 +1746,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1640,110 +1761,50 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:19">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3">
-        <v>901</v>
-      </c>
-      <c r="D2" s="3">
-        <v>11010006762</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4656465</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="5">
-        <v>123</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="6">
-        <v>11010006762</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="4"/>
+    <row r="7" spans="6:6">
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -837,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,16 +856,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1406,8 +1400,8 @@
   <sheetPr/>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1509,201 +1503,199 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:24">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:24">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>384919.1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>11010007424</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>564000165</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="6">
         <v>12345</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="6">
         <v>11010007424</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="8">
         <v>23456</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6">
+      <c r="U2" s="3">
         <v>11010007424</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:24">
+    <row r="3" s="3" customFormat="1" spans="1:24">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>384917.2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>11021212547</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>564000165</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>12345</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>11021212547</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="3">
         <v>23456</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="3">
         <v>11021162884</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:24">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:24">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>384919.3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>11010007424</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>564000165</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>12345</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>11010007424</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="3">
         <v>23456</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="3">
         <v>11010007424</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="3" t="s">
         <v>35</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -102,10 +102,10 @@
     <t>BIC</t>
   </si>
   <si>
-    <t>CHASSGS0</t>
-  </si>
-  <si>
-    <t>GBP</t>
+    <t>DBSSSGS0</t>
+  </si>
+  <si>
+    <t>SGD</t>
   </si>
   <si>
     <t>New Name3</t>
@@ -132,28 +132,55 @@
     <t>teste</t>
   </si>
   <si>
+    <t>SGMEPS</t>
+  </si>
+  <si>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
+  </si>
+  <si>
+    <t>New Name1</t>
+  </si>
+  <si>
+    <t>New address2</t>
+  </si>
+  <si>
     <t>NOSTRO</t>
   </si>
   <si>
-    <t>OCBCSGS0</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
-  </si>
-  <si>
-    <t>CRED</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
-  </si>
-  <si>
-    <t>New Name1</t>
-  </si>
-  <si>
-    <t>New address2</t>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
   <si>
     <t>DEBT</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>AED</t>
   </si>
   <si>
     <t>Instructed Agent BIC</t>
@@ -566,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -587,6 +614,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -713,7 +753,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,34 +765,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,7 +877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,13 +896,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1398,13 +1441,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
@@ -1511,10 +1554,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="6">
-        <v>384919.1</v>
+        <v>660000</v>
       </c>
       <c r="D2" s="6">
-        <v>11010007424</v>
+        <v>11010005898</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
@@ -1542,7 +1585,7 @@
         <v>12345</v>
       </c>
       <c r="N2" s="6">
-        <v>11010007424</v>
+        <v>11010005898</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>31</v>
@@ -1550,7 +1593,7 @@
       <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="9">
         <v>23456</v>
       </c>
       <c r="R2" s="6" t="s">
@@ -1559,143 +1602,491 @@
       <c r="S2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="3">
-        <v>11010007424</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8">
+        <v>11010005898</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:24">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3">
-        <v>384917.2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>11021212547</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="8">
+        <v>670000</v>
+      </c>
+      <c r="D3" s="8">
+        <v>11021162892</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="8">
         <v>564000165</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="8">
         <v>12345</v>
       </c>
-      <c r="N3" s="3">
-        <v>11021212547</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="8">
+        <v>11021162892</v>
+      </c>
+      <c r="O3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="8">
         <v>23456</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="3">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8">
         <v>11021162884</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>35</v>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:24">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3">
-        <v>384919.3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>11010007424</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8">
+        <v>110001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>11010004956</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8">
         <v>564000165</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="8">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="8">
+        <v>11010004956</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8">
+        <v>11010004956</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="X4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8">
+        <v>110002</v>
+      </c>
+      <c r="D5" s="8">
+        <v>11021200646</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8">
+        <v>564000165</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M5" s="8">
         <v>12345</v>
       </c>
-      <c r="N4" s="3">
-        <v>11010007424</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="N5" s="8">
+        <v>11021200646</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q5" s="8">
         <v>23456</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="3">
-        <v>11010007424</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="X4" s="3" t="s">
+      <c r="T5" s="8"/>
+      <c r="U5" s="8">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="8">
+        <v>190001</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11021200662</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="8">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="8">
+        <v>12345</v>
+      </c>
+      <c r="N6" s="8">
+        <v>11021200662</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8">
+        <v>11021162884</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
+        <v>190004</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11021200638</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="8">
+        <v>12345</v>
+      </c>
+      <c r="N7" s="8">
+        <v>11021200638</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8">
+        <v>11021162884</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:24">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8">
+        <v>670004</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11010006320</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="8">
+        <v>564000165</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="8">
+        <v>12345</v>
+      </c>
+      <c r="N8" s="8">
+        <v>11010006320</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8">
+        <v>11010006320</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:24">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8">
+        <v>670003</v>
+      </c>
+      <c r="D9" s="8">
+        <v>11010006762</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8">
+        <v>564000165</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="8">
+        <v>12345</v>
+      </c>
+      <c r="N9" s="8">
+        <v>11010006762</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8">
+        <v>11010006762</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1738,7 +2129,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1753,34 +2144,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -123,61 +123,70 @@
     <t>SG</t>
   </si>
   <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New Name2</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>SGMEPS</t>
+  </si>
+  <si>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>New Name4</t>
+  </si>
+  <si>
+    <t>New Name1</t>
+  </si>
+  <si>
+    <t>New address2</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>DEBT</t>
+  </si>
+  <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+1</t>
   </si>
   <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
   </si>
   <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>SGMEPS</t>
-  </si>
-  <si>
-    <t>OCBCSGS0</t>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
   </si>
   <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
   </si>
   <si>
-    <t>CRED</t>
-  </si>
-  <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
-  </si>
-  <si>
-    <t>New Name1</t>
-  </si>
-  <si>
-    <t>New address2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>DEBT</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
   </si>
   <si>
     <t>AED</t>
@@ -1443,8 +1452,8 @@
   <sheetPr/>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1622,7 +1631,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="8">
-        <v>670000</v>
+        <v>670001</v>
       </c>
       <c r="D3" s="8">
         <v>11021162892</v>
@@ -1634,14 +1643,14 @@
         <v>564000165</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>29</v>
@@ -1656,10 +1665,10 @@
         <v>11021162892</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="Q3" s="8">
         <v>23456</v>
@@ -1676,10 +1685,10 @@
       </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:24">
@@ -1687,16 +1696,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="8">
-        <v>110001</v>
+        <v>110002</v>
       </c>
       <c r="D4" s="8">
         <v>11010004956</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="8">
         <v>564000165</v>
@@ -1705,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
@@ -1724,10 +1733,10 @@
         <v>11010004956</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="8">
         <v>23456</v>
@@ -1744,10 +1753,10 @@
       </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
@@ -1755,16 +1764,16 @@
         <v>24</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8">
-        <v>110002</v>
+        <v>110003</v>
       </c>
       <c r="D5" s="8">
         <v>11021200646</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="8">
         <v>564000165</v>
@@ -1792,10 +1801,10 @@
         <v>11021200646</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="8">
         <v>23456</v>
@@ -1812,10 +1821,10 @@
       </c>
       <c r="V5" s="8"/>
       <c r="W5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
@@ -1823,16 +1832,16 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
-        <v>190001</v>
+        <v>190004</v>
       </c>
       <c r="D6" s="8">
         <v>11021200662</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8">
         <v>564000165</v>
@@ -1841,7 +1850,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
@@ -1860,10 +1869,10 @@
         <v>11021200662</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="8">
         <v>23456</v>
@@ -1880,10 +1889,10 @@
       </c>
       <c r="V6" s="8"/>
       <c r="W6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
@@ -1891,16 +1900,16 @@
         <v>24</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8">
-        <v>190004</v>
+        <v>190005</v>
       </c>
       <c r="D7" s="8">
         <v>11021200638</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="8">
         <v>564000165</v>
@@ -1909,7 +1918,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
@@ -1928,10 +1937,10 @@
         <v>11021200638</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="8">
         <v>23456</v>
@@ -1948,40 +1957,40 @@
       </c>
       <c r="V7" s="8"/>
       <c r="W7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:24">
       <c r="A8" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8">
-        <v>670004</v>
+        <v>670006</v>
       </c>
       <c r="D8" s="8">
         <v>11010006320</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="8">
         <v>564000165</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>29</v>
@@ -1996,10 +2005,10 @@
         <v>11010006320</v>
       </c>
       <c r="O8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="Q8" s="8">
         <v>23456</v>
@@ -2016,40 +2025,40 @@
       </c>
       <c r="V8" s="8"/>
       <c r="W8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:24">
       <c r="A9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" s="8">
-        <v>670003</v>
+        <v>670007</v>
       </c>
       <c r="D9" s="8">
         <v>11010006762</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F9" s="8">
         <v>564000165</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>29</v>
@@ -2064,10 +2073,10 @@
         <v>11010006762</v>
       </c>
       <c r="O9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="Q9" s="8">
         <v>23456</v>
@@ -2084,7 +2093,7 @@
       </c>
       <c r="V9" s="8"/>
       <c r="W9" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X9" s="8" t="s">
         <v>35</v>
@@ -2129,7 +2138,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2144,34 +2153,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -102,94 +102,82 @@
     <t>BIC</t>
   </si>
   <si>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
+  </si>
+  <si>
+    <t>SHAR</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
+  </si>
+  <si>
+    <t>testabc</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>New Name1</t>
+  </si>
+  <si>
+    <t>New address2</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
     <t>DBSSSGS0</t>
   </si>
   <si>
     <t>SGD</t>
   </si>
   <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+1</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
     <t>New Name3</t>
   </si>
   <si>
-    <t>SHAR</t>
-  </si>
-  <si>
     <t>New address4</t>
   </si>
   <si>
-    <t>testabc</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New Name2</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>SGMEPS</t>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>AED</t>
   </si>
   <si>
     <t>OCBCSGS0</t>
-  </si>
-  <si>
-    <t>CRED</t>
-  </si>
-  <si>
-    <t>New Name4</t>
-  </si>
-  <si>
-    <t>New Name1</t>
-  </si>
-  <si>
-    <t>New address2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>DEBT</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+1</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
-  </si>
-  <si>
-    <t>AED</t>
   </si>
   <si>
     <t>Instructed Agent BIC</t>
@@ -886,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -905,17 +893,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1453,7 +1435,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1563,10 +1545,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="6">
-        <v>660000</v>
+        <v>170000</v>
       </c>
       <c r="D2" s="6">
-        <v>11010005898</v>
+        <v>11010007424</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
@@ -1577,7 +1559,7 @@
       <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I2" s="6"/>
@@ -1594,15 +1576,15 @@
         <v>12345</v>
       </c>
       <c r="N2" s="6">
-        <v>11010005898</v>
-      </c>
-      <c r="O2" s="7" t="s">
+        <v>11010007424</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="6">
         <v>23456</v>
       </c>
       <c r="R2" s="6" t="s">
@@ -1611,492 +1593,492 @@
       <c r="S2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8">
-        <v>11010005898</v>
-      </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6">
+        <v>11010007424</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:24">
-      <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8">
-        <v>670001</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6">
+        <v>170001</v>
+      </c>
+      <c r="D3" s="6">
         <v>11021162892</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6">
         <v>564000165</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="G3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>12345</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="6">
         <v>11021162892</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="6">
         <v>23456</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8">
+      <c r="T3" s="6"/>
+      <c r="U3" s="6">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>41</v>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:24">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6">
+        <v>110002</v>
+      </c>
+      <c r="D4" s="6">
+        <v>11010004956</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6">
+        <v>564000165</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="8">
-        <v>110002</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="6">
         <v>11010004956</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="8">
-        <v>564000165</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="O4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="8">
-        <v>12345</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="T4" s="6"/>
+      <c r="U4" s="6">
         <v>11010004956</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>23456</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8">
-        <v>11010004956</v>
-      </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>41</v>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
-      <c r="A5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6">
         <v>110003</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>11021200646</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6">
         <v>564000165</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>12345</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <v>11021200646</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="8">
+      <c r="O5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="6">
         <v>23456</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8">
+      <c r="T5" s="6"/>
+      <c r="U5" s="6">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>41</v>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6">
         <v>190004</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="6">
         <v>564000165</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>12345</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="6">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="8">
+      <c r="O6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="6">
         <v>23456</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8">
+      <c r="T6" s="6"/>
+      <c r="U6" s="6">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>41</v>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="A7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="6">
         <v>190005</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>11021200638</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6">
         <v>564000165</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="G7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>12345</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="6">
         <v>11021200638</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="8">
+      <c r="O7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="6">
         <v>23456</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8">
+      <c r="T7" s="6"/>
+      <c r="U7" s="6">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>41</v>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:24">
-      <c r="A8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="8">
-        <v>670006</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6">
+        <v>170006</v>
+      </c>
+      <c r="D8" s="6">
         <v>11010006320</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="E8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="6">
         <v>564000165</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>12345</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="6">
         <v>11010006320</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="O8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="6">
         <v>23456</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8">
+      <c r="T8" s="6"/>
+      <c r="U8" s="6">
         <v>11010006320</v>
       </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>41</v>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="1:24">
-      <c r="A9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="8">
-        <v>670007</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6">
+        <v>170007</v>
+      </c>
+      <c r="D9" s="6">
         <v>11010006762</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="6">
         <v>564000165</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="8" t="s">
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>12345</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="6">
         <v>11010006762</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="O9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="6">
         <v>23456</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8">
+      <c r="T9" s="6"/>
+      <c r="U9" s="6">
         <v>11010006762</v>
       </c>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>35</v>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +2120,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2153,34 +2135,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -111,7 +111,7 @@
     <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
   </si>
   <si>
-    <t>SHAR</t>
+    <t>CRED</t>
   </si>
   <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
@@ -144,19 +144,31 @@
     <t>SGD</t>
   </si>
   <si>
+    <t>address 576da5dd86dc16082b431d79470b593c9c493e0a</t>
+  </si>
+  <si>
+    <t>address 576da5dd86dc16082b431d79470b593c9c493e4a</t>
+  </si>
+  <si>
+    <t>address 576da5dd86dc16082b431d79470b593c9c493e1a</t>
+  </si>
+  <si>
+    <t>address 576da5dd86dc16082b431d79470b593c9c493e2a</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>New Name3</t>
+  </si>
+  <si>
+    <t>New address4</t>
+  </si>
+  <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+1</t>
   </si>
   <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>New Name3</t>
-  </si>
-  <si>
-    <t>New address4</t>
   </si>
   <si>
     <t>HKD</t>
@@ -1435,7 +1447,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1545,7 +1557,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="6">
-        <v>170000</v>
+        <v>870000</v>
       </c>
       <c r="D2" s="6">
         <v>11010007424</v>
@@ -1613,7 +1625,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="6">
-        <v>170001</v>
+        <v>870001</v>
       </c>
       <c r="D3" s="6">
         <v>11021162892</v>
@@ -1625,14 +1637,14 @@
         <v>564000165</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>29</v>
@@ -1647,10 +1659,10 @@
         <v>11021162892</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="6">
         <v>23456</v>
@@ -1678,29 +1690,29 @@
         <v>36</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6">
-        <v>110002</v>
+        <v>810002</v>
       </c>
       <c r="D4" s="6">
         <v>11010004956</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6">
         <v>564000165</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>29</v>
@@ -1715,10 +1727,10 @@
         <v>11010004956</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="6">
         <v>23456</v>
@@ -1746,29 +1758,29 @@
         <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6">
-        <v>110003</v>
+        <v>8100030</v>
       </c>
       <c r="D5" s="6">
         <v>11021200646</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6">
         <v>564000165</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>29</v>
@@ -1783,10 +1795,10 @@
         <v>11021200646</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="6">
         <v>23456</v>
@@ -1814,29 +1826,29 @@
         <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6">
-        <v>190004</v>
+        <v>890004</v>
       </c>
       <c r="D6" s="6">
         <v>11021200662</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F6" s="6">
         <v>564000165</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>29</v>
@@ -1851,10 +1863,10 @@
         <v>11021200662</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="6">
         <v>23456</v>
@@ -1882,29 +1894,29 @@
         <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6">
-        <v>190005</v>
+        <v>8900050</v>
       </c>
       <c r="D7" s="6">
         <v>11021200638</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7" s="6">
         <v>564000165</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>29</v>
@@ -1919,10 +1931,10 @@
         <v>11021200638</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="6">
         <v>23456</v>
@@ -1947,19 +1959,19 @@
     </row>
     <row r="8" s="3" customFormat="1" spans="1:24">
       <c r="A8" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6">
-        <v>170006</v>
+        <v>870006</v>
       </c>
       <c r="D8" s="6">
         <v>11010006320</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6">
         <v>564000165</v>
@@ -2018,16 +2030,16 @@
         <v>35</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6">
-        <v>170007</v>
+        <v>8700070</v>
       </c>
       <c r="D9" s="6">
         <v>11010006762</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6">
         <v>564000165</v>
@@ -2078,7 +2090,7 @@
         <v>34</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2132,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2135,34 +2147,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>20</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -111,7 +111,7 @@
     <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
   </si>
   <si>
-    <t>CRED</t>
+    <t>DEBT</t>
   </si>
   <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1557,7 +1557,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="6">
-        <v>870000</v>
+        <v>170000</v>
       </c>
       <c r="D2" s="6">
         <v>11010007424</v>
@@ -1625,7 +1625,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="6">
-        <v>870001</v>
+        <v>170001</v>
       </c>
       <c r="D3" s="6">
         <v>11021162892</v>
@@ -1693,7 +1693,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="6">
-        <v>810002</v>
+        <v>110002</v>
       </c>
       <c r="D4" s="6">
         <v>11010004956</v>
@@ -1761,7 +1761,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="6">
-        <v>8100030</v>
+        <v>110003</v>
       </c>
       <c r="D5" s="6">
         <v>11021200646</v>
@@ -1829,7 +1829,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="6">
-        <v>890004</v>
+        <v>190004</v>
       </c>
       <c r="D6" s="6">
         <v>11021200662</v>
@@ -1897,7 +1897,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="6">
-        <v>8900050</v>
+        <v>190005</v>
       </c>
       <c r="D7" s="6">
         <v>11021200638</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="6">
-        <v>870006</v>
+        <v>170006</v>
       </c>
       <c r="D8" s="6">
         <v>11010006320</v>
@@ -2033,7 +2033,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="6">
-        <v>8700070</v>
+        <v>170007</v>
       </c>
       <c r="D9" s="6">
         <v>11010006762</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="80">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -217,6 +217,57 @@
   </si>
   <si>
     <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>SGD140200001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>Nm1</t>
+  </si>
+  <si>
+    <t>USD140200001</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>HKD140200001</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>Nm4</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
+  </si>
+  <si>
+    <t>Nm5</t>
+  </si>
+  <si>
+    <t>AUD148050001</t>
+  </si>
+  <si>
+    <t>Nm6</t>
+  </si>
+  <si>
+    <t>AED148050001</t>
+  </si>
+  <si>
+    <t>Nm7</t>
+  </si>
+  <si>
+    <t>GBP140200001</t>
+  </si>
+  <si>
+    <t>Nm8</t>
   </si>
 </sst>
 </file>
@@ -896,13 +947,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1446,8 +1497,8 @@
   <sheetPr/>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1476,80 +1527,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:24">
+    <row r="2" s="5" customFormat="1" spans="1:24">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1617,7 +1668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:24">
+    <row r="3" s="5" customFormat="1" spans="1:24">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -1685,7 +1736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:24">
+    <row r="4" s="5" customFormat="1" spans="1:24">
       <c r="A4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1753,7 +1804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
+    <row r="5" s="5" customFormat="1" ht="13" customHeight="1" spans="1:24">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -1821,7 +1872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
+    <row r="6" s="5" customFormat="1" ht="13" customHeight="1" spans="1:24">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -1889,7 +1940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="13" customHeight="1" spans="1:24">
+    <row r="7" s="5" customFormat="1" ht="13" customHeight="1" spans="1:24">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1957,7 +2008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:24">
+    <row r="8" s="5" customFormat="1" spans="1:24">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -2025,7 +2076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:24">
+    <row r="9" s="5" customFormat="1" spans="1:24">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -2102,13 +2153,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="24.4444444444444" customWidth="1"/>
@@ -2125,12 +2176,11 @@
     <col min="13" max="13" width="21.1111111111111" customWidth="1"/>
     <col min="14" max="14" width="28.6666666666667" customWidth="1"/>
     <col min="15" max="15" width="21.1111111111111" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="29.4444444444444" customWidth="1"/>
-    <col min="18" max="18" width="18.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="29.4444444444444" customWidth="1"/>
+    <col min="17" max="17" width="18.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -2176,21 +2226,343 @@
       <c r="O1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
+      <c r="P1" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="6:6">
-      <c r="F7" s="3"/>
+    <row r="2" ht="23" customHeight="1" spans="1:18">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>564000165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>123543</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>1001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>564000166</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3">
+        <v>123544</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>1002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>564000167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4">
+        <v>123545</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>1003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>564000168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>123546</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>1004</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6">
+        <v>564000169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6">
+        <v>123547</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>1005</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>564000170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>123548</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>1006</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>564000171</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>123549</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>1007</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <v>564000172</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>123550</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -2156,7 +2156,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2244,7 +2244,7 @@
         <v>37</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>970000</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
@@ -2285,7 +2285,7 @@
         <v>42</v>
       </c>
       <c r="C3">
-        <v>1001</v>
+        <v>970001</v>
       </c>
       <c r="D3" t="s">
         <v>66</v>
@@ -2326,7 +2326,7 @@
         <v>47</v>
       </c>
       <c r="C4">
-        <v>1002</v>
+        <v>5970002</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
@@ -2367,7 +2367,7 @@
         <v>48</v>
       </c>
       <c r="C5">
-        <v>1003</v>
+        <v>970003</v>
       </c>
       <c r="D5" t="s">
         <v>70</v>
@@ -2408,7 +2408,7 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>1004</v>
+        <v>5970004</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
@@ -2449,7 +2449,7 @@
         <v>51</v>
       </c>
       <c r="C7">
-        <v>1005</v>
+        <v>970005</v>
       </c>
       <c r="D7" t="s">
         <v>74</v>
@@ -2490,7 +2490,7 @@
         <v>52</v>
       </c>
       <c r="C8">
-        <v>1006</v>
+        <v>5970006</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -2531,7 +2531,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>1007</v>
+        <v>970007</v>
       </c>
       <c r="D9" t="s">
         <v>78</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -102,166 +102,169 @@
     <t>BIC</t>
   </si>
   <si>
+    <t>DBSSSGS0</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>SHAR</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>testabc</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>SGMEPS</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>DEBT</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>SGD140200001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>address 576da5dd86dc16082b431d79470b593c9c493e0a</t>
+  </si>
+  <si>
+    <t>address 576da5dd86dc16082b431d79470b593c9c493e1a</t>
+  </si>
+  <si>
+    <t>Nm1</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USD140200001</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HKD140200001</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>Nm4</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
+  </si>
+  <si>
+    <t>Nm5</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>AUD148050001</t>
+  </si>
+  <si>
+    <t>Nm6</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>AED148050001</t>
+  </si>
+  <si>
+    <t>Nm7</t>
+  </si>
+  <si>
     <t>CHASSGS0</t>
   </si>
   <si>
     <t>GBP</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
-  </si>
-  <si>
-    <t>DEBT</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
-  </si>
-  <si>
-    <t>testabc</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>New Name1</t>
-  </si>
-  <si>
-    <t>New address2</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>DBSSSGS0</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>address 576da5dd86dc16082b431d79470b593c9c493e0a</t>
-  </si>
-  <si>
-    <t>address 576da5dd86dc16082b431d79470b593c9c493e4a</t>
-  </si>
-  <si>
-    <t>address 576da5dd86dc16082b431d79470b593c9c493e1a</t>
-  </si>
-  <si>
-    <t>address 576da5dd86dc16082b431d79470b593c9c493e2a</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>New Name3</t>
-  </si>
-  <si>
-    <t>New address4</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+1</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>OCBCSGS0</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>SGD140200001</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>Nm1</t>
-  </si>
-  <si>
-    <t>USD140200001</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>HKD140200001</t>
-  </si>
-  <si>
-    <t>Nm3</t>
-  </si>
-  <si>
-    <t>EUR140200001</t>
-  </si>
-  <si>
-    <t>Nm4</t>
-  </si>
-  <si>
-    <t>CNY140200001</t>
-  </si>
-  <si>
-    <t>Nm5</t>
-  </si>
-  <si>
-    <t>AUD148050001</t>
-  </si>
-  <si>
-    <t>Nm6</t>
-  </si>
-  <si>
-    <t>AED148050001</t>
-  </si>
-  <si>
-    <t>Nm7</t>
   </si>
   <si>
     <t>GBP140200001</t>
@@ -653,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -674,19 +677,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -813,7 +803,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,34 +815,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -937,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,9 +947,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,13 +1482,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
@@ -1608,10 +1595,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="6">
-        <v>170000</v>
+        <v>670001</v>
       </c>
       <c r="D2" s="6">
-        <v>11010007424</v>
+        <v>11010005898</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
@@ -1639,63 +1626,61 @@
         <v>12345</v>
       </c>
       <c r="N2" s="6">
-        <v>11010007424</v>
+        <v>11010005898</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="6">
         <v>23456</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6">
-        <v>11010007424</v>
+        <v>11010005898</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X2" s="6"/>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:24">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6">
-        <v>170001</v>
+        <v>170002</v>
       </c>
       <c r="D3" s="6">
         <v>11021162892</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6">
         <v>564000165</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>29</v>
@@ -1710,16 +1695,16 @@
         <v>11021162892</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="6">
         <v>23456</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>30</v>
@@ -1730,40 +1715,38 @@
       </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X3" s="6"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:24">
       <c r="A4" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6">
-        <v>110002</v>
+        <v>670003</v>
       </c>
       <c r="D4" s="6">
-        <v>11010004956</v>
+        <v>11010005898</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F4" s="6">
         <v>564000165</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>29</v>
@@ -1775,373 +1758,33 @@
         <v>12345</v>
       </c>
       <c r="N4" s="6">
-        <v>11010004956</v>
+        <v>11010005898</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="6">
         <v>23456</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6">
-        <v>11010004956</v>
+        <v>11010005898</v>
       </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="13" customHeight="1" spans="1:24">
-      <c r="A5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6">
-        <v>110003</v>
-      </c>
-      <c r="D5" s="6">
-        <v>11021200646</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="6">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="6">
-        <v>12345</v>
-      </c>
-      <c r="N5" s="6">
-        <v>11021200646</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="13" customHeight="1" spans="1:24">
-      <c r="A6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="6">
-        <v>190004</v>
-      </c>
-      <c r="D6" s="6">
-        <v>11021200662</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="6">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="6">
-        <v>12345</v>
-      </c>
-      <c r="N6" s="6">
-        <v>11021200662</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6">
-        <v>11021162884</v>
-      </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="13" customHeight="1" spans="1:24">
-      <c r="A7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6">
-        <v>190005</v>
-      </c>
-      <c r="D7" s="6">
-        <v>11021200638</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="6">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="6">
-        <v>12345</v>
-      </c>
-      <c r="N7" s="6">
-        <v>11021200638</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6">
-        <v>11021162884</v>
-      </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:24">
-      <c r="A8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="6">
-        <v>170006</v>
-      </c>
-      <c r="D8" s="6">
-        <v>11010006320</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6">
-        <v>564000165</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="6">
-        <v>12345</v>
-      </c>
-      <c r="N8" s="6">
-        <v>11010006320</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>23456</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6">
-        <v>11010006320</v>
-      </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:24">
-      <c r="A9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="6">
-        <v>170007</v>
-      </c>
-      <c r="D9" s="6">
-        <v>11010006762</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="6">
-        <v>564000165</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="6">
-        <v>12345</v>
-      </c>
-      <c r="N9" s="6">
-        <v>11010006762</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6">
-        <v>11010006762</v>
-      </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2155,8 +1798,8 @@
   <sheetPr/>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2182,7 +1825,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2197,34 +1840,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -2238,330 +1881,330 @@
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:18">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>970000</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>123543</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>970001</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E3">
         <v>564000166</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J3">
         <v>123544</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>5970002</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>564000167</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J4">
         <v>123545</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>970003</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>564000168</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J5">
         <v>123546</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
       </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>5970004</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J6">
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>970005</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E7">
         <v>564000170</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J7">
         <v>123548</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>5970006</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J8">
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R8" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>970007</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J9">
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="R9" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -192,24 +192,24 @@
     <t>Nm1</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>USD140200001</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
     <t>NOSTRO</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>USD140200001</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
     <t>HKD</t>
   </si>
   <si>
@@ -267,10 +267,25 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>GBP140200001</t>
+    <t>GBP142000001</t>
   </si>
   <si>
     <t>Nm8</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>JPY142000001</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
+  </si>
+  <si>
+    <t>Nm9</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1499,7 @@
   <sheetPr/>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
@@ -1796,10 +1811,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1887,7 +1902,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>970000</v>
+        <v>370000</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -1914,7 +1929,7 @@
         <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="R2" t="s">
         <v>39</v>
@@ -1925,13 +1940,13 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>370001</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
-      </c>
-      <c r="C3">
-        <v>970001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
       </c>
       <c r="E3">
         <v>564000166</v>
@@ -1940,22 +1955,22 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
         <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
       </c>
       <c r="J3">
         <v>123544</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -1969,7 +1984,7 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>5970002</v>
+        <v>370002</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -1981,10 +1996,10 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
         <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
       </c>
       <c r="J4">
         <v>123545</v>
@@ -1996,7 +2011,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -2010,7 +2025,7 @@
         <v>63</v>
       </c>
       <c r="C5">
-        <v>970003</v>
+        <v>370003</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
@@ -2022,10 +2037,10 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
         <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
       </c>
       <c r="J5">
         <v>123546</v>
@@ -2037,7 +2052,7 @@
         <v>30</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
         <v>39</v>
@@ -2051,7 +2066,7 @@
         <v>66</v>
       </c>
       <c r="C6">
-        <v>5970004</v>
+        <v>370004</v>
       </c>
       <c r="D6" t="s">
         <v>67</v>
@@ -2063,10 +2078,10 @@
         <v>50</v>
       </c>
       <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
         <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
       </c>
       <c r="J6">
         <v>123547</v>
@@ -2078,7 +2093,7 @@
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
@@ -2092,7 +2107,7 @@
         <v>70</v>
       </c>
       <c r="C7">
-        <v>970005</v>
+        <v>370005</v>
       </c>
       <c r="D7" t="s">
         <v>71</v>
@@ -2104,10 +2119,10 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
         <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
       </c>
       <c r="J7">
         <v>123548</v>
@@ -2119,7 +2134,7 @@
         <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R7" t="s">
         <v>39</v>
@@ -2133,7 +2148,7 @@
         <v>74</v>
       </c>
       <c r="C8">
-        <v>5970006</v>
+        <v>370006</v>
       </c>
       <c r="D8" t="s">
         <v>75</v>
@@ -2145,10 +2160,10 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
         <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
       </c>
       <c r="J8">
         <v>123549</v>
@@ -2160,7 +2175,7 @@
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -2174,7 +2189,7 @@
         <v>78</v>
       </c>
       <c r="C9">
-        <v>970007</v>
+        <v>370007</v>
       </c>
       <c r="D9" t="s">
         <v>79</v>
@@ -2186,10 +2201,10 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
         <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
       </c>
       <c r="J9">
         <v>123550</v>
@@ -2201,9 +2216,91 @@
         <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="R9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>370008</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10">
+        <v>564000173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10">
+        <v>123551</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="1" spans="1:18">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>370000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>564000165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11">
+        <v>123543</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" t="s">
         <v>39</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -183,10 +183,7 @@
     <t>CITISGS0</t>
   </si>
   <si>
-    <t>address 576da5dd86dc16082b431d79470b593c9c493e0a</t>
-  </si>
-  <si>
-    <t>address 576da5dd86dc16082b431d79470b593c9c493e1a</t>
+    <t>address</t>
   </si>
   <si>
     <t>Nm1</t>
@@ -198,24 +195,30 @@
     <t>USD140200001</t>
   </si>
   <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HKD140200001</t>
+  </si>
+  <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
   </si>
   <si>
     <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
   </si>
   <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>HKD140200001</t>
-  </si>
-  <si>
     <t>Nm3</t>
   </si>
   <si>
@@ -286,6 +289,9 @@
   </si>
   <si>
     <t>Nm9</t>
+  </si>
+  <si>
+    <t>addres</t>
   </si>
 </sst>
 </file>
@@ -1813,8 +1819,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1902,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>370000</v>
+        <v>7370000</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -1917,13 +1923,13 @@
         <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>123543</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -1940,13 +1946,13 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>7370001</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3">
-        <v>370001</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
       <c r="E3">
         <v>564000166</v>
@@ -1955,22 +1961,22 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
       </c>
       <c r="J3">
         <v>123544</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R3" t="s">
         <v>39</v>
@@ -1981,13 +1987,13 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>39370002</v>
+      </c>
+      <c r="D4" t="s">
         <v>60</v>
-      </c>
-      <c r="C4">
-        <v>370002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
       </c>
       <c r="E4">
         <v>564000167</v>
@@ -1996,22 +2002,22 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J4">
         <v>123545</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
@@ -2022,13 +2028,13 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>370003</v>
+        <v>39370003</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>564000168</v>
@@ -2037,22 +2043,22 @@
         <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J5">
         <v>123546</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
       </c>
       <c r="Q5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R5" t="s">
         <v>39</v>
@@ -2063,13 +2069,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>370004</v>
+        <v>39370004</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>564000169</v>
@@ -2078,22 +2084,22 @@
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J6">
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R6" t="s">
         <v>39</v>
@@ -2101,16 +2107,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7">
-        <v>370005</v>
+        <v>39370005</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>564000170</v>
@@ -2119,22 +2125,22 @@
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J7">
         <v>123548</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R7" t="s">
         <v>39</v>
@@ -2142,16 +2148,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8">
-        <v>370006</v>
+        <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8">
         <v>564000171</v>
@@ -2160,22 +2166,22 @@
         <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J8">
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R8" t="s">
         <v>39</v>
@@ -2183,16 +2189,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9">
-        <v>370007</v>
+        <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>564000172</v>
@@ -2201,22 +2207,22 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J9">
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R9" t="s">
         <v>39</v>
@@ -2224,16 +2230,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10">
-        <v>370008</v>
+        <v>39370008</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>564000173</v>
@@ -2242,22 +2248,22 @@
         <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J10">
         <v>123551</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
         <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
@@ -2271,7 +2277,7 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>370000</v>
+        <v>7370000</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
@@ -2283,22 +2289,22 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
         <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
       </c>
       <c r="J11">
         <v>123543</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R11" t="s">
         <v>39</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -108,13 +108,13 @@
     <t>SGD</t>
   </si>
   <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>SHAR</t>
-  </si>
-  <si>
-    <t>address1</t>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>DEBT</t>
+  </si>
+  <si>
+    <t>address2</t>
   </si>
   <si>
     <t>testabc</t>
@@ -126,172 +126,181 @@
     <t>teste</t>
   </si>
   <si>
+    <t>UOVBSGS0</t>
+  </si>
+  <si>
     <t>SGMEPS</t>
   </si>
   <si>
-    <t>Name2</t>
+    <t>IRVTUS30</t>
+  </si>
+  <si>
+    <t>Name3</t>
   </si>
   <si>
     <t>CRED</t>
   </si>
   <si>
-    <t>address2</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>DEBT</t>
-  </si>
-  <si>
     <t>address3</t>
   </si>
   <si>
+    <t xml:space="preserve">IRVTSGS0 </t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>GLDTSGS0</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>NOK140200001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
     <t>OCBCSGS0</t>
   </si>
   <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HKD140200001</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>Nm4</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
+  </si>
+  <si>
+    <t>Nm5</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>AUD148050001</t>
+  </si>
+  <si>
+    <t>Nm6</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>AED148050001</t>
+  </si>
+  <si>
+    <t>Nm7</t>
+  </si>
+  <si>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>GBP142000001</t>
+  </si>
+  <si>
+    <t>Nm8</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>JPY142000001</t>
+  </si>
+  <si>
+    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
+  </si>
+  <si>
+    <t>Nm9</t>
   </si>
   <si>
     <t>SGD140200001</t>
   </si>
   <si>
-    <t>CITISGS0</t>
+    <t>addres</t>
   </si>
   <si>
     <t>address</t>
   </si>
   <si>
     <t>Nm1</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>USD140200001</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>HKD140200001</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
-  </si>
-  <si>
-    <t>Nm3</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>EUR140200001</t>
-  </si>
-  <si>
-    <t>Nm4</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>CNY140200001</t>
-  </si>
-  <si>
-    <t>Nm5</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>AUD148050001</t>
-  </si>
-  <si>
-    <t>Nm6</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>AED148050001</t>
-  </si>
-  <si>
-    <t>Nm7</t>
-  </si>
-  <si>
-    <t>CHASSGS0</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>GBP142000001</t>
-  </si>
-  <si>
-    <t>Nm8</t>
-  </si>
-  <si>
-    <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>JPY142000001</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
-  </si>
-  <si>
-    <t>Nm9</t>
-  </si>
-  <si>
-    <t>addres</t>
   </si>
 </sst>
 </file>
@@ -299,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -803,19 +812,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1505,8 +1514,8 @@
   <sheetPr/>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1616,10 +1625,10 @@
         <v>25</v>
       </c>
       <c r="C2" s="6">
-        <v>670001</v>
+        <v>19380.76</v>
       </c>
       <c r="D2" s="6">
-        <v>11010005898</v>
+        <v>11010004298</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
@@ -1644,10 +1653,10 @@
         <v>30</v>
       </c>
       <c r="M2" s="6">
-        <v>12345</v>
+        <v>123456</v>
       </c>
       <c r="N2" s="6">
-        <v>11010005898</v>
+        <v>11010004298</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>26</v>
@@ -1666,23 +1675,21 @@
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6">
-        <v>11010005898</v>
+        <v>11021223085</v>
       </c>
       <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="W2" s="6"/>
       <c r="X2" s="6"/>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:24">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="6">
-        <v>170002</v>
+        <v>600002</v>
       </c>
       <c r="D3" s="6">
         <v>11021162892</v>
@@ -1694,14 +1701,14 @@
         <v>564000165</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>29</v>
@@ -1710,16 +1717,16 @@
         <v>30</v>
       </c>
       <c r="M3" s="6">
-        <v>12345</v>
+        <v>123457</v>
       </c>
       <c r="N3" s="6">
         <v>11021162892</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="6">
         <v>23456</v>
@@ -1736,22 +1743,22 @@
       </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" s="6"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:24">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="6">
-        <v>670003</v>
+        <v>600003</v>
       </c>
       <c r="D4" s="6">
-        <v>11010005898</v>
+        <v>11010004298</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>25</v>
@@ -1760,14 +1767,14 @@
         <v>564000165</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>29</v>
@@ -1776,16 +1783,16 @@
         <v>30</v>
       </c>
       <c r="M4" s="6">
-        <v>12345</v>
+        <v>123458</v>
       </c>
       <c r="N4" s="6">
-        <v>11010005898</v>
+        <v>11010004298</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="6">
         <v>23456</v>
@@ -1798,14 +1805,14 @@
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6">
-        <v>11010005898</v>
+        <v>11010004298</v>
       </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1819,8 +1826,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1846,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1861,34 +1868,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -1900,7 +1907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="23" customHeight="1" spans="1:18">
+    <row r="2" ht="23" customHeight="1" spans="1:7">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1908,78 +1915,60 @@
         <v>25</v>
       </c>
       <c r="C2">
-        <v>7370000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
+        <v>70000</v>
+      </c>
+      <c r="D2">
+        <v>11010004964</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2">
-        <v>123543</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>7370001</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>564000166</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
       </c>
       <c r="J3">
         <v>123544</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s">
         <v>58</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1999,7 +1988,7 @@
         <v>564000167</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>61</v>
@@ -2017,10 +2006,10 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" t="s">
         <v>58</v>
-      </c>
-      <c r="R4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2040,7 +2029,7 @@
         <v>564000168</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
@@ -2058,10 +2047,10 @@
         <v>30</v>
       </c>
       <c r="Q5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" t="s">
         <v>58</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2081,7 +2070,7 @@
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>61</v>
@@ -2099,10 +2088,10 @@
         <v>30</v>
       </c>
       <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" t="s">
         <v>58</v>
-      </c>
-      <c r="R6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2122,7 +2111,7 @@
         <v>564000170</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>61</v>
@@ -2140,10 +2129,10 @@
         <v>30</v>
       </c>
       <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" t="s">
         <v>58</v>
-      </c>
-      <c r="R7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2163,7 +2152,7 @@
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
         <v>61</v>
@@ -2181,10 +2170,10 @@
         <v>30</v>
       </c>
       <c r="Q8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" t="s">
         <v>58</v>
-      </c>
-      <c r="R8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2204,7 +2193,7 @@
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>61</v>
@@ -2222,10 +2211,10 @@
         <v>30</v>
       </c>
       <c r="Q9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" t="s">
         <v>58</v>
-      </c>
-      <c r="R9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2245,7 +2234,7 @@
         <v>564000173</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>85</v>
@@ -2263,10 +2252,10 @@
         <v>30</v>
       </c>
       <c r="Q10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" t="s">
         <v>58</v>
-      </c>
-      <c r="R10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:18">
@@ -2280,34 +2269,34 @@
         <v>7370000</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>564000165</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="J11">
         <v>123543</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="Q11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" t="s">
         <v>58</v>
-      </c>
-      <c r="R11" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="98">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -147,6 +147,57 @@
     <t xml:space="preserve">IRVTSGS0 </t>
   </si>
   <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>FINAL REGRESSION COMPANY PL</t>
+  </si>
+  <si>
+    <t>30 SENOKO CRESCENT</t>
+  </si>
+  <si>
+    <t>CTBAAU20</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>QNBAQAQ0</t>
+  </si>
+  <si>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>BARCGB20</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>BOTKJPJ0</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>NORWNOK0</t>
+  </si>
+  <si>
     <t>Instructed Agent BIC</t>
   </si>
   <si>
@@ -180,12 +231,6 @@
     <t>lei</t>
   </si>
   <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
     <t>NOK140200001</t>
   </si>
   <si>
@@ -240,46 +285,22 @@
     <t>Nm5</t>
   </si>
   <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
     <t>AUD148050001</t>
   </si>
   <si>
     <t>Nm6</t>
   </si>
   <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
     <t>AED148050001</t>
   </si>
   <si>
     <t>Nm7</t>
   </si>
   <si>
-    <t>CHASSGS0</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
     <t>GBP142000001</t>
   </si>
   <si>
     <t>Nm8</t>
-  </si>
-  <si>
-    <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>JPY</t>
   </si>
   <si>
     <t>JPY142000001</t>
@@ -1512,13 +1533,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
@@ -1813,6 +1834,337 @@
       </c>
       <c r="X4" s="6" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1"/>
+    <row r="7" s="5" customFormat="1" spans="1:24">
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1100000</v>
+      </c>
+      <c r="D7" s="6">
+        <v>11021209775</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="6">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="6">
+        <v>11010004298</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6">
+        <v>11021162884</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:24">
+      <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1100001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11021210463</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="6">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="6">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="6">
+        <v>11010004298</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6">
+        <v>11021162884</v>
+      </c>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:24">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1100002</v>
+      </c>
+      <c r="D9" s="6">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="6">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="6">
+        <v>123456</v>
+      </c>
+      <c r="N9" s="6">
+        <v>11010004298</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6">
+        <v>11021162884</v>
+      </c>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:24">
+      <c r="A10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1100003</v>
+      </c>
+      <c r="D10" s="6">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="6">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="6">
+        <v>11010004298</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6">
+        <v>11021162884</v>
+      </c>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:24">
+      <c r="A11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1100004</v>
+      </c>
+      <c r="D11" s="6">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="6">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="6">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="6">
+        <v>11010004298</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6">
+        <v>11021162884</v>
+      </c>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +2205,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1868,34 +2220,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -1924,51 +2276,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>7370001</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>564000166</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J3">
         <v>123544</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1976,40 +2328,40 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>39370002</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>564000167</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J4">
         <v>123545</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2017,40 +2369,40 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C5">
         <v>39370003</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>564000168</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J5">
         <v>123546</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
       </c>
       <c r="Q5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2058,204 +2410,204 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>39370004</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J6">
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>39370005</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>564000170</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J7">
         <v>123548</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J8">
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="J9">
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>39370008</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>564000173</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J10">
         <v>123551</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s">
         <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:18">
@@ -2269,34 +2621,34 @@
         <v>7370000</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>564000165</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J11">
         <v>123543</v>
       </c>
       <c r="K11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="R11" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -132,7 +132,7 @@
     <t>SGMEPS</t>
   </si>
   <si>
-    <t>IRVTUS30</t>
+    <t>HKD</t>
   </si>
   <si>
     <t>Name3</t>
@@ -144,7 +144,25 @@
     <t>address3</t>
   </si>
   <si>
-    <t xml:space="preserve">IRVTSGS0 </t>
+    <t>SCBLHKH0</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>FINAL REGRESSION COMPANY PL</t>
+  </si>
+  <si>
+    <t>30 SENOKO CRESCENT</t>
+  </si>
+  <si>
+    <t>CHBKPHM0</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EBRDGB20</t>
   </si>
   <si>
     <t>ANZBAU30</t>
@@ -153,13 +171,7 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>FINAL REGRESSION COMPANY PL</t>
-  </si>
-  <si>
-    <t>30 SENOKO CRESCENT</t>
-  </si>
-  <si>
-    <t>CTBAAU20</t>
+    <t>WPACAU20</t>
   </si>
   <si>
     <t>EBILAEA0</t>
@@ -168,7 +180,7 @@
     <t>AED</t>
   </si>
   <si>
-    <t>QNBAQAQ0</t>
+    <t>ARABJOA0</t>
   </si>
   <si>
     <t>CHASSGS0</t>
@@ -252,9 +264,6 @@
     <t>OCBCSGS0</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>HKD140200001</t>
   </si>
   <si>
@@ -267,16 +276,10 @@
     <t>Nm3</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>EUR140200001</t>
   </si>
   <si>
     <t>Nm4</t>
-  </si>
-  <si>
-    <t>CNY</t>
   </si>
   <si>
     <t>CNY140200001</t>
@@ -1536,7 +1539,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1770,19 +1773,19 @@
     </row>
     <row r="4" s="5" customFormat="1" spans="1:24">
       <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" s="6">
-        <v>600003</v>
+        <v>1600003</v>
       </c>
       <c r="D4" s="6">
-        <v>11010004298</v>
+        <v>11021200646</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6">
         <v>564000165</v>
@@ -1807,7 +1810,7 @@
         <v>123458</v>
       </c>
       <c r="N4" s="6">
-        <v>11010004298</v>
+        <v>11021200646</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>35</v>
@@ -1836,22 +1839,153 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1"/>
+    <row r="5" s="5" customFormat="1" spans="1:24">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1600004</v>
+      </c>
+      <c r="D5" s="6">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="6">
+        <v>564000165</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="6">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="6">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:24">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1600005</v>
+      </c>
+      <c r="D6" s="6">
+        <v>11021200662</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="6">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="6">
+        <v>11021200662</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6">
+        <v>11021162884</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="7" s="5" customFormat="1" spans="1:24">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6">
-        <v>1100000</v>
+        <v>1600006</v>
       </c>
       <c r="D7" s="6">
         <v>11021209775</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6">
         <v>564000165</v>
@@ -1860,7 +1994,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
@@ -1876,13 +2010,13 @@
         <v>123456</v>
       </c>
       <c r="N7" s="6">
-        <v>11010004298</v>
+        <v>11021209775</v>
       </c>
       <c r="O7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="Q7" s="6">
         <v>23456</v>
@@ -1900,24 +2034,24 @@
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:24">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6">
-        <v>1100001</v>
+        <v>1600007</v>
       </c>
       <c r="D8" s="6">
         <v>11021210463</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6">
         <v>564000166</v>
@@ -1926,7 +2060,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
@@ -1942,13 +2076,13 @@
         <v>123456</v>
       </c>
       <c r="N8" s="6">
-        <v>11010004298</v>
+        <v>11021210463</v>
       </c>
       <c r="O8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="Q8" s="6">
         <v>23456</v>
@@ -1966,15 +2100,15 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:24">
       <c r="A9" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" s="6">
         <v>1100002</v>
@@ -1983,7 +2117,7 @@
         <v>11021212547</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6">
         <v>564000167</v>
@@ -1992,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
@@ -2008,13 +2142,13 @@
         <v>123456</v>
       </c>
       <c r="N9" s="6">
-        <v>11010004298</v>
+        <v>11021212547</v>
       </c>
       <c r="O9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="Q9" s="6">
         <v>23456</v>
@@ -2032,15 +2166,15 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:24">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6">
         <v>1100003</v>
@@ -2049,7 +2183,7 @@
         <v>11021214167</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F10" s="6">
         <v>564000168</v>
@@ -2074,13 +2208,13 @@
         <v>123456</v>
       </c>
       <c r="N10" s="6">
-        <v>11010004298</v>
+        <v>11021214167</v>
       </c>
       <c r="O10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="Q10" s="6">
         <v>23456</v>
@@ -2098,15 +2232,15 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:24">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6">
         <v>1100004</v>
@@ -2115,7 +2249,7 @@
         <v>11021223115</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6">
         <v>564000169</v>
@@ -2140,13 +2274,13 @@
         <v>123456</v>
       </c>
       <c r="N11" s="6">
-        <v>11010004298</v>
+        <v>11021223115</v>
       </c>
       <c r="O11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="Q11" s="6">
         <v>23456</v>
@@ -2164,7 +2298,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2220,34 +2354,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -2276,51 +2410,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>7370001</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>564000166</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J3">
         <v>123544</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2328,40 +2462,40 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>39370002</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>564000167</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J4">
         <v>123545</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2369,40 +2503,40 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>39370003</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>564000168</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J5">
         <v>123546</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2410,204 +2544,204 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>39370004</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J6">
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>39370005</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7">
         <v>564000170</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J7">
         <v>123548</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J8">
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>39370008</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>564000173</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J10">
         <v>123551</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
         <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:18">
@@ -2621,34 +2755,34 @@
         <v>7370000</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>564000165</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J11">
         <v>123543</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="97">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -267,10 +267,7 @@
     <t>HKD140200001</t>
   </si>
   <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+3</t>
-  </si>
-  <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+2</t>
+    <t>New address</t>
   </si>
   <si>
     <t>Nm3</t>
@@ -279,9 +276,6 @@
     <t>EUR140200001</t>
   </si>
   <si>
-    <t>Nm4</t>
-  </si>
-  <si>
     <t>CNY140200001</t>
   </si>
   <si>
@@ -291,34 +285,34 @@
     <t>AUD148050001</t>
   </si>
   <si>
-    <t>Nm6</t>
+    <t>NATAAU30</t>
   </si>
   <si>
     <t>AED148050001</t>
   </si>
   <si>
+    <t>NBADAEA0</t>
+  </si>
+  <si>
     <t>Nm7</t>
   </si>
   <si>
     <t>GBP142000001</t>
   </si>
   <si>
+    <t>LOYDGB20</t>
+  </si>
+  <si>
     <t>Nm8</t>
   </si>
   <si>
     <t>JPY142000001</t>
   </si>
   <si>
-    <t>New Name&amp;address we A00/11-2?8:(99).,'+4</t>
-  </si>
-  <si>
     <t>Nm9</t>
   </si>
   <si>
     <t>SGD140200001</t>
-  </si>
-  <si>
-    <t>addres</t>
   </si>
   <si>
     <t>address</t>
@@ -1538,8 +1532,8 @@
   <sheetPr/>
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -2312,8 +2306,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2477,16 +2471,16 @@
         <v>72</v>
       </c>
       <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
         <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>80</v>
       </c>
       <c r="J4">
         <v>123545</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
@@ -2509,34 +2503,18 @@
         <v>39370003</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5">
-        <v>564000168</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5">
-        <v>123546</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G5"/>
       <c r="Q5" t="s">
         <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2550,25 +2528,25 @@
         <v>39370004</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
         <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
       </c>
       <c r="J6">
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
@@ -2577,7 +2555,7 @@
         <v>76</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2591,34 +2569,18 @@
         <v>39370005</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7">
-        <v>564000170</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7">
-        <v>123548</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G7"/>
       <c r="Q7" t="s">
         <v>76</v>
       </c>
       <c r="R7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2632,25 +2594,25 @@
         <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
         <v>79</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
       </c>
       <c r="J8">
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
@@ -2659,7 +2621,7 @@
         <v>76</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2673,19 +2635,19 @@
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
         <v>79</v>
-      </c>
-      <c r="I9" t="s">
-        <v>80</v>
       </c>
       <c r="J9">
         <v>123550</v>
@@ -2700,7 +2662,7 @@
         <v>76</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2723,7 +2685,7 @@
         <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
         <v>79</v>
@@ -2732,7 +2694,7 @@
         <v>123551</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s">
         <v>30</v>
@@ -2755,7 +2717,7 @@
         <v>7370000</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>564000165</v>
@@ -2764,16 +2726,16 @@
         <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J11">
         <v>123543</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -174,127 +174,133 @@
     <t>WPACAU20</t>
   </si>
   <si>
+    <t>CBAUAEA0</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>SHAR</t>
+  </si>
+  <si>
+    <t>BARCUS30</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>BARCSGS0</t>
+  </si>
+  <si>
+    <t>BOJPJPJ0</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>NBHKNOK0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>GLDTSGS0</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK140200001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>HKD140200001</t>
+  </si>
+  <si>
+    <t>New address</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
+  </si>
+  <si>
+    <t>Nm5</t>
+  </si>
+  <si>
+    <t>AUD148050001</t>
+  </si>
+  <si>
+    <t>NATAAU30</t>
+  </si>
+  <si>
     <t>EBILAEA0</t>
   </si>
   <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>ARABJOA0</t>
+    <t>AED148050001</t>
+  </si>
+  <si>
+    <t>NBADAEA0</t>
+  </si>
+  <si>
+    <t>Nm7</t>
   </si>
   <si>
     <t>CHASSGS0</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>BARCGB20</t>
-  </si>
-  <si>
-    <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>BOTKJPJ0</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>NORWNOK0</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>GLDTSGS0</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>NOK140200001</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>OCBCSGS0</t>
-  </si>
-  <si>
-    <t>HKD140200001</t>
-  </si>
-  <si>
-    <t>New address</t>
-  </si>
-  <si>
-    <t>Nm3</t>
-  </si>
-  <si>
-    <t>EUR140200001</t>
-  </si>
-  <si>
-    <t>CNY140200001</t>
-  </si>
-  <si>
-    <t>Nm5</t>
-  </si>
-  <si>
-    <t>AUD148050001</t>
-  </si>
-  <si>
-    <t>NATAAU30</t>
-  </si>
-  <si>
-    <t>AED148050001</t>
-  </si>
-  <si>
-    <t>NBADAEA0</t>
-  </si>
-  <si>
-    <t>Nm7</t>
   </si>
   <si>
     <t>GBP142000001</t>
@@ -492,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +863,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,16 +887,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -893,89 +905,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,7 +1006,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1532,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1636,662 +1654,662 @@
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:24">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>564000165</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="7">
         <v>123456</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="7">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="7">
         <v>23456</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:24">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>600002</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>11021162892</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>564000165</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>123457</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="7">
         <v>11021162892</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="7">
         <v>23456</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6">
+      <c r="T3" s="7"/>
+      <c r="U3" s="7">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="6"/>
+      <c r="X3" s="7"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:24">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>1600003</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>564000165</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>123458</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="7">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="7">
         <v>23456</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6">
+      <c r="T4" s="7"/>
+      <c r="U4" s="7">
         <v>11010004298</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:24">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>1600004</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>564000165</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>123456</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="7">
         <v>23456</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6">
+      <c r="T5" s="7"/>
+      <c r="U5" s="7">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6" t="s">
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:24">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>1600005</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>564000165</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>123456</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="7">
         <v>23456</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6" t="s">
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:24">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>1600006</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>564000165</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>123456</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>11021209775</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="7">
         <v>23456</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6">
+      <c r="T7" s="7"/>
+      <c r="U7" s="7">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6" t="s">
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="1:24">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="6" customFormat="1" spans="1:24">
+      <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6">
-        <v>1600007</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="8">
+        <v>10007</v>
+      </c>
+      <c r="D8" s="8">
         <v>11021210463</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>564000166</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="H8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="8">
         <v>123456</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="8">
         <v>11021210463</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="8">
         <v>23456</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6" t="s">
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:24">
+      <c r="A9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10008</v>
+      </c>
+      <c r="D9" s="8">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="8">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>50</v>
       </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="8">
+        <v>123456</v>
+      </c>
+      <c r="N9" s="8">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8">
+        <v>11021162884</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" s="5" customFormat="1" spans="1:24">
-      <c r="A9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1100002</v>
-      </c>
-      <c r="D9" s="6">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="6">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="6" t="s">
+    <row r="10" s="6" customFormat="1" spans="1:24">
+      <c r="A10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10009</v>
+      </c>
+      <c r="D10" s="8">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="8">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
+      <c r="H10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M10" s="8">
         <v>123456</v>
       </c>
-      <c r="N9" s="6">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="6" t="s">
+      <c r="N10" s="8">
+        <v>11021214167</v>
+      </c>
+      <c r="O10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q10" s="8">
         <v>23456</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6">
+      <c r="T10" s="8"/>
+      <c r="U10" s="8">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6" t="s">
-        <v>53</v>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:24">
-      <c r="A10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1100003</v>
-      </c>
-      <c r="D10" s="6">
-        <v>11021214167</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="6">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="6" t="s">
+    <row r="11" s="6" customFormat="1" spans="1:24">
+      <c r="A11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10010</v>
+      </c>
+      <c r="D11" s="8">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="8">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
+      <c r="H11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M11" s="8">
         <v>123456</v>
       </c>
-      <c r="N10" s="6">
-        <v>11021214167</v>
-      </c>
-      <c r="O10" s="6" t="s">
+      <c r="N11" s="8">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q11" s="8">
         <v>23456</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6">
+      <c r="T11" s="8"/>
+      <c r="U11" s="8">
         <v>11021162884</v>
       </c>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" spans="1:24">
-      <c r="A11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1100004</v>
-      </c>
-      <c r="D11" s="6">
-        <v>11021223115</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="6">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="6">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="6">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6">
-        <v>11021162884</v>
-      </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6" t="s">
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2306,7 +2324,7 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -2412,7 +2430,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -2421,34 +2439,34 @@
         <v>7370001</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>564000166</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3">
         <v>123544</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2468,10 +2486,10 @@
         <v>564000167</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
         <v>79</v>
@@ -2486,10 +2504,10 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2511,7 +2529,7 @@
       </c>
       <c r="G5"/>
       <c r="Q5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s">
         <v>44</v>
@@ -2537,7 +2555,7 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
         <v>79</v>
@@ -2552,7 +2570,7 @@
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s">
         <v>42</v>
@@ -2577,7 +2595,7 @@
       </c>
       <c r="G7"/>
       <c r="Q7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s">
         <v>85</v>
@@ -2585,7 +2603,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -2594,16 +2612,16 @@
         <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
         <v>79</v>
@@ -2612,21 +2630,21 @@
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -2635,16 +2653,16 @@
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
@@ -2653,21 +2671,21 @@
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -2676,16 +2694,16 @@
         <v>39370008</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>564000173</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
         <v>79</v>
@@ -2694,16 +2712,16 @@
         <v>123551</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s">
         <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:18">
@@ -2717,34 +2735,34 @@
         <v>7370000</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>564000165</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J11">
         <v>123543</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="102">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -126,157 +126,166 @@
     <t>teste</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>BOFAUS30</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>HSBCHKH0</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>FINAL REGRESSION COMPANY PL</t>
+  </si>
+  <si>
+    <t>30 SENOKO CRESCENT</t>
+  </si>
+  <si>
+    <t>BDFEFRP0</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ICBKCNB0</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>WPACAU20</t>
+  </si>
+  <si>
+    <t>CBAUAEA0</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>SHAR</t>
+  </si>
+  <si>
     <t>UOVBSGS0</t>
   </si>
   <si>
-    <t>SGMEPS</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>CRED</t>
-  </si>
-  <si>
-    <t>address3</t>
-  </si>
-  <si>
-    <t>SCBLHKH0</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>FINAL REGRESSION COMPANY PL</t>
-  </si>
-  <si>
-    <t>30 SENOKO CRESCENT</t>
+    <t>BARCUS30</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>BARCSGS0</t>
+  </si>
+  <si>
+    <t>BOJPJPJ0</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>NBHKNOK0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>GLDTSGS0</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK140200001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>HKD140200001</t>
+  </si>
+  <si>
+    <t>New address</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>EBRDGB20</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
   </si>
   <si>
     <t>CHBKPHM0</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>EBRDGB20</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>WPACAU20</t>
-  </si>
-  <si>
-    <t>CBAUAEA0</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>SHAR</t>
-  </si>
-  <si>
-    <t>BARCUS30</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>BARCSGS0</t>
-  </si>
-  <si>
-    <t>BOJPJPJ0</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>NBHKNOK0</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>OCBCSGS0</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>GLDTSGS0</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK140200001</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>HKD140200001</t>
-  </si>
-  <si>
-    <t>New address</t>
-  </si>
-  <si>
-    <t>Nm3</t>
-  </si>
-  <si>
-    <t>EUR140200001</t>
-  </si>
-  <si>
-    <t>CNY140200001</t>
   </si>
   <si>
     <t>Nm5</t>
@@ -987,7 +996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,10 +1018,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1551,7 +1566,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1654,663 +1669,661 @@
       </c>
     </row>
     <row r="2" s="5" customFormat="1" spans="1:24">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>564000165</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>123456</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="8">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="8">
         <v>23456</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:24">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="6" customFormat="1" spans="1:24">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7">
-        <v>600002</v>
-      </c>
-      <c r="D3" s="7">
-        <v>11021162892</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="C3" s="9">
+        <v>10002</v>
+      </c>
+      <c r="D3" s="9">
+        <v>11021162906</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="9">
         <v>564000165</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="9">
         <v>123457</v>
       </c>
-      <c r="N3" s="7">
-        <v>11021162892</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="9">
+        <v>11021162906</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="9">
         <v>23456</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7" t="s">
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="7"/>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:24">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="6" customFormat="1" spans="1:24">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="7">
-        <v>1600003</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="9">
+        <v>10003</v>
+      </c>
+      <c r="D4" s="9">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>564000165</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="9">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="9">
+        <v>11021200646</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
+      <c r="Q4" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9">
+        <v>11021162884</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:24">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9">
+        <v>10004</v>
+      </c>
+      <c r="D5" s="9">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="9">
+        <v>564000165</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="7">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11021200646</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="M5" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="9">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="9">
         <v>23456</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7">
-        <v>11010004298</v>
-      </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>38</v>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:24">
-      <c r="A5" s="7" t="s">
+    <row r="6" s="6" customFormat="1" spans="1:24">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10005</v>
+      </c>
+      <c r="D6" s="9">
+        <v>11021200662</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="9">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="9">
+        <v>11021200662</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7">
-        <v>1600004</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="P6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="7">
-        <v>123456</v>
-      </c>
-      <c r="N5" s="7">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7">
+      <c r="T6" s="9"/>
+      <c r="U6" s="9">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="1:24">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1600005</v>
-      </c>
-      <c r="D6" s="7">
-        <v>11021200662</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="7">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="7">
-        <v>11021200662</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7">
-        <v>11021162884</v>
-      </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:24">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="8">
+        <v>1600006</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11021209775</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="8">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7">
-        <v>1600006</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="8">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="8">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="7">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="O7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8">
+        <v>11021162884</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="1" spans="1:24">
+      <c r="A8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10007</v>
+      </c>
+      <c r="D8" s="10">
+        <v>11021210463</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="10">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="H8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M8" s="10">
         <v>123456</v>
       </c>
-      <c r="N7" s="7">
-        <v>11021209775</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="N8" s="10">
+        <v>11021210463</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="Q8" s="10">
         <v>23456</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7">
+      <c r="T8" s="10"/>
+      <c r="U8" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7" t="s">
-        <v>47</v>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:24">
-      <c r="A8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8">
-        <v>10007</v>
-      </c>
-      <c r="D8" s="8">
-        <v>11021210463</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="8">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="8" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:24">
+      <c r="A9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10008</v>
+      </c>
+      <c r="D9" s="10">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="10">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M9" s="10">
         <v>123456</v>
       </c>
-      <c r="N8" s="8">
-        <v>11021210463</v>
-      </c>
-      <c r="O8" s="8" t="s">
+      <c r="N9" s="10">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="Q9" s="10">
         <v>23456</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8" t="s">
-        <v>32</v>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:24">
-      <c r="A9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="8">
-        <v>10008</v>
-      </c>
-      <c r="D9" s="8">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="8">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="8" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:24">
+      <c r="A10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10009</v>
+      </c>
+      <c r="D10" s="10">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="10">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M10" s="10">
         <v>123456</v>
       </c>
-      <c r="N9" s="8">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="8" t="s">
+      <c r="N10" s="10">
+        <v>11021214167</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="Q10" s="10">
         <v>23456</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8">
+      <c r="T10" s="10"/>
+      <c r="U10" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8" t="s">
-        <v>53</v>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:24">
-      <c r="A10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="8">
-        <v>10009</v>
-      </c>
-      <c r="D10" s="8">
-        <v>11021214167</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="8">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="8" t="s">
+    <row r="11" s="7" customFormat="1" spans="1:24">
+      <c r="A11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10010</v>
+      </c>
+      <c r="D11" s="10">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="10">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M11" s="10">
         <v>123456</v>
       </c>
-      <c r="N10" s="8">
-        <v>11021214167</v>
-      </c>
-      <c r="O10" s="8" t="s">
+      <c r="N11" s="10">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="8">
+      <c r="Q11" s="10">
         <v>23456</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="8" t="s">
+      <c r="S11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" spans="1:24">
-      <c r="A11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="8">
-        <v>10010</v>
-      </c>
-      <c r="D11" s="8">
-        <v>11021223115</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="8">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="8">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="8">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8">
-        <v>11021162884</v>
-      </c>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8" t="s">
-        <v>59</v>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2364,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2366,34 +2379,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>21</v>
@@ -2422,51 +2435,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>7370001</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>564000166</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3">
         <v>123544</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2480,34 +2493,34 @@
         <v>39370002</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>564000167</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J4">
         <v>123545</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2515,24 +2528,24 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>39370003</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G5"/>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2540,70 +2553,70 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>39370004</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6">
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
       </c>
       <c r="C7">
         <v>39370005</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G7"/>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -2612,116 +2625,116 @@
         <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8">
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9">
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
         <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
       </c>
       <c r="C10">
         <v>39370008</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>564000173</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10">
         <v>123551</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s">
         <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1" spans="1:18">
@@ -2735,34 +2748,34 @@
         <v>7370000</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>564000165</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J11">
         <v>123543</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="101">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -129,7 +129,10 @@
     <t>USD</t>
   </si>
   <si>
-    <t>BOFAUS30</t>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>FCBTUS30</t>
   </si>
   <si>
     <t>HKD</t>
@@ -168,9 +171,6 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>CRED</t>
-  </si>
-  <si>
     <t>WPACAU20</t>
   </si>
   <si>
@@ -186,87 +186,87 @@
     <t>UOVBSGS0</t>
   </si>
   <si>
-    <t>BARCUS30</t>
+    <t>CHASSGS0</t>
   </si>
   <si>
     <t>GBP</t>
   </si>
   <si>
-    <t>BARCSGS0</t>
-  </si>
-  <si>
-    <t>BOJPJPJ0</t>
+    <t>ROYCCAT0</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>NBHKNOK0</t>
+    <t>SCBLJPJ0</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
   </si>
   <si>
     <t>NOK</t>
   </si>
   <si>
+    <t>STFBNOK0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>GLDTSGS0</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>NOK140200001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
     <t>OCBCSGS0</t>
   </si>
   <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>GLDTSGS0</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK140200001</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
     <t>HKD140200001</t>
   </si>
   <si>
@@ -309,9 +309,6 @@
     <t>Nm7</t>
   </si>
   <si>
-    <t>CHASSGS0</t>
-  </si>
-  <si>
     <t>GBP142000001</t>
   </si>
   <si>
@@ -327,7 +324,7 @@
     <t>Nm9</t>
   </si>
   <si>
-    <t>SGD140200001</t>
+    <t>USD140200001</t>
   </si>
   <si>
     <t>address</t>
@@ -516,6 +513,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -529,12 +532,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,26 +993,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1024,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,8 +1565,8 @@
   <sheetPr/>
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1595,536 +1595,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="1:24">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:24">
+      <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <v>564000165</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="9">
         <v>123456</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="9">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="9">
         <v>23456</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:24">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:24">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9">
-        <v>10002</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="10">
+        <v>10001</v>
+      </c>
+      <c r="D3" s="10">
         <v>11021162906</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>564000165</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="10">
+        <v>123457</v>
+      </c>
+      <c r="N3" s="10">
+        <v>11021162906</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10">
+        <v>11021162884</v>
+      </c>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:24">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10003</v>
+      </c>
+      <c r="D4" s="11">
+        <v>11021200646</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="11">
+        <v>564000165</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="9">
-        <v>123457</v>
-      </c>
-      <c r="N3" s="9">
-        <v>11021162906</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="M4" s="11">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="11">
+        <v>11021200646</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:24">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10004</v>
+      </c>
+      <c r="D5" s="11">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11">
+        <v>564000165</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="H5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="K5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="11">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="11">
         <v>23456</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:24">
+      <c r="A6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10005</v>
+      </c>
+      <c r="D6" s="11">
+        <v>11021200662</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="11">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="11">
+        <v>11021200662</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:24">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1600006</v>
+      </c>
+      <c r="D7" s="9">
+        <v>11021209775</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="9">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="9">
+        <v>11021209775</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9">
+        <v>11021162884</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:24">
-      <c r="A4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="9">
-        <v>10003</v>
-      </c>
-      <c r="D4" s="9">
-        <v>11021200646</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+    <row r="8" s="8" customFormat="1" spans="1:24">
+      <c r="A8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10007</v>
+      </c>
+      <c r="D8" s="11">
+        <v>11021210463</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="11">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="9">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="9">
-        <v>11021200646</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="9">
+      <c r="M8" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="11">
+        <v>11021210463</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="11">
         <v>23456</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9">
+      <c r="T8" s="11"/>
+      <c r="U8" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:24">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9">
-        <v>10004</v>
-      </c>
-      <c r="D5" s="9">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N5" s="9">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" spans="1:24">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="9">
-        <v>10005</v>
-      </c>
-      <c r="D6" s="9">
-        <v>11021200662</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="9">
-        <v>11021200662</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9">
-        <v>11021162884</v>
-      </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" spans="1:24">
-      <c r="A7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1600006</v>
-      </c>
-      <c r="D7" s="8">
-        <v>11021209775</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="8">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="8">
-        <v>123456</v>
-      </c>
-      <c r="N7" s="8">
-        <v>11021209775</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8">
-        <v>11021162884</v>
-      </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" s="7" customFormat="1" spans="1:24">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="10">
-        <v>10007</v>
-      </c>
-      <c r="D8" s="10">
-        <v>11021210463</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="10">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N8" s="10">
-        <v>11021210463</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10">
-        <v>11021162884</v>
-      </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10" t="s">
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="10">
-        <v>10008</v>
+        <v>10002</v>
       </c>
       <c r="D9" s="10">
         <v>11021212547</v>
@@ -2151,7 +2151,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
@@ -2170,10 +2170,10 @@
         <v>11021212547</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="10">
         <v>23456</v>
@@ -2202,7 +2202,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="10">
-        <v>10009</v>
+        <v>10003</v>
       </c>
       <c r="D10" s="10">
         <v>11021214167</v>
@@ -2217,7 +2217,7 @@
         <v>26</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
@@ -2236,10 +2236,10 @@
         <v>11021214167</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="10">
         <v>23456</v>
@@ -2268,7 +2268,7 @@
         <v>59</v>
       </c>
       <c r="C11" s="10">
-        <v>10010</v>
+        <v>10004</v>
       </c>
       <c r="D11" s="10">
         <v>11021223115</v>
@@ -2283,7 +2283,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
@@ -2302,10 +2302,10 @@
         <v>11021223115</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="10">
         <v>23456</v>
@@ -2337,8 +2337,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2363,58 +2363,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2441,86 +2441,86 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>7370001</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1">
+        <v>564000166</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E3">
-        <v>564000166</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="1">
+        <v>123544</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J3">
-        <v>123544</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1">
+        <v>564000167</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="1">
+        <v>123545</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="R3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
-        <v>39370002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4">
-        <v>564000167</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4">
-        <v>123545</v>
-      </c>
-      <c r="K4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2528,7 +2528,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>39370003</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="G5"/>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s">
         <v>83</v>
@@ -2553,7 +2553,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>39370004</v>
@@ -2568,7 +2568,7 @@
         <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
         <v>80</v>
@@ -2583,7 +2583,7 @@
         <v>30</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s">
         <v>85</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>39370005</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="G7"/>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s">
         <v>88</v>
@@ -2634,7 +2634,7 @@
         <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
         <v>80</v>
@@ -2649,7 +2649,7 @@
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
         <v>91</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -2666,16 +2666,16 @@
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
         <v>80</v>
@@ -2684,98 +2684,98 @@
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
       <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10003</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="1">
+        <v>564000173</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="1">
+        <v>123551</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R9" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10">
-        <v>39370008</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10">
-        <v>564000173</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="1">
+        <v>564000165</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10">
-        <v>123551</v>
-      </c>
-      <c r="K10" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="I11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="1">
+        <v>123543</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="R10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" ht="23" customHeight="1" spans="1:18">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>7370000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11">
-        <v>564000165</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>123543</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>78</v>
-      </c>
-      <c r="R11" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="104">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -264,7 +264,7 @@
     <t>NOSTRO</t>
   </si>
   <si>
-    <t>OCBCSGS0</t>
+    <t>SCFBDE30</t>
   </si>
   <si>
     <t>HKD140200001</t>
@@ -276,6 +276,9 @@
     <t>Nm3</t>
   </si>
   <si>
+    <t>HASEHKH0</t>
+  </si>
+  <si>
     <t>EUR140200001</t>
   </si>
   <si>
@@ -324,6 +327,9 @@
     <t>Nm9</t>
   </si>
   <si>
+    <t>HAMAJPJ0</t>
+  </si>
+  <si>
     <t>USD140200001</t>
   </si>
   <si>
@@ -331,6 +337,9 @@
   </si>
   <si>
     <t>Nm1</t>
+  </si>
+  <si>
+    <t>BBFXUS60</t>
   </si>
 </sst>
 </file>
@@ -2337,8 +2346,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2520,7 +2529,7 @@
         <v>77</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2534,18 +2543,18 @@
         <v>39370003</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5"/>
       <c r="Q5" t="s">
         <v>77</v>
       </c>
       <c r="R5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2559,13 +2568,13 @@
         <v>39370004</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
         <v>74</v>
@@ -2577,7 +2586,7 @@
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
         <v>30</v>
@@ -2586,7 +2595,7 @@
         <v>77</v>
       </c>
       <c r="R6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2600,23 +2609,23 @@
         <v>39370005</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7"/>
       <c r="Q7" t="s">
         <v>77</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -2625,13 +2634,13 @@
         <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>74</v>
@@ -2643,7 +2652,7 @@
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
         <v>30</v>
@@ -2652,7 +2661,7 @@
         <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2666,13 +2675,13 @@
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>74</v>
@@ -2684,7 +2693,7 @@
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
@@ -2693,7 +2702,7 @@
         <v>77</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
@@ -2707,7 +2716,7 @@
         <v>10003</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
@@ -2725,7 +2734,7 @@
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>30</v>
@@ -2734,7 +2743,7 @@
         <v>77</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -2748,7 +2757,7 @@
         <v>10004</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1">
         <v>564000165</v>
@@ -2760,13 +2769,13 @@
         <v>74</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J11" s="1">
         <v>123543</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>30</v>
@@ -2775,7 +2784,7 @@
         <v>77</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -246,7 +246,7 @@
     <t>lei</t>
   </si>
   <si>
-    <t>NOK140200001</t>
+    <t>NOK142000001</t>
   </si>
   <si>
     <t>CITISGS0</t>
@@ -2346,8 +2346,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2458,7 +2458,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="1">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>72</v>
@@ -2499,7 +2499,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="1">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>79</v>
@@ -2713,7 +2713,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="1">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>97</v>
@@ -2754,7 +2754,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>100</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="107">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -102,6 +102,9 @@
     <t>BIC</t>
   </si>
   <si>
+    <t>Intermediary BIC</t>
+  </si>
+  <si>
     <t>DBSSSGS0</t>
   </si>
   <si>
@@ -174,142 +177,148 @@
     <t>WPACAU20</t>
   </si>
   <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>SHAR</t>
+  </si>
+  <si>
     <t>CBAUAEA0</t>
   </si>
   <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>SHAR</t>
-  </si>
-  <si>
     <t>UOVBSGS0</t>
   </si>
   <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>BARCUS30</t>
+  </si>
+  <si>
+    <t>BARCSGS0</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>BOJPJPJ0</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>NBHKNOK0</t>
+  </si>
+  <si>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>GLDTSGS0</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK142000001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>SCFBDE30</t>
+  </si>
+  <si>
+    <t>HKD140200001</t>
+  </si>
+  <si>
+    <t>New address</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>HASEHKH0</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>EBRDGB20</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
+  </si>
+  <si>
+    <t>CHBKPHM0</t>
+  </si>
+  <si>
+    <t>Nm5</t>
+  </si>
+  <si>
+    <t>AUD148050001</t>
+  </si>
+  <si>
+    <t>NATAAU30</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>AED148050001</t>
+  </si>
+  <si>
+    <t>NBADAEA0</t>
+  </si>
+  <si>
+    <t>Nm7</t>
+  </si>
+  <si>
     <t>CHASSGS0</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>ROYCCAT0</t>
-  </si>
-  <si>
-    <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>SCBLJPJ0</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>STFBNOK0</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>GLDTSGS0</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>NOK142000001</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>SCFBDE30</t>
-  </si>
-  <si>
-    <t>HKD140200001</t>
-  </si>
-  <si>
-    <t>New address</t>
-  </si>
-  <si>
-    <t>Nm3</t>
-  </si>
-  <si>
-    <t>HASEHKH0</t>
-  </si>
-  <si>
-    <t>EUR140200001</t>
-  </si>
-  <si>
-    <t>EBRDGB20</t>
-  </si>
-  <si>
-    <t>CNY140200001</t>
-  </si>
-  <si>
-    <t>CHBKPHM0</t>
-  </si>
-  <si>
-    <t>Nm5</t>
-  </si>
-  <si>
-    <t>AUD148050001</t>
-  </si>
-  <si>
-    <t>NATAAU30</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED148050001</t>
-  </si>
-  <si>
-    <t>NBADAEA0</t>
-  </si>
-  <si>
-    <t>Nm7</t>
   </si>
   <si>
     <t>GBP142000001</t>
@@ -1002,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,19 +1033,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1572,10 +1602,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1601,9 +1631,10 @@
     <col min="21" max="21" width="12.8888888888889"/>
     <col min="22" max="23" width="23.7777777777778" customWidth="1"/>
     <col min="24" max="24" width="17.4444444444444" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1676,663 +1707,676 @@
       <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:24">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:25">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9">
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N2" s="10">
+        <v>11010004298</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10">
+        <v>11021223085</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="15"/>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:25">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9">
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10001</v>
+      </c>
+      <c r="D3" s="11">
+        <v>11021162906</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="11">
         <v>564000165</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="H3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="11">
+        <v>123457</v>
+      </c>
+      <c r="N3" s="11">
+        <v>11021162906</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="16"/>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:25">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="12">
+        <v>10003</v>
+      </c>
+      <c r="D4" s="12">
+        <v>11021200646</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="12">
+        <v>564000165</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="9">
+      <c r="L4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="12">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="12">
+        <v>11021200646</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
+        <v>11021162884</v>
+      </c>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="17"/>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:25">
+      <c r="A5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12">
+        <v>10004</v>
+      </c>
+      <c r="D5" s="12">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12">
+        <v>564000165</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N2" s="9">
-        <v>11010004298</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="N5" s="12">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="17"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:25">
+      <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10005</v>
+      </c>
+      <c r="D6" s="12">
+        <v>11021200662</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="12">
+        <v>11021200662</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="12">
         <v>23456</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
+        <v>11021162884</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="17"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:25">
+      <c r="A7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1600006</v>
+      </c>
+      <c r="D7" s="10">
+        <v>11021209775</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9">
-        <v>11021223085</v>
-      </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+      <c r="L7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="10">
+        <v>11021209775</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10">
+        <v>11021162884</v>
+      </c>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="15"/>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:24">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="8" s="9" customFormat="1" spans="1:25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="13">
+        <v>10007</v>
+      </c>
+      <c r="D8" s="13">
+        <v>11021210463</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="13">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="13">
+        <v>11021210463</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10">
-        <v>10001</v>
-      </c>
-      <c r="D3" s="10">
-        <v>11021162906</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="S8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="13">
+        <v>10002</v>
+      </c>
+      <c r="D9" s="13">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="13">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N9" s="13">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="10">
-        <v>564000165</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="S9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="13">
+        <v>10003</v>
+      </c>
+      <c r="D10" s="13">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="13">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="K10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="10">
-        <v>123457</v>
-      </c>
-      <c r="N3" s="10">
-        <v>11021162906</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="10">
+      <c r="L10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="13">
+        <v>11021214167</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="13">
         <v>23456</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T10" s="13"/>
+      <c r="U10" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="1" spans="1:25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10004</v>
+      </c>
+      <c r="D11" s="13">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="13">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10">
+      <c r="L11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="13">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="1:24">
-      <c r="A4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="11">
-        <v>10003</v>
-      </c>
-      <c r="D4" s="11">
-        <v>11021200646</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="11">
-        <v>564000165</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="11">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="11">
-        <v>11021200646</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11">
-        <v>11021162884</v>
-      </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" s="8" customFormat="1" spans="1:24">
-      <c r="A5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11">
-        <v>10004</v>
-      </c>
-      <c r="D5" s="11">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="11">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="11">
-        <v>123456</v>
-      </c>
-      <c r="N5" s="11">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="1:24">
-      <c r="A6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="11">
-        <v>10005</v>
-      </c>
-      <c r="D6" s="11">
-        <v>11021200662</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="11">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="11">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="11">
-        <v>11021200662</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11">
-        <v>11021162884</v>
-      </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" spans="1:24">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1600006</v>
-      </c>
-      <c r="D7" s="9">
-        <v>11021209775</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N7" s="9">
-        <v>11021209775</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9">
-        <v>11021162884</v>
-      </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" s="8" customFormat="1" spans="1:24">
-      <c r="A8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="11">
-        <v>10007</v>
-      </c>
-      <c r="D8" s="11">
-        <v>11021210463</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="11">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="11">
-        <v>123456</v>
-      </c>
-      <c r="N8" s="11">
-        <v>11021210463</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11">
-        <v>11021162884</v>
-      </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="1" spans="1:24">
-      <c r="A9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="10">
-        <v>10002</v>
-      </c>
-      <c r="D9" s="10">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="10">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="10">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10">
-        <v>11021162884</v>
-      </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" s="7" customFormat="1" spans="1:24">
-      <c r="A10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="10">
-        <v>10003</v>
-      </c>
-      <c r="D10" s="10">
-        <v>11021214167</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="10">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="10">
-        <v>11021214167</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10">
-        <v>11021162884</v>
-      </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" spans="1:24">
-      <c r="A11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10004</v>
-      </c>
-      <c r="D11" s="10">
-        <v>11021223115</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="10">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="10">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10">
-        <v>11021162884</v>
-      </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10" t="s">
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13" t="s">
         <v>60</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2346,8 +2390,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2373,7 +2417,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2388,34 +2432,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>21</v>
@@ -2429,10 +2473,10 @@
     </row>
     <row r="2" ht="23" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>70000</v>
@@ -2444,15 +2488,15 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
@@ -2461,171 +2505,171 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>39370003</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G5"/>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>39370004</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J6">
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>39370005</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7"/>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -2634,39 +2678,39 @@
         <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J8">
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -2675,39 +2719,39 @@
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J9">
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>56</v>
@@ -2716,75 +2760,75 @@
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>10005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1">
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J11" s="1">
         <v>123543</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="106">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -210,10 +210,7 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>NBHKNOK0</t>
-  </si>
-  <si>
-    <t>OCBCSGS0</t>
+    <t>NORWNOK0</t>
   </si>
   <si>
     <t>Instructed Agent BIC</t>
@@ -1011,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,38 +1033,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1604,8 +1589,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1774,7 +1759,7 @@
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
       <c r="X2" s="10"/>
-      <c r="Y2" s="15"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
       <c r="A3" s="11" t="s">
@@ -1841,17 +1826,15 @@
       <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="16"/>
+      <c r="Y3" s="11"/>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="12">
-        <v>10003</v>
+        <v>20003</v>
       </c>
       <c r="D4" s="12">
         <v>11021200646</v>
@@ -1908,17 +1891,15 @@
       <c r="X4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="17"/>
+      <c r="Y4" s="12"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="12">
-        <v>10004</v>
+        <v>20004</v>
       </c>
       <c r="D5" s="12">
         <v>11021200638</v>
@@ -1975,17 +1956,15 @@
       <c r="X5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="17"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="12">
-        <v>10005</v>
+        <v>20005</v>
       </c>
       <c r="D6" s="12">
         <v>11021200662</v>
@@ -2042,7 +2021,7 @@
       <c r="X6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="17"/>
+      <c r="Y6" s="12"/>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:25">
       <c r="A7" s="10" t="s">
@@ -2109,7 +2088,7 @@
       <c r="X7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="15"/>
+      <c r="Y7" s="10"/>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:25">
       <c r="A8" s="13"/>
@@ -2174,7 +2153,7 @@
       <c r="X8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="18" t="s">
+      <c r="Y8" s="13" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2241,7 +2220,7 @@
       <c r="X9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="18" t="s">
+      <c r="Y9" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2308,76 +2287,74 @@
       <c r="X10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="18" t="s">
+      <c r="Y10" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" spans="1:25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" s="8" customFormat="1" spans="1:25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="13">
-        <v>10004</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="12">
+        <v>20004</v>
+      </c>
+      <c r="D11" s="12">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>564000169</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>123456</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="12">
         <v>23456</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13">
+      <c r="T11" s="12"/>
+      <c r="U11" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13" t="s">
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="Y11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2417,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2432,34 +2409,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>21</v>
@@ -2488,15 +2465,15 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
         <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>59</v>
@@ -2505,34 +2482,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:18">
@@ -2546,34 +2523,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2587,18 +2564,18 @@
         <v>39370003</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5"/>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2612,34 +2589,34 @@
         <v>39370004</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6">
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
         <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2653,23 +2630,23 @@
         <v>39370005</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7"/>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -2678,39 +2655,39 @@
         <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8">
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
         <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -2719,34 +2696,34 @@
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9">
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
         <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
@@ -2760,34 +2737,34 @@
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -2801,34 +2778,34 @@
         <v>10005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1">
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1">
         <v>123543</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -1008,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,9 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1046,9 +1043,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1590,7 +1584,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1692,669 +1686,669 @@
       <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>123456</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>10001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>11021162906</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>564000165</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>123457</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <v>11021162906</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>23456</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="10"/>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>20003</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>564000165</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>123458</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>23456</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
+      <c r="T4" s="11"/>
+      <c r="U4" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="11"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>20004</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>564000165</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>123456</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>23456</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>20005</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>564000165</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>123456</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>23456</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="11"/>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>1600006</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>564000165</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>123456</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>11021209775</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>23456</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10">
+      <c r="T7" s="9"/>
+      <c r="U7" s="9">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="9"/>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>10007</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>11021210463</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <v>564000166</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="10">
         <v>123456</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="10">
         <v>11021210463</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="10">
         <v>23456</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13">
+      <c r="T8" s="10"/>
+      <c r="U8" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13" t="s">
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="13" t="s">
+      <c r="Y8" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+    <row r="9" s="7" customFormat="1" spans="1:25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>10002</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>564000167</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="10">
         <v>123456</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="10">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="10">
         <v>23456</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13" t="s">
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="13" t="s">
+      <c r="Y9" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+    <row r="10" s="7" customFormat="1" spans="1:25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>10003</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>11021214167</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>564000168</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>123456</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="10">
         <v>11021214167</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="10">
         <v>23456</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13">
+      <c r="T10" s="10"/>
+      <c r="U10" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13" t="s">
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Y10" s="13" t="s">
+      <c r="Y10" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>20004</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>564000169</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="H11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>123456</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <v>23456</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12" t="s">
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="103">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -180,151 +180,142 @@
     <t>AED</t>
   </si>
   <si>
-    <t>SHAR</t>
-  </si>
-  <si>
-    <t>CBAUAEA0</t>
-  </si>
-  <si>
-    <t>UOVBSGS0</t>
+    <t>ARABJOA0</t>
   </si>
   <si>
     <t>GBP</t>
   </si>
   <si>
-    <t>BARCUS30</t>
-  </si>
-  <si>
-    <t>BARCSGS0</t>
+    <t>ROYCCAT0</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>BOJPJPJ0</t>
+    <t>SCBLJPJ0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>STFBNOK0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>GLDTSGS0</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK142000001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>SCFBDE30</t>
+  </si>
+  <si>
+    <t>HKD140200001</t>
+  </si>
+  <si>
+    <t>New address</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>HASEHKH0</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>EBRDGB20</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
+  </si>
+  <si>
+    <t>CHBKPHM0</t>
+  </si>
+  <si>
+    <t>Nm5</t>
+  </si>
+  <si>
+    <t>AUD148050001</t>
+  </si>
+  <si>
+    <t>NATAAU30</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>AED148050001</t>
+  </si>
+  <si>
+    <t>NBADAEA0</t>
+  </si>
+  <si>
+    <t>Nm7</t>
+  </si>
+  <si>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
+    <t>GBP142000001</t>
+  </si>
+  <si>
+    <t>LOYDGB20</t>
+  </si>
+  <si>
+    <t>Nm8</t>
   </si>
   <si>
     <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>NORWNOK0</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>GLDTSGS0</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK142000001</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>SCFBDE30</t>
-  </si>
-  <si>
-    <t>HKD140200001</t>
-  </si>
-  <si>
-    <t>New address</t>
-  </si>
-  <si>
-    <t>Nm3</t>
-  </si>
-  <si>
-    <t>HASEHKH0</t>
-  </si>
-  <si>
-    <t>EUR140200001</t>
-  </si>
-  <si>
-    <t>EBRDGB20</t>
-  </si>
-  <si>
-    <t>CNY140200001</t>
-  </si>
-  <si>
-    <t>CHBKPHM0</t>
-  </si>
-  <si>
-    <t>Nm5</t>
-  </si>
-  <si>
-    <t>AUD148050001</t>
-  </si>
-  <si>
-    <t>NATAAU30</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED148050001</t>
-  </si>
-  <si>
-    <t>NBADAEA0</t>
-  </si>
-  <si>
-    <t>Nm7</t>
-  </si>
-  <si>
-    <t>CHASSGS0</t>
-  </si>
-  <si>
-    <t>GBP142000001</t>
-  </si>
-  <si>
-    <t>LOYDGB20</t>
-  </si>
-  <si>
-    <t>Nm8</t>
   </si>
   <si>
     <t>JPY142000001</t>
@@ -1008,7 +999,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,10 +1024,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,8 +1580,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1686,669 +1683,663 @@
       <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <v>123456</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="10">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>23456</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>10001</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>11021162906</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>564000165</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="11">
         <v>123457</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="11">
         <v>11021162906</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="11">
         <v>23456</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="10"/>
+      <c r="Y3" s="11"/>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>20003</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>564000165</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="12">
         <v>123458</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="12">
         <v>23456</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="11"/>
+      <c r="Y4" s="12"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>20004</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="12">
         <v>23456</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>20005</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>564000165</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="12">
         <v>123456</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="12">
         <v>23456</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="11"/>
+      <c r="Y6" s="12"/>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>1600006</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>564000165</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="10">
         <v>123456</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="10">
         <v>11021209775</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="10">
         <v>23456</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="10"/>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
+    <row r="8" s="9" customFormat="1" spans="1:25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="10">
-        <v>10007</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="13">
+        <v>30007</v>
+      </c>
+      <c r="D8" s="13">
         <v>11021210463</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="13">
         <v>564000166</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="13">
+        <v>11021210463</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="13">
+        <v>30002</v>
+      </c>
+      <c r="D9" s="13">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="13">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M9" s="13">
         <v>123456</v>
       </c>
-      <c r="N8" s="10">
-        <v>11021210463</v>
-      </c>
-      <c r="O8" s="10" t="s">
+      <c r="N9" s="13">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q9" s="13">
         <v>23456</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10">
+      <c r="T9" s="13"/>
+      <c r="U9" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y8" s="10" t="s">
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13" t="s">
         <v>52</v>
       </c>
+      <c r="Y9" s="13"/>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
+    <row r="10" s="9" customFormat="1" spans="1:25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="10">
-        <v>10002</v>
-      </c>
-      <c r="D9" s="10">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="C10" s="13">
+        <v>30003</v>
+      </c>
+      <c r="D10" s="13">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="10">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="F10" s="13">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M10" s="13">
         <v>123456</v>
       </c>
-      <c r="N9" s="10">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="10" t="s">
+      <c r="N10" s="13">
+        <v>11021214167</v>
+      </c>
+      <c r="O10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q10" s="13">
         <v>23456</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10">
+      <c r="T10" s="13"/>
+      <c r="U10" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10" t="s">
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="Y9" s="10" t="s">
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" s="9" customFormat="1" spans="1:25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" s="7" customFormat="1" spans="1:25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+      <c r="C11" s="13">
+        <v>30004</v>
+      </c>
+      <c r="D11" s="13">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="13">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="13">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="10">
-        <v>10003</v>
-      </c>
-      <c r="D10" s="10">
-        <v>11021214167</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="10">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="10">
-        <v>11021214167</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10">
-        <v>11021162884</v>
-      </c>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" s="8" customFormat="1" spans="1:25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="11">
-        <v>20004</v>
-      </c>
-      <c r="D11" s="11">
-        <v>11021223115</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="11">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="11">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="11">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11">
-        <v>11021162884</v>
-      </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y11" s="11"/>
+      <c r="Y11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2388,7 +2379,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2403,34 +2394,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>21</v>
@@ -2459,51 +2450,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:18">
@@ -2517,34 +2508,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2558,18 +2549,18 @@
         <v>39370003</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5"/>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2583,34 +2574,34 @@
         <v>39370004</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>564000169</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J6">
         <v>123547</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
         <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2624,23 +2615,23 @@
         <v>39370005</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G7"/>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
@@ -2649,116 +2640,116 @@
         <v>39370006</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>564000171</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J8">
         <v>123549</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
         <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>39370007</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>564000172</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J9">
         <v>123550</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
         <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -2772,34 +2763,34 @@
         <v>10005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1">
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J11" s="1">
         <v>123543</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -999,11 +999,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,16 +1027,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,7 +1577,7 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
@@ -1611,83 +1608,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:25">
+    <row r="2" s="7" customFormat="1" spans="1:25">
       <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
@@ -1752,7 +1749,7 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:25">
+    <row r="3" s="8" customFormat="1" spans="1:25">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
@@ -1820,201 +1817,201 @@
       <c r="Y3" s="11"/>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>20003</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>564000165</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>123458</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="11">
         <v>23456</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
+      <c r="T4" s="11"/>
+      <c r="U4" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="11"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>20004</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>564000165</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>123456</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="11">
         <v>23456</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>20005</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>564000165</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>123456</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>23456</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="11"/>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:25">
+    <row r="7" s="7" customFormat="1" spans="1:25">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -2082,264 +2079,264 @@
       <c r="Y7" s="10"/>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>30007</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>11021210463</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>564000166</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>123456</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="12">
         <v>11021210463</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="12">
         <v>23456</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13">
+      <c r="T8" s="12"/>
+      <c r="U8" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13" t="s">
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="13"/>
+      <c r="Y8" s="12"/>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>30002</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>564000167</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>123456</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <v>23456</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13">
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13" t="s">
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="13"/>
+      <c r="Y9" s="12"/>
     </row>
     <row r="10" s="9" customFormat="1" spans="1:25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>30003</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>11021214167</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>564000168</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>123456</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="12">
         <v>11021214167</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="12">
         <v>23456</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13">
+      <c r="T10" s="12"/>
+      <c r="U10" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13" t="s">
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="13"/>
+      <c r="Y10" s="12"/>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>30004</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>564000169</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>123456</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="12">
         <v>23456</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13">
+      <c r="T11" s="12"/>
+      <c r="U11" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13" t="s">
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="13"/>
+      <c r="Y11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2352,8 +2349,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2378,58 +2375,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2497,7 +2494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:18">
+    <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2670,44 +2667,44 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:18">
+      <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>39370007</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>564000172</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>123550</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2752,44 +2749,44 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>10005</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>564000165</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>123543</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="2" t="s">
         <v>102</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -999,8 +999,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1608,735 +1611,735 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:25">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="11">
         <v>123456</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="11">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:25">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>10001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>11021162906</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>564000165</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="12">
         <v>123457</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="12">
         <v>11021162906</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="12">
         <v>23456</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11">
+      <c r="T3" s="12"/>
+      <c r="U3" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="12"/>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>20003</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>564000165</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="12">
         <v>123458</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="12">
         <v>23456</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="11"/>
+      <c r="Y4" s="12"/>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>20004</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="12">
         <v>23456</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="12"/>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" s="9" customFormat="1" spans="1:25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>20005</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>564000165</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="12">
         <v>123456</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="12">
         <v>23456</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="11"/>
+      <c r="Y6" s="12"/>
     </row>
-    <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="8" customFormat="1" spans="1:25">
+      <c r="A7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>1600006</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="11">
         <v>564000165</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="11">
         <v>123456</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="11">
         <v>11021209775</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="11">
         <v>23456</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="11"/>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" s="10" customFormat="1" spans="1:25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>30007</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>11021210463</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>564000166</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="13">
         <v>123456</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="13">
         <v>11021210463</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="13">
         <v>23456</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12">
+      <c r="T8" s="13"/>
+      <c r="U8" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12" t="s">
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="12"/>
+      <c r="Y8" s="13"/>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" s="10" customFormat="1" spans="1:25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>30002</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>564000167</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="13">
         <v>123456</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="13">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="13">
         <v>23456</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
+      <c r="T9" s="13"/>
+      <c r="U9" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="12"/>
+      <c r="Y9" s="13"/>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" s="10" customFormat="1" spans="1:25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>30003</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>11021214167</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="13">
         <v>564000168</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="13">
         <v>123456</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="13">
         <v>11021214167</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="13">
         <v>23456</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12">
+      <c r="T10" s="13"/>
+      <c r="U10" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12" t="s">
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="12"/>
+      <c r="Y10" s="13"/>
     </row>
-    <row r="11" s="9" customFormat="1" spans="1:25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+    <row r="11" s="10" customFormat="1" spans="1:25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>30004</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="13">
         <v>564000169</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="13">
         <v>123456</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="13">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="13">
         <v>23456</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12">
+      <c r="T11" s="13"/>
+      <c r="U11" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12" t="s">
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2349,8 +2352,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2375,58 +2378,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2535,135 +2538,139 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:18">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>39370003</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="E5" s="1">
+        <v>564000168</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G5"/>
-      <c r="Q5" t="s">
+      <c r="G5" s="2"/>
+      <c r="Q5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:18">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>39370004</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>564000169</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>123547</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:18">
+      <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>39370005</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
+      <c r="E7" s="1">
+        <v>564000170</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G7"/>
-      <c r="Q7" t="s">
+      <c r="G7" s="2"/>
+      <c r="Q7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:18">
+      <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>39370006</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>564000171</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>123549</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2749,44 +2756,44 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
-      <c r="A11" s="2" t="s">
+    <row r="11" s="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>10005</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>564000165</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>123543</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="3" t="s">
         <v>102</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -147,7 +147,7 @@
     <t>address3</t>
   </si>
   <si>
-    <t>HSBCHKH0</t>
+    <t>SCBLHKH0</t>
   </si>
   <si>
     <t>CNY</t>
@@ -159,13 +159,13 @@
     <t>30 SENOKO CRESCENT</t>
   </si>
   <si>
-    <t>BDFEFRP0</t>
+    <t>CHBKPHM0</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>ICBKCNB0</t>
+    <t>EBRDGB20</t>
   </si>
   <si>
     <t>ANZBAU30</t>
@@ -273,13 +273,7 @@
     <t>EUR140200001</t>
   </si>
   <si>
-    <t>EBRDGB20</t>
-  </si>
-  <si>
     <t>CNY140200001</t>
-  </si>
-  <si>
-    <t>CHBKPHM0</t>
   </si>
   <si>
     <t>Nm5</t>
@@ -999,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1007,9 +1001,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,6 +1024,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1040,6 +1034,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1580,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1611,83 +1608,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:25">
+    <row r="2" s="7" customFormat="1" spans="1:25">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
@@ -1752,7 +1749,7 @@
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:25">
+    <row r="3" s="8" customFormat="1" spans="1:25">
       <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
@@ -1820,526 +1817,526 @@
       <c r="Y3" s="12"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12">
-        <v>20003</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="13">
+        <v>2820003</v>
+      </c>
+      <c r="D4" s="13">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>564000165</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="13">
         <v>123458</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="13">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="13">
         <v>23456</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="13"/>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="12">
-        <v>20004</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="13">
+        <v>920004</v>
+      </c>
+      <c r="D5" s="13">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="13">
         <v>564000165</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="13">
         <v>123456</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="13">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="13">
         <v>23456</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="13"/>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="12">
-        <v>20005</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="13">
+        <v>2920005</v>
+      </c>
+      <c r="D6" s="13">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <v>564000165</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="13">
         <v>123456</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="13">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="13">
         <v>23456</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
+      <c r="T6" s="13"/>
+      <c r="U6" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="13"/>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:25">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="9" customFormat="1" spans="1:25">
+      <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="11">
-        <v>1600006</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="13">
+        <v>8600006</v>
+      </c>
+      <c r="D7" s="13">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>564000165</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="13">
         <v>123456</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="13">
         <v>11021209775</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="13">
         <v>23456</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11">
+      <c r="T7" s="13"/>
+      <c r="U7" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11" t="s">
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="11"/>
+      <c r="Y7" s="13"/>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>30007</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>11021210463</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>564000166</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="14">
         <v>123456</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="14">
         <v>11021210463</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="14">
         <v>23456</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13" t="s">
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="13"/>
+      <c r="Y8" s="14"/>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>30002</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>564000167</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="14">
         <v>123456</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="14">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="14">
         <v>23456</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13" t="s">
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="13"/>
+      <c r="Y9" s="14"/>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>30003</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>11021214167</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="14">
         <v>564000168</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="14">
         <v>123456</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="14">
         <v>11021214167</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="14">
         <v>23456</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13" t="s">
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="13"/>
+      <c r="Y10" s="14"/>
     </row>
     <row r="11" s="10" customFormat="1" spans="1:25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>30004</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="14">
         <v>564000169</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="14">
         <v>123456</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="14">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="14">
         <v>23456</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13">
+      <c r="T11" s="14"/>
+      <c r="U11" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13" t="s">
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="13"/>
+      <c r="Y11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2352,7 +2349,7 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2378,58 +2375,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2555,14 +2552,14 @@
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2576,13 +2573,13 @@
         <v>39370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>71</v>
@@ -2594,7 +2591,7 @@
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -2603,7 +2600,7 @@
         <v>74</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2617,25 +2614,25 @@
         <v>39370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>49</v>
@@ -2644,13 +2641,13 @@
         <v>39370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>71</v>
@@ -2662,7 +2659,7 @@
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
@@ -2671,12 +2668,12 @@
         <v>74</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
@@ -2685,13 +2682,13 @@
         <v>39370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>71</v>
@@ -2703,7 +2700,7 @@
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
@@ -2712,12 +2709,12 @@
         <v>74</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>53</v>
@@ -2726,7 +2723,7 @@
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
@@ -2744,7 +2741,7 @@
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
@@ -2753,48 +2750,48 @@
         <v>74</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10005</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1">
+        <v>564000165</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10005</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="J11" s="1">
+        <v>123543</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="3">
-        <v>564000165</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="L11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="J11" s="3">
-        <v>123543</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -993,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,9 +1024,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1034,9 +1031,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1578,7 +1572,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1680,663 +1674,663 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>123456</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>23456</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>10001</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>11021162906</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>564000165</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>123457</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>11021162906</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>23456</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="12"/>
+      <c r="Y3" s="11"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="12">
         <v>2820003</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>564000165</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="H4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>123458</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>23456</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="13"/>
+      <c r="Y4" s="12"/>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <v>920004</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="12">
         <v>23456</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="13"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>2920005</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>564000165</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="H6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>123456</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="12">
         <v>23456</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="13"/>
+      <c r="Y6" s="12"/>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>8600006</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>564000165</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>123456</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>11021209775</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <v>23456</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13" t="s">
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="13"/>
+      <c r="Y7" s="12"/>
     </row>
-    <row r="8" s="10" customFormat="1" spans="1:25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" s="8" customFormat="1" spans="1:25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>30007</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>11021210463</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>564000166</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="11">
         <v>123456</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="11">
         <v>11021210463</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="11">
         <v>23456</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14">
+      <c r="T8" s="11"/>
+      <c r="U8" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14" t="s">
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="14"/>
+      <c r="Y8" s="11"/>
     </row>
-    <row r="9" s="10" customFormat="1" spans="1:25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>30002</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>564000167</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="11">
         <v>123456</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="11">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="11">
         <v>23456</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14">
+      <c r="T9" s="11"/>
+      <c r="U9" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="14"/>
+      <c r="Y9" s="11"/>
     </row>
-    <row r="10" s="10" customFormat="1" spans="1:25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
+    <row r="10" s="8" customFormat="1" spans="1:25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>30003</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>11021214167</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>564000168</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="11">
         <v>123456</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="11">
         <v>11021214167</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="11">
         <v>23456</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14">
+      <c r="T10" s="11"/>
+      <c r="U10" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14" t="s">
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="14"/>
+      <c r="Y10" s="11"/>
     </row>
-    <row r="11" s="10" customFormat="1" spans="1:25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" s="8" customFormat="1" spans="1:25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>30004</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>564000169</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="11">
         <v>123456</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="11">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="11">
         <v>23456</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14" t="s">
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="14"/>
+      <c r="Y11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -174,25 +174,25 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>WPACAU20</t>
+    <t>CTBAAU20</t>
   </si>
   <si>
     <t>AED</t>
   </si>
   <si>
-    <t>ARABJOA0</t>
+    <t>QNBAQAQ0</t>
   </si>
   <si>
     <t>GBP</t>
   </si>
   <si>
-    <t>ROYCCAT0</t>
+    <t>BARCGB20</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>SCBLJPJ0</t>
+    <t>BOTKJPJ0</t>
   </si>
   <si>
     <t>NOK</t>
@@ -504,7 +504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +875,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -893,16 +899,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -911,89 +917,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,16 +1027,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1572,7 +1590,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1674,663 +1692,663 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="12">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="12">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="12">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="12">
         <v>123456</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="12">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="12">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>10001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="13">
         <v>11021162906</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="13">
         <v>564000165</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="13">
         <v>123457</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="13">
         <v>11021162906</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="13">
         <v>23456</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11">
+      <c r="T3" s="13"/>
+      <c r="U3" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="13"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="14">
         <v>2820003</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="14">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <v>564000165</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="14">
         <v>123458</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="14">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="14">
         <v>23456</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
+      <c r="T4" s="14"/>
+      <c r="U4" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="14"/>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <v>920004</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="14">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="14">
         <v>564000165</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="14">
         <v>123456</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="14">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="14">
         <v>23456</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
+      <c r="T5" s="14"/>
+      <c r="U5" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="14"/>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="14">
         <v>2920005</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="14">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>564000165</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="14">
         <v>123456</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="14">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="14">
         <v>23456</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
+      <c r="T6" s="14"/>
+      <c r="U6" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="14"/>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:25">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="10" customFormat="1" spans="1:25">
+      <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="12">
-        <v>8600006</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="15">
+        <v>7600006</v>
+      </c>
+      <c r="D7" s="15">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="15">
         <v>564000165</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="H7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="15">
         <v>123456</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="15">
         <v>11021209775</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="15">
         <v>23456</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12">
+      <c r="T7" s="15"/>
+      <c r="U7" s="15">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12" t="s">
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="12"/>
+      <c r="Y7" s="15"/>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="11">
-        <v>30007</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="16">
+        <v>3830007</v>
+      </c>
+      <c r="D8" s="16">
         <v>11021210463</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="16">
         <v>564000166</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="16">
         <v>123456</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="16">
         <v>11021210463</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="16">
         <v>23456</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11">
+      <c r="T8" s="16"/>
+      <c r="U8" s="16">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11" t="s">
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="11"/>
+      <c r="Y8" s="16"/>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="11">
-        <v>30002</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="16">
+        <v>3830002</v>
+      </c>
+      <c r="D9" s="16">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="16">
         <v>564000167</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="H9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="16">
         <v>123456</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="16">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="16">
         <v>23456</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11">
+      <c r="T9" s="16"/>
+      <c r="U9" s="16">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11" t="s">
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="11"/>
+      <c r="Y9" s="16"/>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
+    <row r="10" s="11" customFormat="1" spans="1:25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="11">
-        <v>30003</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="16">
+        <v>3830003</v>
+      </c>
+      <c r="D10" s="16">
         <v>11021214167</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="16">
         <v>564000168</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="H10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="16">
         <v>123456</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="16">
         <v>11021214167</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="16">
         <v>23456</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11">
+      <c r="T10" s="16"/>
+      <c r="U10" s="16">
         <v>11021162884</v>
       </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="s">
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="Y10" s="11"/>
+      <c r="Y10" s="16"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>30004</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <v>564000169</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="13">
         <v>123456</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="13">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="13">
         <v>23456</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11">
+      <c r="T11" s="13"/>
+      <c r="U11" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11" t="s">
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="Y11" s="11"/>
+      <c r="Y11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="106">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -144,10 +144,16 @@
     <t>Name3</t>
   </si>
   <si>
+    <t>SHAR</t>
+  </si>
+  <si>
     <t>address3</t>
   </si>
   <si>
-    <t>SCBLHKH0</t>
+    <t>MRMDUS30</t>
+  </si>
+  <si>
+    <t>HSBCHKH0</t>
   </si>
   <si>
     <t>CNY</t>
@@ -159,121 +165,130 @@
     <t>30 SENOKO CRESCENT</t>
   </si>
   <si>
+    <t>KWHKHKH0</t>
+  </si>
+  <si>
+    <t>BKCHCNB0</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>BARCGB20</t>
+  </si>
+  <si>
+    <t>BDFEFRP0</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>ANZBSGS0</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>QNBAQAQ0</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>BOTKJPJ0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>STFBNOK0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>GLDTSGS0</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK142000001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>SCFBDE30</t>
+  </si>
+  <si>
+    <t>HKD140200001</t>
+  </si>
+  <si>
+    <t>New address</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>HASEHKH0</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>EBRDGB20</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
+  </si>
+  <si>
     <t>CHBKPHM0</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>EBRDGB20</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>CTBAAU20</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>QNBAQAQ0</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>BARCGB20</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>BOTKJPJ0</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>STFBNOK0</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>GLDTSGS0</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK142000001</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>SCFBDE30</t>
-  </si>
-  <si>
-    <t>HKD140200001</t>
-  </si>
-  <si>
-    <t>New address</t>
-  </si>
-  <si>
-    <t>Nm3</t>
-  </si>
-  <si>
-    <t>HASEHKH0</t>
-  </si>
-  <si>
-    <t>EUR140200001</t>
-  </si>
-  <si>
-    <t>CNY140200001</t>
   </si>
   <si>
     <t>Nm5</t>
@@ -504,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,12 +547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +884,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,16 +908,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -917,89 +926,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,28 +1036,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1590,7 +1593,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H10"/>
+      <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1692,663 +1695,671 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>564000165</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <v>123456</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="11">
         <v>23456</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>10001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>11021162906</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>564000165</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>123457</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="12">
         <v>11021162906</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="12">
         <v>23456</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13">
+      <c r="T3" s="12"/>
+      <c r="U3" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="13"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14">
-        <v>2820003</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="C4" s="13">
+        <v>2820004</v>
+      </c>
+      <c r="D4" s="13">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>564000165</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="H4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <v>123458</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="14">
+      <c r="P4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="13">
         <v>23456</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="14"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="14">
-        <v>920004</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="13">
+        <v>920005</v>
+      </c>
+      <c r="D5" s="13">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="E5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="13">
         <v>564000165</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="H5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>123456</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="14">
+      <c r="O5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="13">
         <v>23456</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="14"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2920006</v>
+      </c>
+      <c r="D6" s="13">
+        <v>11021200662</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="13">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="13">
+        <v>11021200662</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="14">
-        <v>2920005</v>
-      </c>
-      <c r="D6" s="14">
-        <v>11021200662</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="Q6" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:25">
+      <c r="A7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="13">
+        <v>7600007</v>
+      </c>
+      <c r="D7" s="13">
+        <v>11021209775</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="13">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="13">
+        <v>11021209775</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="14">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="Q7" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="14">
+        <v>3830007</v>
+      </c>
+      <c r="D8" s="14">
+        <v>11021210463</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="14">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="H8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M8" s="14">
         <v>123456</v>
       </c>
-      <c r="N6" s="14">
-        <v>11021200662</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="14">
+      <c r="N8" s="14">
+        <v>11021210463</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="14">
         <v>23456</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14">
+      <c r="T8" s="14"/>
+      <c r="U8" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="14"/>
     </row>
-    <row r="7" s="10" customFormat="1" spans="1:25">
-      <c r="A7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="15">
-        <v>7600006</v>
-      </c>
-      <c r="D7" s="15">
-        <v>11021209775</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="15">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="15" t="s">
+    <row r="9" s="10" customFormat="1" spans="1:25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3830002</v>
+      </c>
+      <c r="D9" s="14">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="14">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M9" s="14">
         <v>123456</v>
       </c>
-      <c r="N7" s="15">
-        <v>11021209775</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="15">
+      <c r="N9" s="14">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="14">
         <v>23456</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15" t="s">
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" s="15"/>
+      <c r="Y9" s="14"/>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="16">
-        <v>3830007</v>
-      </c>
-      <c r="D8" s="16">
-        <v>11021210463</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="16">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="16" t="s">
+    <row r="10" s="10" customFormat="1" spans="1:25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3830003</v>
+      </c>
+      <c r="D10" s="14">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="14">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M10" s="14">
         <v>123456</v>
       </c>
-      <c r="N8" s="16">
-        <v>11021210463</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="16">
+      <c r="N10" s="14">
+        <v>11021214167</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="14">
         <v>23456</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="16"/>
-    </row>
-    <row r="9" s="11" customFormat="1" spans="1:25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="16">
-        <v>3830002</v>
-      </c>
-      <c r="D9" s="16">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="16">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="16">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="16">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16">
-        <v>11021162884</v>
-      </c>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y9" s="16"/>
-    </row>
-    <row r="10" s="11" customFormat="1" spans="1:25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="16">
-        <v>3830003</v>
-      </c>
-      <c r="D10" s="16">
-        <v>11021214167</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="16">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="16">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="16">
-        <v>11021214167</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16">
-        <v>11021162884</v>
-      </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y10" s="16"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="14"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="12">
         <v>30004</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="12">
         <v>564000169</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>123456</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="13">
+      <c r="O11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="12">
         <v>23456</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13">
+      <c r="T11" s="12"/>
+      <c r="U11" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y11" s="13"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2388,7 +2399,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2403,34 +2414,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2459,51 +2470,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2517,34 +2528,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2552,26 +2563,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>39370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2579,190 +2590,190 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>39370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>39370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>39370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
         <v>39370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -2776,34 +2787,34 @@
         <v>10005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1">
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1">
         <v>123543</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="110">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -192,22 +192,37 @@
     <t>AED</t>
   </si>
   <si>
-    <t>QNBAQAQ0</t>
+    <t>UOVBSGS0</t>
+  </si>
+  <si>
+    <t>CBAUAEA0</t>
   </si>
   <si>
     <t>GBP</t>
   </si>
   <si>
+    <t>BARCSGS0</t>
+  </si>
+  <si>
+    <t>BARCUS30</t>
+  </si>
+  <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>BOTKJPJ0</t>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>BOJPJPJ0</t>
   </si>
   <si>
     <t>NOK</t>
   </si>
   <si>
-    <t>STFBNOK0</t>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>NBHKNOK0</t>
   </si>
   <si>
     <t>Instructed Agent BIC</t>
@@ -322,9 +337,6 @@
   </si>
   <si>
     <t>Nm8</t>
-  </si>
-  <si>
-    <t>SMBCJPJ0</t>
   </si>
   <si>
     <t>JPY142000001</t>
@@ -1036,22 +1048,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1593,7 +1605,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -2107,10 +2119,10 @@
         <v>53</v>
       </c>
       <c r="C8" s="14">
-        <v>3830007</v>
+        <v>430007</v>
       </c>
       <c r="D8" s="14">
-        <v>11021210463</v>
+        <v>11020943602</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>53</v>
@@ -2122,7 +2134,7 @@
         <v>27</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
@@ -2157,28 +2169,30 @@
       </c>
       <c r="T8" s="14"/>
       <c r="U8" s="14">
-        <v>11021162884</v>
+        <v>11020880570</v>
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="14"/>
+      <c r="Y8" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:25">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="14">
-        <v>3830002</v>
+        <v>430008</v>
       </c>
       <c r="D9" s="14">
-        <v>11021212547</v>
+        <v>11020951591</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="14">
         <v>564000167</v>
@@ -2187,7 +2201,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14" t="s">
@@ -2222,28 +2236,30 @@
       </c>
       <c r="T9" s="14"/>
       <c r="U9" s="14">
-        <v>11021162884</v>
+        <v>11020880570</v>
       </c>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y9" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:25">
       <c r="A10" s="14"/>
       <c r="B10" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="14">
-        <v>3830003</v>
+        <v>430009</v>
       </c>
       <c r="D10" s="14">
-        <v>11021214167</v>
+        <v>11020951583</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10" s="14">
         <v>564000168</v>
@@ -2252,7 +2268,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
@@ -2287,79 +2303,83 @@
       </c>
       <c r="T10" s="14"/>
       <c r="U10" s="14">
-        <v>11021162884</v>
+        <v>11020880570</v>
       </c>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y10" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="11" s="8" customFormat="1" spans="1:25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="12">
-        <v>30004</v>
-      </c>
-      <c r="D11" s="12">
+    <row r="11" s="10" customFormat="1" spans="1:25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="14">
+        <v>430010</v>
+      </c>
+      <c r="D11" s="14">
+        <v>11020950285</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="14">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="14">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="14">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="12">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="12" t="s">
+      <c r="O11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="12">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12">
-        <v>11021162884</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y11" s="12"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14">
+        <v>11020880570</v>
+      </c>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2399,7 +2419,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2414,34 +2434,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2470,51 +2490,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2528,34 +2548,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2569,20 +2589,20 @@
         <v>39370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2596,34 +2616,34 @@
         <v>39370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2637,25 +2657,25 @@
         <v>39370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
@@ -2664,116 +2684,116 @@
         <v>39370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>39370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -2787,34 +2807,34 @@
         <v>10005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1">
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J11" s="1">
         <v>123543</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -198,6 +198,9 @@
     <t>CBAUAEA0</t>
   </si>
   <si>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
     <t>GBP</t>
   </si>
   <si>
@@ -207,21 +210,24 @@
     <t>BARCUS30</t>
   </si>
   <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>SMBCJPJ0</t>
+    <t>OCBCSGS0</t>
   </si>
   <si>
     <t>BOJPJPJ0</t>
   </si>
   <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
     <t>NOK</t>
   </si>
   <si>
-    <t>OCBCSGS0</t>
-  </si>
-  <si>
     <t>NBHKNOK0</t>
   </si>
   <si>
@@ -258,9 +264,6 @@
     <t>lei</t>
   </si>
   <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
     <t>NOK142000001</t>
   </si>
   <si>
@@ -325,9 +328,6 @@
   </si>
   <si>
     <t>Nm7</t>
-  </si>
-  <si>
-    <t>CHASSGS0</t>
   </si>
   <si>
     <t>GBP142000001</t>
@@ -1020,7 +1020,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,16 +1048,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1605,7 +1599,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1707,678 +1701,684 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>123456</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>23456</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>10001</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>11021162906</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>564000165</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>123457</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>11021162906</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>23456</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="12"/>
+      <c r="Y3" s="11"/>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" s="8" customFormat="1" spans="1:25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>2820004</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>564000165</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <v>123458</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <v>23456</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13">
+      <c r="T4" s="11"/>
+      <c r="U4" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13" t="s">
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" s="8" customFormat="1" spans="1:25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>920005</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>564000165</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="11">
         <v>123456</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <v>23456</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" s="8" customFormat="1" spans="1:25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>2920006</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>564000165</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <v>123456</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <v>23456</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:25">
-      <c r="A7" s="13" t="s">
+    <row r="7" s="8" customFormat="1" spans="1:25">
+      <c r="A7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>7600007</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>564000165</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <v>123456</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <v>11021209775</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <v>23456</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13" t="s">
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="Y7" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" spans="1:25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" s="9" customFormat="1" spans="1:25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>430007</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>11020943602</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>564000166</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <v>123456</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <v>11021210463</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="12">
         <v>23456</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14">
+      <c r="T8" s="12"/>
+      <c r="U8" s="12">
         <v>11020880570</v>
       </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14" t="s">
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="14" t="s">
+      <c r="Y8" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="1" spans="1:25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" s="9" customFormat="1" spans="1:25">
+      <c r="A9" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="14">
+      <c r="B9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="12">
         <v>430008</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>11020951591</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="14">
+      <c r="E9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="12">
         <v>564000167</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <v>123456</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="12">
         <v>23456</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14">
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
         <v>11020880570</v>
       </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y9" s="14" t="s">
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
         <v>58</v>
       </c>
+      <c r="Y9" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="10" s="10" customFormat="1" spans="1:25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="14">
+    <row r="10" s="9" customFormat="1" spans="1:25">
+      <c r="A10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12">
         <v>430009</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>11020951583</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="E10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="12">
         <v>564000168</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <v>123456</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <v>11021214167</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="12">
         <v>23456</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14">
+      <c r="T10" s="12"/>
+      <c r="U10" s="12">
         <v>11020880570</v>
       </c>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>61</v>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="11" s="10" customFormat="1" spans="1:25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" s="9" customFormat="1" spans="1:25">
+      <c r="A11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="12">
+        <v>430010</v>
+      </c>
+      <c r="D11" s="12">
+        <v>11020950285</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="12">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="12">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12">
+        <v>11020880570</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="14">
-        <v>430010</v>
-      </c>
-      <c r="D11" s="14">
-        <v>11020950285</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="14">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="14">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
-        <v>11020880570</v>
-      </c>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>64</v>
+      <c r="Y11" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2393,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2419,7 +2419,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2434,34 +2434,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2490,51 +2490,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2548,34 +2548,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2589,20 +2589,20 @@
         <v>39370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2616,34 +2616,34 @@
         <v>39370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2657,25 +2657,25 @@
         <v>39370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
@@ -2684,42 +2684,42 @@
         <v>39370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>39370007</v>
@@ -2734,10 +2734,10 @@
         <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
@@ -2749,7 +2749,7 @@
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>101</v>
@@ -2760,7 +2760,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
@@ -2772,13 +2772,13 @@
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
@@ -2790,7 +2790,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>105</v>
@@ -2813,10 +2813,10 @@
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>107</v>
@@ -2831,7 +2831,7 @@
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>109</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="109">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>JPY</t>
-  </si>
-  <si>
-    <t>OCBCSGS0</t>
   </si>
   <si>
     <t>BOJPJPJ0</t>
@@ -1020,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,10 +1045,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,8 +1601,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1701,684 +1704,684 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>11010004298</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="11">
         <v>123456</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <v>11010004298</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="11">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11">
         <v>11021223085</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>10001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>11021162906</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>564000165</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="12">
         <v>123457</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="12">
         <v>11021162906</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="12">
         <v>23456</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11">
+      <c r="T3" s="12"/>
+      <c r="U3" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>2820004</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>564000165</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="12">
         <v>123458</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="12">
         <v>23456</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>920005</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="12">
         <v>23456</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>2920006</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="12">
         <v>564000165</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="12">
         <v>123456</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="12">
         <v>23456</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11">
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>7600007</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>11021209775</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>564000165</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="12">
         <v>123456</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <v>11021209775</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="12">
         <v>23456</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11" t="s">
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="11" t="s">
+      <c r="Y7" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>430007</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>11020943602</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>564000166</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="13">
         <v>123456</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="13">
         <v>11021210463</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="13">
         <v>23456</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12">
+      <c r="T8" s="13"/>
+      <c r="U8" s="13">
         <v>11020880570</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12" t="s">
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Y8" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>430008</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>11020951591</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>564000167</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="13">
         <v>123456</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="13">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="13">
         <v>23456</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
+      <c r="T9" s="13"/>
+      <c r="U9" s="13">
         <v>11020880570</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y9" s="12" t="s">
+      <c r="Y9" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:25">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="10" customFormat="1" spans="1:25">
+      <c r="A10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <v>430009</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <v>11020951583</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="14">
         <v>564000168</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="14">
         <v>123456</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="14">
         <v>11021214167</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="14">
         <v>23456</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14">
         <v>11020880570</v>
       </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12" t="s">
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y10" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="Y10" s="12" t="s">
+    </row>
+    <row r="11" s="10" customFormat="1" spans="1:25">
+      <c r="A11" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" s="9" customFormat="1" spans="1:25">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="14">
+        <v>430010</v>
+      </c>
+      <c r="D11" s="14">
+        <v>11020950285</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="14">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="14">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="14">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14">
+        <v>11020880570</v>
+      </c>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y11" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="12">
-        <v>430010</v>
-      </c>
-      <c r="D11" s="12">
-        <v>11020950285</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="12">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="12">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12">
-        <v>11020880570</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2422,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2434,34 +2437,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2490,51 +2493,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
         <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2548,34 +2551,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2589,20 +2592,20 @@
         <v>39370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2616,34 +2619,34 @@
         <v>39370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2657,25 +2660,25 @@
         <v>39370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
@@ -2684,34 +2687,34 @@
         <v>39370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
@@ -2725,34 +2728,34 @@
         <v>39370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
@@ -2766,34 +2769,34 @@
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -2807,34 +2810,34 @@
         <v>10005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1">
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="1">
         <v>123543</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="106">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -144,48 +144,39 @@
     <t>Name3</t>
   </si>
   <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>HSBCHKH0</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>FINAL REGRESSION COMPANY PL</t>
+  </si>
+  <si>
+    <t>30 SENOKO CRESCENT</t>
+  </si>
+  <si>
+    <t>ICBKCNB0</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>BDFEFRP0</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
     <t>SHAR</t>
   </si>
   <si>
-    <t>address3</t>
-  </si>
-  <si>
-    <t>MRMDUS30</t>
-  </si>
-  <si>
-    <t>HSBCHKH0</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>FINAL REGRESSION COMPANY PL</t>
-  </si>
-  <si>
-    <t>30 SENOKO CRESCENT</t>
-  </si>
-  <si>
-    <t>KWHKHKH0</t>
-  </si>
-  <si>
-    <t>BKCHCNB0</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>BARCGB20</t>
-  </si>
-  <si>
-    <t>BDFEFRP0</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
     <t>ANZBSGS0</t>
   </si>
   <si>
@@ -225,7 +216,7 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>NBHKNOK0</t>
+    <t>NORWNOK0</t>
   </si>
   <si>
     <t>Instructed Agent BIC</t>
@@ -1045,22 +1036,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1601,8 +1592,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1719,7 +1710,7 @@
         <v>19380.76</v>
       </c>
       <c r="D2" s="11">
-        <v>11010004298</v>
+        <v>11020883472</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>26</v>
@@ -1747,7 +1738,7 @@
         <v>123456</v>
       </c>
       <c r="N2" s="11">
-        <v>11010004298</v>
+        <v>11020883472</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>27</v>
@@ -1766,7 +1757,7 @@
       </c>
       <c r="T2" s="11"/>
       <c r="U2" s="11">
-        <v>11021223085</v>
+        <v>11020880570</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
@@ -1784,7 +1775,7 @@
         <v>10001</v>
       </c>
       <c r="D3" s="12">
-        <v>11021162906</v>
+        <v>11020883537</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>33</v>
@@ -1812,7 +1803,7 @@
         <v>123457</v>
       </c>
       <c r="N3" s="12">
-        <v>11021162906</v>
+        <v>11020883537</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>27</v>
@@ -1830,8 +1821,8 @@
         <v>31</v>
       </c>
       <c r="T3" s="12"/>
-      <c r="U3" s="12">
-        <v>11021162884</v>
+      <c r="U3" s="11">
+        <v>11020880570</v>
       </c>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
@@ -1840,222 +1831,216 @@
       </c>
       <c r="Y3" s="12"/>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12">
-        <v>2820004</v>
-      </c>
-      <c r="D4" s="12">
-        <v>11021200646</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="13">
+        <v>82000</v>
+      </c>
+      <c r="D4" s="13">
+        <v>11020938846</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>564000165</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="13">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="13">
+        <v>11020938846</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="Q4" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="13"/>
+      <c r="U4" s="11">
+        <v>11020880570</v>
+      </c>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="13">
+        <v>20005</v>
+      </c>
+      <c r="D5" s="13">
+        <v>11020938854</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="13">
+        <v>564000165</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="12">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="12">
-        <v>11021200646</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="12">
+      <c r="M5" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="13">
+        <v>11020938854</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="13">
         <v>23456</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
-        <v>11021162884</v>
-      </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="12" t="s">
+      <c r="T5" s="13"/>
+      <c r="U5" s="11">
+        <v>11020880570</v>
+      </c>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="13">
+        <v>92000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>11020938838</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="13">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="13">
+        <v>11020938838</v>
+      </c>
+      <c r="O6" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="P6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="12">
-        <v>920005</v>
-      </c>
-      <c r="D5" s="12">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="12">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="Q6" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N5" s="12">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
+      <c r="T6" s="13"/>
+      <c r="U6" s="11">
+        <v>11020880570</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="12">
-        <v>2920006</v>
-      </c>
-      <c r="D6" s="12">
-        <v>11021200662</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="12">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="12">
-        <v>11021200662</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
-        <v>11021162884</v>
-      </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="Y6" s="13"/>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:25">
       <c r="A7" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="12">
         <v>7600007</v>
       </c>
       <c r="D7" s="12">
-        <v>11021209775</v>
+        <v>11020939559</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7" s="12">
         <v>564000165</v>
@@ -2064,7 +2049,7 @@
         <v>27</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
@@ -2080,13 +2065,13 @@
         <v>123456</v>
       </c>
       <c r="N7" s="12">
-        <v>11021209775</v>
+        <v>11020939559</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="12">
         <v>23456</v>
@@ -2098,160 +2083,160 @@
         <v>31</v>
       </c>
       <c r="T7" s="12"/>
-      <c r="U7" s="12">
-        <v>11021162884</v>
+      <c r="U7" s="11">
+        <v>11020880570</v>
       </c>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12">
+        <v>430007</v>
+      </c>
+      <c r="D8" s="12">
+        <v>11020943602</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="12">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="12">
+        <v>11020943602</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12">
+        <v>11020880570</v>
+      </c>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="12" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:25">
+      <c r="A9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="13">
-        <v>430007</v>
-      </c>
-      <c r="D8" s="13">
-        <v>11020943602</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="13">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="B9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="12">
+        <v>430008</v>
+      </c>
+      <c r="D9" s="12">
+        <v>11020951591</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="12">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="H9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M9" s="12">
         <v>123456</v>
       </c>
-      <c r="N8" s="13">
-        <v>11021210463</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="13">
+      <c r="N9" s="12">
+        <v>11020951591</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="12">
         <v>23456</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="13" t="s">
+      <c r="S9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13">
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
         <v>11020880570</v>
       </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y8" s="13" t="s">
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="1:25">
-      <c r="A9" s="13" t="s">
+      <c r="Y9" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="13">
-        <v>430008</v>
-      </c>
-      <c r="D9" s="13">
-        <v>11020951591</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="13">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="13">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="13">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13">
-        <v>11020880570</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:25">
       <c r="A10" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="14">
         <v>430009</v>
@@ -2260,7 +2245,7 @@
         <v>11020951583</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="14">
         <v>564000168</v>
@@ -2269,7 +2254,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
@@ -2285,13 +2270,13 @@
         <v>123456</v>
       </c>
       <c r="N10" s="14">
-        <v>11021214167</v>
+        <v>11020951583</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="14">
         <v>23456</v>
@@ -2309,80 +2294,78 @@
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Y10" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="1" spans="1:25">
+      <c r="A11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="13">
+        <v>43001</v>
+      </c>
+      <c r="D11" s="13">
+        <v>11020950285</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="13">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="13">
+        <v>11020950285</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13">
+        <v>11020880570</v>
+      </c>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" s="10" customFormat="1" spans="1:25">
-      <c r="A11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="14">
-        <v>430010</v>
-      </c>
-      <c r="D11" s="14">
-        <v>11020950285</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="14">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="14">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
-        <v>11020880570</v>
-      </c>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2422,7 +2405,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2437,34 +2420,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2493,51 +2476,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2551,34 +2534,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2586,26 +2569,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2">
         <v>39370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2613,190 +2596,190 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>39370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>39370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>39370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
         <v>39370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -2810,34 +2793,34 @@
         <v>10005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1">
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J11" s="1">
         <v>123543</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="104">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -183,10 +183,7 @@
     <t>AED</t>
   </si>
   <si>
-    <t>UOVBSGS0</t>
-  </si>
-  <si>
-    <t>CBAUAEA0</t>
+    <t>AEABJOA0</t>
   </si>
   <si>
     <t>CHASSGS0</t>
@@ -195,10 +192,7 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>BARCSGS0</t>
-  </si>
-  <si>
-    <t>BARCUS30</t>
+    <t>ROYCCAT0</t>
   </si>
   <si>
     <t>SMBCJPJ0</t>
@@ -207,7 +201,7 @@
     <t>JPY</t>
   </si>
   <si>
-    <t>BOJPJPJ0</t>
+    <t>SCBLJPJ0</t>
   </si>
   <si>
     <t>IRVTSGS0</t>
@@ -216,7 +210,7 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>NORWNOK0</t>
+    <t>STFBNOK0</t>
   </si>
   <si>
     <t>Instructed Agent BIC</t>
@@ -1008,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,9 +1033,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1049,9 +1040,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1592,7 +1580,7 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1695,407 +1683,405 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>11020883472</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>123456</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>11020883472</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>23456</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10">
         <v>11020880570</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>10001</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>11020883537</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>564000165</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>123457</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>11020883537</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>23456</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11">
+      <c r="T3" s="11"/>
+      <c r="U3" s="10">
         <v>11020880570</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="12"/>
+      <c r="Y3" s="11"/>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" s="8" customFormat="1" spans="1:25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>82000</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>11020938846</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>564000165</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <v>123458</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <v>11020938846</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <v>23456</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="13"/>
+      <c r="T4" s="11"/>
       <c r="U4" s="11">
         <v>11020880570</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13" t="s">
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="13"/>
+      <c r="Y4" s="11"/>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" s="8" customFormat="1" spans="1:25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>20005</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>11020938854</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>564000165</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="11">
         <v>123456</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <v>11020938854</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <v>23456</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="13"/>
+      <c r="T5" s="11"/>
       <c r="U5" s="11">
         <v>11020880570</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="13"/>
+      <c r="Y5" s="11"/>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" s="8" customFormat="1" spans="1:25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>92000</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>11020938838</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>564000165</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <v>123456</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <v>11020938838</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <v>23456</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="13"/>
+      <c r="T6" s="11"/>
       <c r="U6" s="11">
         <v>11020880570</v>
       </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="13"/>
+      <c r="Y6" s="11"/>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>7600007</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>11020939559</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>564000165</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>123456</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>11020939559</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>23456</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="12"/>
+      <c r="T7" s="11"/>
       <c r="U7" s="11">
         <v>11020880570</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12" t="s">
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="12" t="s">
-        <v>46</v>
-      </c>
+      <c r="Y7" s="11"/>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:25">
+    <row r="8" s="9" customFormat="1" spans="1:25">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
         <v>50</v>
@@ -2116,7 +2102,7 @@
         <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
@@ -2158,16 +2144,14 @@
       <c r="X8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Y8" s="11"/>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:25">
+      <c r="A9" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="C9" s="12">
         <v>430008</v>
@@ -2176,7 +2160,7 @@
         <v>11020951591</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="12">
         <v>564000167</v>
@@ -2185,7 +2169,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
@@ -2225,147 +2209,143 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:25">
+      <c r="A10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Y9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:25">
-      <c r="A10" s="14" t="s">
+      <c r="C10" s="12">
+        <v>430009</v>
+      </c>
+      <c r="D10" s="12">
+        <v>11020951583</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="12">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="12">
+        <v>11020951583</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12">
+        <v>11020880570</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="14">
-        <v>430009</v>
-      </c>
-      <c r="D10" s="14">
-        <v>11020951583</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="14">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="14">
-        <v>11020951583</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14">
-        <v>11020880570</v>
-      </c>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="Y10" s="11"/>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43001</v>
+      </c>
+      <c r="D11" s="12">
+        <v>11020950285</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="12">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="12">
+        <v>11020950285</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12">
+        <v>11020880570</v>
+      </c>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="13">
-        <v>43001</v>
-      </c>
-      <c r="D11" s="13">
-        <v>11020950285</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="13">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="13">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="13">
-        <v>11020950285</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13">
-        <v>11020880570</v>
-      </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y11" s="13"/>
+      <c r="Y11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2405,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2420,34 +2400,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2476,51 +2456,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2534,34 +2514,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2575,20 +2555,20 @@
         <v>39370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2602,34 +2582,34 @@
         <v>39370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2643,25 +2623,25 @@
         <v>39370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
@@ -2670,116 +2650,116 @@
         <v>39370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C9" s="1">
         <v>39370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -2793,34 +2773,34 @@
         <v>10005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="1">
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J11" s="1">
         <v>123543</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="104">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -180,6 +180,9 @@
     <t>ANZBSGS0</t>
   </si>
   <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
     <t>AED</t>
   </si>
   <si>
@@ -298,9 +301,6 @@
   </si>
   <si>
     <t>NATAAU30</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
   </si>
   <si>
     <t>AED148050001</t>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -2082,9 +2082,11 @@
       <c r="Y7" s="11"/>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="B8" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="12">
         <v>430007</v>
@@ -2093,7 +2095,7 @@
         <v>11020943602</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="12">
         <v>564000166</v>
@@ -2142,16 +2144,16 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y8" s="11"/>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:25">
       <c r="A9" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="12">
         <v>430008</v>
@@ -2160,7 +2162,7 @@
         <v>11020951591</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="12">
         <v>564000167</v>
@@ -2209,16 +2211,16 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="11"/>
     </row>
     <row r="10" s="9" customFormat="1" spans="1:25">
       <c r="A10" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="12">
         <v>430009</v>
@@ -2227,7 +2229,7 @@
         <v>11020951583</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="12">
         <v>564000168</v>
@@ -2276,16 +2278,16 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y10" s="11"/>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:25">
       <c r="A11" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="12">
         <v>43001</v>
@@ -2294,7 +2296,7 @@
         <v>11020950285</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="12">
         <v>564000169</v>
@@ -2343,7 +2345,7 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y11" s="11"/>
     </row>
@@ -2385,7 +2387,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2400,34 +2402,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2456,51 +2458,51 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2514,34 +2516,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2555,20 +2557,20 @@
         <v>39370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2582,34 +2584,34 @@
         <v>39370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2623,28 +2625,28 @@
         <v>39370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>39370006</v>
@@ -2659,10 +2661,10 @@
         <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
@@ -2674,7 +2676,7 @@
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>92</v>
@@ -2682,10 +2684,10 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
         <v>39370007</v>
@@ -2700,10 +2702,10 @@
         <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
@@ -2715,7 +2717,7 @@
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>95</v>
@@ -2723,10 +2725,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
@@ -2738,13 +2740,13 @@
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
@@ -2756,7 +2758,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>99</v>
@@ -2779,10 +2781,10 @@
         <v>564000165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>101</v>
@@ -2797,7 +2799,7 @@
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>103</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="100">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -328,18 +328,6 @@
   </si>
   <si>
     <t>HAMAJPJ0</t>
-  </si>
-  <si>
-    <t>USD140200001</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>Nm1</t>
-  </si>
-  <si>
-    <t>BBFXUS60</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1568,7 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2360,8 +2348,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2554,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="C5" s="2">
-        <v>39370003</v>
+        <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>84</v>
@@ -2581,7 +2569,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="2">
-        <v>39370004</v>
+        <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>86</v>
@@ -2622,7 +2610,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="2">
-        <v>39370005</v>
+        <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>89</v>
@@ -2649,7 +2637,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="2">
-        <v>39370006</v>
+        <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>91</v>
@@ -2690,7 +2678,7 @@
         <v>54</v>
       </c>
       <c r="C9" s="1">
-        <v>39370007</v>
+        <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>94</v>
@@ -2764,21 +2752,21 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:18">
+    <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1">
-        <v>10005</v>
+        <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1">
-        <v>564000165</v>
+        <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>74</v>
@@ -2787,13 +2775,13 @@
         <v>75</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="J11" s="1">
-        <v>123543</v>
+        <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
@@ -2802,7 +2790,7 @@
         <v>78</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -243,18 +243,24 @@
     <t>End To End Identification</t>
   </si>
   <si>
-    <t>GLDTSGS0</t>
+    <t>SGD142000001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
   </si>
   <si>
     <t>lei</t>
   </si>
   <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>SCFBDE30</t>
+  </si>
+  <si>
     <t>NOK142000001</t>
   </si>
   <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
     <t>New Name</t>
   </si>
   <si>
@@ -264,13 +270,7 @@
     <t>Nm2</t>
   </si>
   <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>SCFBDE30</t>
-  </si>
-  <si>
-    <t>HKD140200001</t>
+    <t>USD140200001</t>
   </si>
   <si>
     <t>New address</t>
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2429,7 +2429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="23" customHeight="1" spans="1:7">
+    <row r="2" ht="23" customHeight="1" spans="1:18">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2439,58 +2439,64 @@
       <c r="C2">
         <v>70000</v>
       </c>
-      <c r="D2">
-        <v>11010004964</v>
+      <c r="D2" t="s">
+        <v>71</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2510,10 +2516,10 @@
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>81</v>
@@ -2528,7 +2534,7 @@
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>83</v>
@@ -2555,7 +2561,7 @@
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>85</v>
@@ -2581,7 +2587,7 @@
         <v>87</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>81</v>
@@ -2596,7 +2602,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>87</v>
@@ -2623,7 +2629,7 @@
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>90</v>
@@ -2649,7 +2655,7 @@
         <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>81</v>
@@ -2664,7 +2670,7 @@
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>92</v>
@@ -2690,7 +2696,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>81</v>
@@ -2705,7 +2711,7 @@
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>95</v>
@@ -2728,10 +2734,10 @@
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>81</v>
@@ -2746,7 +2752,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>99</v>
@@ -2763,34 +2769,34 @@
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="102">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -144,9 +144,15 @@
     <t>Name3</t>
   </si>
   <si>
+    <t>SHAR</t>
+  </si>
+  <si>
     <t>address3</t>
   </si>
   <si>
+    <t>MRMDUS30</t>
+  </si>
+  <si>
     <t>HSBCHKH0</t>
   </si>
   <si>
@@ -165,6 +171,9 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>BARCGB20</t>
+  </si>
+  <si>
     <t>BDFEFRP0</t>
   </si>
   <si>
@@ -174,9 +183,6 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>SHAR</t>
-  </si>
-  <si>
     <t>ANZBSGS0</t>
   </si>
   <si>
@@ -204,7 +210,7 @@
     <t>JPY</t>
   </si>
   <si>
-    <t>SCBLJPJ0</t>
+    <t>BOJPJPJ0</t>
   </si>
   <si>
     <t>IRVTSGS0</t>
@@ -501,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,7 +878,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,16 +902,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -908,89 +920,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,6 +1033,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1028,6 +1043,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1568,8 +1586,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1671,611 +1689,617 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>11020883472</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="11">
         <v>123456</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <v>11020883472</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="11">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11">
         <v>11020880570</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>10001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>11020883537</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>564000165</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="12">
         <v>123457</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="12">
         <v>11020883537</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="12">
         <v>23456</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="10">
+      <c r="T3" s="12"/>
+      <c r="U3" s="11">
         <v>11020880570</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="12"/>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" s="9" customFormat="1" spans="1:25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11">
-        <v>82000</v>
-      </c>
-      <c r="D4" s="11">
-        <v>11020938846</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="C4" s="13">
+        <v>2300000</v>
+      </c>
+      <c r="D4" s="13">
+        <v>11021200646</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>564000165</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="13">
         <v>123458</v>
       </c>
-      <c r="N4" s="11">
-        <v>11020938846</v>
-      </c>
-      <c r="O4" s="11" t="s">
+      <c r="N4" s="13">
+        <v>11021200646</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="11">
+      <c r="P4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="13">
         <v>23456</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11">
-        <v>11020880570</v>
-      </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="11"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12">
         <v>20005</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>11020938854</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>11020938854</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="O5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="12">
         <v>23456</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <v>11020880570</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2300002</v>
+      </c>
+      <c r="D6" s="13">
+        <v>11021200662</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="13">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="13">
+        <v>11021200662</v>
+      </c>
+      <c r="O6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y5" s="11"/>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+      <c r="P6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="11">
-        <v>92000</v>
-      </c>
-      <c r="D6" s="11">
-        <v>11020938838</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="11">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="11" t="s">
+      <c r="Q6" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="11">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="11">
-        <v>11020938838</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11">
-        <v>11020880570</v>
-      </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="11"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:25">
-      <c r="A7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="A7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12">
         <v>7600007</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>11020939559</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12">
         <v>564000165</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="H7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="12">
         <v>123456</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <v>11020939559</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="11">
+      <c r="O7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="12">
         <v>23456</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
         <v>11020880570</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="11"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="12"/>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:25">
-      <c r="A8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="12">
+    <row r="8" s="10" customFormat="1" spans="1:25">
+      <c r="A8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="14">
         <v>430007</v>
       </c>
-      <c r="D8" s="12">
-        <v>11020943602</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="D8" s="14">
+        <v>11010006762</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="14">
         <v>564000166</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="14">
         <v>123456</v>
       </c>
-      <c r="N8" s="12">
-        <v>11020943602</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="12">
+      <c r="N8" s="14">
+        <v>11010006762</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="14">
         <v>23456</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12">
-        <v>11020880570</v>
-      </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="11"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14">
+        <v>11010006762</v>
+      </c>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="14"/>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:25">
-      <c r="A9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="12">
+    <row r="9" s="10" customFormat="1" spans="1:25">
+      <c r="A9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="14">
         <v>430008</v>
       </c>
-      <c r="D9" s="12">
-        <v>11020951591</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="D9" s="14">
+        <v>11010007424</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="14">
         <v>564000167</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="14">
         <v>123456</v>
       </c>
-      <c r="N9" s="12">
-        <v>11020951591</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="12">
+      <c r="N9" s="14">
+        <v>11010007424</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="14">
         <v>23456</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
-        <v>11020880570</v>
-      </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y9" s="11"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14">
+        <v>11010007424</v>
+      </c>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="14"/>
     </row>
     <row r="10" s="9" customFormat="1" spans="1:25">
-      <c r="A10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="12">
-        <v>430009</v>
-      </c>
-      <c r="D10" s="12">
-        <v>11020951583</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="A10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2300003</v>
+      </c>
+      <c r="D10" s="13">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="13">
         <v>564000168</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="H10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="13">
         <v>123456</v>
       </c>
-      <c r="N10" s="12">
-        <v>11020951583</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="12">
+      <c r="N10" s="13">
+        <v>11021214167</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="13">
         <v>23456</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12">
-        <v>11020880570</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12" t="s">
+      <c r="T10" s="13"/>
+      <c r="U10" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y10" s="11"/>
+      <c r="Y10" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="11" s="9" customFormat="1" spans="1:25">
+    <row r="11" s="8" customFormat="1" spans="1:25">
       <c r="A11" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="12">
         <v>43001</v>
@@ -2284,7 +2308,7 @@
         <v>11020950285</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" s="12">
         <v>564000169</v>
@@ -2312,10 +2336,10 @@
         <v>11020950285</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="12">
         <v>23456</v>
@@ -2333,9 +2357,9 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y11" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="Y11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2348,7 +2372,7 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2375,7 +2399,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2390,34 +2414,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2440,22 +2464,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2469,34 +2493,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2510,34 +2534,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2545,26 +2569,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2572,231 +2596,231 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="104">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -192,7 +192,10 @@
     <t>AED</t>
   </si>
   <si>
-    <t>AEABJOA0</t>
+    <t>UOVBSGS0</t>
+  </si>
+  <si>
+    <t>CBAUAEA0</t>
   </si>
   <si>
     <t>CHASSGS0</t>
@@ -201,7 +204,10 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>ROYCCAT0</t>
+    <t>BARCSGS0</t>
+  </si>
+  <si>
+    <t>BARCUS30</t>
   </si>
   <si>
     <t>SMBCJPJ0</t>
@@ -1587,7 +1593,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -2156,14 +2162,16 @@
       <c r="X8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Y8" s="14"/>
+      <c r="Y8" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:25">
       <c r="A9" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="14">
         <v>430008</v>
@@ -2172,7 +2180,7 @@
         <v>11010007424</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="14">
         <v>564000167</v>
@@ -2221,16 +2229,18 @@
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y9" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" s="9" customFormat="1" spans="1:25">
       <c r="A10" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="13">
         <v>2300003</v>
@@ -2239,7 +2249,7 @@
         <v>11021214167</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="13">
         <v>564000168</v>
@@ -2288,18 +2298,18 @@
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y10" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:25">
       <c r="A11" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12">
         <v>43001</v>
@@ -2308,7 +2318,7 @@
         <v>11020950285</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F11" s="12">
         <v>564000169</v>
@@ -2357,7 +2367,7 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y11" s="12"/>
     </row>
@@ -2399,7 +2409,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2414,34 +2424,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2464,22 +2474,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2493,34 +2503,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2534,34 +2544,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2575,20 +2585,20 @@
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2602,34 +2612,34 @@
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2643,20 +2653,20 @@
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
@@ -2670,157 +2680,157 @@
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="102">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -150,9 +150,6 @@
     <t>address3</t>
   </si>
   <si>
-    <t>MRMDUS30</t>
-  </si>
-  <si>
     <t>HSBCHKH0</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>EUR</t>
-  </si>
-  <si>
-    <t>BARCGB20</t>
   </si>
   <si>
     <t>BDFEFRP0</t>
@@ -513,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,12 +535,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,7 +872,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,16 +896,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -926,89 +914,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,9 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1049,9 +1034,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1592,8 +1574,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1695,222 +1677,220 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>11020883472</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>123456</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>11020883472</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="10">
         <v>23456</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10">
         <v>11020880570</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>10001</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>11020883537</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>564000165</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>123457</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>11020883537</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="11">
         <v>23456</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11">
+      <c r="T3" s="11"/>
+      <c r="U3" s="10">
         <v>11020880570</v>
       </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="12"/>
+      <c r="Y3" s="11"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13">
-        <v>2300000</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="12">
+        <v>2300005</v>
+      </c>
+      <c r="D4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>564000165</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>123458</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>23456</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y4" s="12"/>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:25">
+    <row r="5" s="9" customFormat="1" spans="1:25">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="12">
-        <v>20005</v>
+        <v>2300006</v>
       </c>
       <c r="D5" s="12">
-        <v>11020938854</v>
+        <v>11021200638</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="12">
         <v>564000165</v>
@@ -1919,7 +1899,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
@@ -1935,13 +1915,13 @@
         <v>123456</v>
       </c>
       <c r="N5" s="12">
-        <v>11020938854</v>
+        <v>11021200638</v>
       </c>
       <c r="O5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="Q5" s="12">
         <v>23456</v>
@@ -1954,422 +1934,420 @@
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="12">
-        <v>11020880570</v>
+        <v>11021162884</v>
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y5" s="12"/>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2300007</v>
+      </c>
+      <c r="D6" s="12">
+        <v>11021200662</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="12">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="12">
+        <v>11021200662</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
+        <v>11021162884</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="13">
-        <v>2300002</v>
-      </c>
-      <c r="D6" s="13">
-        <v>11021200662</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="13">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="13">
-        <v>11021200662</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13">
-        <v>11021162884</v>
-      </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="Y6" s="12"/>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7600007</v>
+      </c>
+      <c r="D7" s="11">
+        <v>11020939559</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="11">
+        <v>11020939559</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11">
+        <v>11020880570</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="Y7" s="11"/>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:25">
+      <c r="A8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="12">
-        <v>7600007</v>
-      </c>
-      <c r="D7" s="12">
-        <v>11020939559</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11">
+        <v>430007</v>
+      </c>
+      <c r="D8" s="11">
+        <v>11010006762</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="11">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="11">
+        <v>11010006762</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11">
+        <v>11010006762</v>
+      </c>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="1:25">
+      <c r="A9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="11">
+        <v>430008</v>
+      </c>
+      <c r="D9" s="11">
+        <v>11010007424</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="11">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N9" s="11">
+        <v>11010007424</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11">
+        <v>11010007424</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:25">
+      <c r="A10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2300003</v>
+      </c>
+      <c r="D10" s="11">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="11">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M10" s="11">
         <v>123456</v>
       </c>
-      <c r="N7" s="12">
-        <v>11020939559</v>
-      </c>
-      <c r="O7" s="12" t="s">
+      <c r="N10" s="11">
+        <v>11021214167</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="12">
+      <c r="Q10" s="11">
         <v>23456</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12">
-        <v>11020880570</v>
-      </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y7" s="12"/>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:25">
-      <c r="A8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="14">
-        <v>430007</v>
-      </c>
-      <c r="D8" s="14">
-        <v>11010006762</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="14">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N8" s="14">
-        <v>11010006762</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14">
-        <v>11010006762</v>
-      </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" s="10" customFormat="1" spans="1:25">
-      <c r="A9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="14">
-        <v>430008</v>
-      </c>
-      <c r="D9" s="14">
-        <v>11010007424</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="14">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="14">
-        <v>11010007424</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14">
-        <v>11010007424</v>
-      </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
+      <c r="T10" s="11"/>
+      <c r="U10" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y9" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" s="9" customFormat="1" spans="1:25">
-      <c r="A10" s="13" t="s">
+      <c r="Y10" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="13">
-        <v>2300003</v>
-      </c>
-      <c r="D10" s="13">
-        <v>11021214167</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="13">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="13">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="13">
-        <v>11021214167</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13">
-        <v>11021162884</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="11">
+        <v>43001</v>
+      </c>
+      <c r="D11" s="11">
+        <v>11020950285</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="11">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="11">
+        <v>11020950285</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11">
+        <v>11020880570</v>
+      </c>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="12">
-        <v>43001</v>
-      </c>
-      <c r="D11" s="12">
-        <v>11020950285</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="12">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="12">
-        <v>11020950285</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12">
-        <v>11020880570</v>
-      </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2409,7 +2387,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2424,34 +2402,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2474,22 +2452,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="s">
+      <c r="R2" t="s">
         <v>77</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2503,34 +2481,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2544,34 +2522,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2579,26 +2557,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2606,231 +2584,231 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="101">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -198,10 +198,7 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>BARCSGS0</t>
-  </si>
-  <si>
-    <t>BARCUS30</t>
+    <t>BARCGB20</t>
   </si>
   <si>
     <t>SMBCJPJ0</t>
@@ -210,7 +207,7 @@
     <t>JPY</t>
   </si>
   <si>
-    <t>BOJPJPJ0</t>
+    <t>BOTKJPJ0</t>
   </si>
   <si>
     <t>IRVTSGS0</t>
@@ -219,7 +216,7 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>STFBNOK0</t>
+    <t>NORWNOK0</t>
   </si>
   <si>
     <t>Instructed Agent BIC</t>
@@ -996,7 +993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,10 +1021,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1677,677 +1680,673 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>19380.76</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>11020883472</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="11">
         <v>123456</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="11">
         <v>11020883472</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="11">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11">
         <v>11020880570</v>
       </c>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>10001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>11020883537</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>564000165</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="12">
         <v>123457</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="12">
         <v>11020883537</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="12">
         <v>23456</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="10">
+      <c r="T3" s="12"/>
+      <c r="U3" s="11">
         <v>11020880570</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="11"/>
+      <c r="Y3" s="12"/>
     </row>
     <row r="4" s="9" customFormat="1" spans="1:25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>2300005</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>564000165</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="13">
         <v>123458</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="13">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="13">
         <v>23456</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="13"/>
     </row>
     <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>2300006</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="13">
         <v>564000165</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="13">
         <v>123456</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="13">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="13">
         <v>23456</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="13"/>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>2300007</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>11021200662</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <v>564000165</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="13">
         <v>123456</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="13">
         <v>11021200662</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="13">
         <v>23456</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
+      <c r="T6" s="13"/>
+      <c r="U6" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="13"/>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>7600007</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>11020939559</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>564000165</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="12">
         <v>123456</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <v>11020939559</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="12">
         <v>23456</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11">
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
         <v>11020880570</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11" t="s">
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Y7" s="11"/>
+      <c r="Y7" s="12"/>
     </row>
     <row r="8" s="8" customFormat="1" spans="1:25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <v>430007</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>11010006762</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>564000166</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="12">
         <v>123456</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="12">
         <v>11010006762</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="12">
         <v>23456</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11">
+      <c r="T8" s="12"/>
+      <c r="U8" s="12">
         <v>11010006762</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11" t="s">
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Y8" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="10" customFormat="1" spans="1:25">
+      <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="11">
-        <v>430008</v>
-      </c>
-      <c r="D9" s="11">
-        <v>11010007424</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="14">
+        <v>2100003</v>
+      </c>
+      <c r="D9" s="14">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="14">
         <v>564000167</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="14">
         <v>123456</v>
       </c>
-      <c r="N9" s="11">
-        <v>11010007424</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="N9" s="14">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="14">
         <v>23456</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11">
-        <v>11010007424</v>
-      </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11" t="s">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14">
+        <v>11021162884</v>
+      </c>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y9" s="14"/>
+    </row>
+    <row r="10" s="10" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="14" t="s">
         <v>57</v>
       </c>
+      <c r="B10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="14">
+        <v>2100004</v>
+      </c>
+      <c r="D10" s="14">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="14">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="14">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="14">
+        <v>11021214167</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14">
+        <v>11021162884</v>
+      </c>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" s="14"/>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:25">
-      <c r="A10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2300003</v>
-      </c>
-      <c r="D10" s="11">
-        <v>11021214167</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="11">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="11" t="s">
+    <row r="11" s="10" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2100005</v>
+      </c>
+      <c r="D11" s="14">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="14">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="H11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M11" s="14">
         <v>123456</v>
       </c>
-      <c r="N10" s="11">
-        <v>11021214167</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="N11" s="14">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q11" s="14">
         <v>23456</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11">
+      <c r="T11" s="14"/>
+      <c r="U11" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" s="8" customFormat="1" spans="1:25">
-      <c r="A11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="11">
-        <v>43001</v>
-      </c>
-      <c r="D11" s="11">
-        <v>11020950285</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="11">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="11">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="11">
-        <v>11020950285</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11">
-        <v>11020880570</v>
-      </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y11" s="11"/>
+      <c r="Y11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2387,7 +2386,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2402,34 +2401,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2452,22 +2451,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>76</v>
-      </c>
-      <c r="R2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2481,34 +2480,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2522,34 +2521,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2563,20 +2562,20 @@
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2590,34 +2589,34 @@
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2631,20 +2630,20 @@
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
@@ -2658,34 +2657,34 @@
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
@@ -2699,116 +2698,116 @@
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="102">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -111,10 +111,13 @@
     <t>SGD</t>
   </si>
   <si>
+    <t>SGD142000001</t>
+  </si>
+  <si>
     <t>Name2</t>
   </si>
   <si>
-    <t>DEBT</t>
+    <t>SHAR</t>
   </si>
   <si>
     <t>address2</t>
@@ -129,75 +132,81 @@
     <t>teste</t>
   </si>
   <si>
+    <t>MRMDUS30</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
+    <t>USD142000001</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>HSBCHKH0</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>FINAL REGRESSION COMPANY PL</t>
+  </si>
+  <si>
+    <t>30 SENOKO CRESCENT</t>
+  </si>
+  <si>
+    <t>ICBKCNB0</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>BDFEFRP0</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>AUD142000001</t>
+  </si>
+  <si>
+    <t>WPACAU20</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>AED142000001</t>
+  </si>
+  <si>
+    <t>ARABJOA0</t>
+  </si>
+  <si>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
     <t>CRED</t>
   </si>
   <si>
-    <t>FCBTUS30</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>SHAR</t>
-  </si>
-  <si>
-    <t>address3</t>
-  </si>
-  <si>
-    <t>HSBCHKH0</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>FINAL REGRESSION COMPANY PL</t>
-  </si>
-  <si>
-    <t>30 SENOKO CRESCENT</t>
-  </si>
-  <si>
-    <t>ICBKCNB0</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>BDFEFRP0</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>ANZBSGS0</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>UOVBSGS0</t>
-  </si>
-  <si>
-    <t>CBAUAEA0</t>
-  </si>
-  <si>
-    <t>CHASSGS0</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
     <t>BARCGB20</t>
   </si>
   <si>
@@ -210,9 +219,6 @@
     <t>BOTKJPJ0</t>
   </si>
   <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
     <t>NOK</t>
   </si>
   <si>
@@ -244,9 +250,6 @@
   </si>
   <si>
     <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>SGD142000001</t>
   </si>
   <si>
     <t>CITISGS0</t>
@@ -993,7 +996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,7 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1024,19 +1027,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1577,8 +1574,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1680,673 +1677,669 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11">
-        <v>19380.76</v>
-      </c>
-      <c r="D2" s="11">
-        <v>11020883472</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="10">
+        <v>661000</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="P2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:25">
+      <c r="A3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10">
+        <v>661001</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="11">
+      <c r="L3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="10">
+        <v>123457</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="8" customFormat="1" spans="1:25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2300005</v>
+      </c>
+      <c r="D4" s="11">
+        <v>11021200646</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="11">
+        <v>564000165</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="11">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="11">
+        <v>11021200646</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="11"/>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2300006</v>
+      </c>
+      <c r="D5" s="11">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="11">
+        <v>564000165</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="11">
         <v>123456</v>
       </c>
-      <c r="N2" s="11">
-        <v>11020883472</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="11" t="s">
+      <c r="N5" s="11">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="11"/>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2300007</v>
+      </c>
+      <c r="D6" s="11">
+        <v>11021200662</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="11">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="11">
+        <v>11021200662</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="11">
         <v>23456</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="11"/>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:25">
+      <c r="A7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3600001</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11">
-        <v>11020880570</v>
-      </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
+      <c r="L7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="10"/>
     </row>
-    <row r="3" s="8" customFormat="1" spans="1:25">
-      <c r="A3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:25">
+      <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3300071</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="10">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="12">
-        <v>10001</v>
-      </c>
-      <c r="D3" s="12">
-        <v>11020883537</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="S8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:25">
+      <c r="A9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2100003</v>
+      </c>
+      <c r="D9" s="12">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="12">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N9" s="12">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="12">
-        <v>564000165</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="S9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
+        <v>11021162884</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" s="12"/>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2100004</v>
+      </c>
+      <c r="D10" s="12">
+        <v>11021214167</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="12">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="12">
-        <v>123457</v>
-      </c>
-      <c r="N3" s="12">
-        <v>11020883537</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="12">
+      <c r="L10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="12">
+        <v>11021214167</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="12">
         <v>23456</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T10" s="12"/>
+      <c r="U10" s="12">
+        <v>11021162884</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="12"/>
+    </row>
+    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2100005</v>
+      </c>
+      <c r="D11" s="12">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="12">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11">
-        <v>11020880570</v>
-      </c>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="12"/>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="1:25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="13">
-        <v>2300005</v>
-      </c>
-      <c r="D4" s="13">
-        <v>11021200646</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="13">
-        <v>564000165</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="13">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="13">
-        <v>11021200646</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="13">
+      <c r="L11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="12">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="12">
         <v>23456</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13">
+      <c r="T11" s="12"/>
+      <c r="U11" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="13"/>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2300006</v>
-      </c>
-      <c r="D5" s="13">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="13">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="13">
-        <v>123456</v>
-      </c>
-      <c r="N5" s="13">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y5" s="13"/>
-    </row>
-    <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2300007</v>
-      </c>
-      <c r="D6" s="13">
-        <v>11021200662</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="13">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="13">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="13">
-        <v>11021200662</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13">
-        <v>11021162884</v>
-      </c>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y6" s="13"/>
-    </row>
-    <row r="7" s="8" customFormat="1" spans="1:25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
-        <v>7600007</v>
-      </c>
-      <c r="D7" s="12">
-        <v>11020939559</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N7" s="12">
-        <v>11020939559</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12">
-        <v>11020880570</v>
-      </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="12"/>
-    </row>
-    <row r="8" s="8" customFormat="1" spans="1:25">
-      <c r="A8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="12">
-        <v>430007</v>
-      </c>
-      <c r="D8" s="12">
-        <v>11010006762</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="12">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N8" s="12">
-        <v>11010006762</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12">
-        <v>11010006762</v>
-      </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" s="10" customFormat="1" spans="1:25">
-      <c r="A9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2100003</v>
-      </c>
-      <c r="D9" s="14">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="14">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="14">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14">
-        <v>11021162884</v>
-      </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y9" s="14"/>
-    </row>
-    <row r="10" s="10" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2100004</v>
-      </c>
-      <c r="D10" s="14">
-        <v>11021214167</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="14">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="14">
-        <v>11021214167</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14">
-        <v>11021162884</v>
-      </c>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y10" s="14"/>
-    </row>
-    <row r="11" s="10" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2100005</v>
-      </c>
-      <c r="D11" s="14">
-        <v>11021223115</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="14">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="14">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
-        <v>11021162884</v>
-      </c>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y11" s="14"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2386,7 +2379,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2401,34 +2394,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2451,22 +2444,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2474,40 +2467,40 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2515,40 +2508,40 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2556,26 +2549,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2583,231 +2576,231 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="104">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -147,9 +147,15 @@
     <t>HKD</t>
   </si>
   <si>
+    <t>HKD142000001</t>
+  </si>
+  <si>
     <t>Name3</t>
   </si>
   <si>
+    <t>CRED</t>
+  </si>
+  <si>
     <t>address3</t>
   </si>
   <si>
@@ -171,6 +177,12 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>EUR142000001</t>
+  </si>
+  <si>
+    <t>BARCGB20</t>
+  </si>
+  <si>
     <t>BDFEFRP0</t>
   </si>
   <si>
@@ -204,18 +216,15 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>CRED</t>
-  </si>
-  <si>
-    <t>BARCGB20</t>
-  </si>
-  <si>
     <t>SMBCJPJ0</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
+    <t>JPY142000001</t>
+  </si>
+  <si>
     <t>BOTKJPJ0</t>
   </si>
   <si>
@@ -325,9 +334,6 @@
   </si>
   <si>
     <t>Nm8</t>
-  </si>
-  <si>
-    <t>JPY142000001</t>
   </si>
   <si>
     <t>Nm9</t>
@@ -1018,19 +1024,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,8 +1580,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1823,8 +1829,8 @@
       <c r="C4" s="11">
         <v>2300005</v>
       </c>
-      <c r="D4" s="11">
-        <v>11021200646</v>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>38</v>
@@ -1833,10 +1839,10 @@
         <v>564000165</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
@@ -1851,14 +1857,14 @@
       <c r="M4" s="11">
         <v>123458</v>
       </c>
-      <c r="N4" s="11">
-        <v>11021200646</v>
+      <c r="N4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="11">
         <v>23456</v>
@@ -1870,94 +1876,94 @@
         <v>32</v>
       </c>
       <c r="T4" s="11"/>
-      <c r="U4" s="11">
-        <v>11021162884</v>
-      </c>
+      <c r="U4" s="11"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="11">
+    <row r="5" s="9" customFormat="1" spans="1:25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="12">
         <v>2300006</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="11">
+      <c r="O5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="12">
         <v>23456</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y5" s="11"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="11">
         <v>2300007</v>
       </c>
-      <c r="D6" s="11">
-        <v>11021200662</v>
+      <c r="D6" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" s="11">
         <v>564000165</v>
@@ -1965,8 +1971,8 @@
       <c r="G6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>29</v>
+      <c r="H6" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
@@ -1981,14 +1987,14 @@
       <c r="M6" s="11">
         <v>123456</v>
       </c>
-      <c r="N6" s="11">
-        <v>11021200662</v>
+      <c r="N6" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="11">
         <v>23456</v>
@@ -2000,31 +2006,31 @@
         <v>32</v>
       </c>
       <c r="T6" s="11"/>
-      <c r="U6" s="11">
-        <v>11021162884</v>
-      </c>
+      <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y6" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
       <c r="A7" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C7" s="10">
         <v>3600001</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F7" s="10">
         <v>564000165</v>
@@ -2049,13 +2055,13 @@
         <v>123456</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="10">
         <v>23456</v>
@@ -2071,25 +2077,25 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="10"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
       <c r="A8" s="10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10">
         <v>3300071</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F8" s="10">
         <v>564000166</v>
@@ -2114,13 +2120,13 @@
         <v>123456</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="10">
         <v>23456</v>
@@ -2136,16 +2142,16 @@
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="10"/>
     </row>
     <row r="9" s="9" customFormat="1" spans="1:25">
       <c r="A9" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="12">
         <v>2100003</v>
@@ -2154,7 +2160,7 @@
         <v>11021212547</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" s="12">
         <v>564000167</v>
@@ -2163,7 +2169,7 @@
         <v>28</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
@@ -2182,10 +2188,10 @@
         <v>11021212547</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="12">
         <v>23456</v>
@@ -2203,83 +2209,83 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Y9" s="12"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="12">
+    <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="11">
         <v>2100004</v>
       </c>
-      <c r="D10" s="12">
-        <v>11021214167</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="D10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="11">
         <v>564000168</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
+      <c r="H10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>123456</v>
       </c>
-      <c r="N10" s="12">
-        <v>11021214167</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="12">
+      <c r="N10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="11">
         <v>23456</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12">
-        <v>11021162884</v>
-      </c>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y10" s="12"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
       <c r="A11" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="12">
         <v>2100005</v>
@@ -2288,7 +2294,7 @@
         <v>11021223115</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" s="12">
         <v>564000169</v>
@@ -2297,7 +2303,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
@@ -2316,10 +2322,10 @@
         <v>11021223115</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="12">
         <v>23456</v>
@@ -2337,7 +2343,7 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Y11" s="12"/>
     </row>
@@ -2379,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2394,34 +2400,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2450,16 +2456,16 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2473,34 +2479,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2514,34 +2520,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2549,26 +2555,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2576,190 +2582,190 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
@@ -2767,40 +2773,40 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="106">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -111,154 +111,160 @@
     <t>SGD</t>
   </si>
   <si>
+    <t>PL51012</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>SHAR</t>
+  </si>
+  <si>
+    <t>address2</t>
+  </si>
+  <si>
+    <t>testabc</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>HSBCHKH0</t>
+  </si>
+  <si>
+    <t>HSBCSGS0XXX</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>DEUTSGS0</t>
+  </si>
+  <si>
+    <t>DEHCUS30XXX</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>HKD142000001</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>MRMDUS30</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>FINAL REGRESSION COMPANY PL</t>
+  </si>
+  <si>
+    <t>30 SENOKO CRESCENT</t>
+  </si>
+  <si>
+    <t>ICBKCNB0</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EUR142000001</t>
+  </si>
+  <si>
+    <t>BARCGB20</t>
+  </si>
+  <si>
+    <t>BDFEFRP0</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>PL52010</t>
+  </si>
+  <si>
+    <t>WPACAU20</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>ARABJOA0</t>
+  </si>
+  <si>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>JPY142000001</t>
+  </si>
+  <si>
+    <t>BOTKJPJ0</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>NORWNOK0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
     <t>SGD142000001</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>SHAR</t>
-  </si>
-  <si>
-    <t>address2</t>
-  </si>
-  <si>
-    <t>testabc</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>MRMDUS30</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>USD142000001</t>
-  </si>
-  <si>
-    <t>HKD</t>
-  </si>
-  <si>
-    <t>HKD142000001</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>CRED</t>
-  </si>
-  <si>
-    <t>address3</t>
-  </si>
-  <si>
-    <t>HSBCHKH0</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>FINAL REGRESSION COMPANY PL</t>
-  </si>
-  <si>
-    <t>30 SENOKO CRESCENT</t>
-  </si>
-  <si>
-    <t>ICBKCNB0</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>EUR142000001</t>
-  </si>
-  <si>
-    <t>BARCGB20</t>
-  </si>
-  <si>
-    <t>BDFEFRP0</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>AUD142000001</t>
-  </si>
-  <si>
-    <t>WPACAU20</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>AED142000001</t>
-  </si>
-  <si>
-    <t>ARABJOA0</t>
-  </si>
-  <si>
-    <t>CHASSGS0</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>JPY142000001</t>
-  </si>
-  <si>
-    <t>BOTKJPJ0</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>NORWNOK0</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
   </si>
   <si>
     <t>CITISGS0</t>
@@ -1002,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,16 +1030,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,8 +1580,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1683,669 +1683,669 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>661000</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>123456</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>661001</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9">
+        <v>564000165</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="9">
+        <v>123457</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="10">
-        <v>564000165</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="10">
-        <v>123457</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>34</v>
+      <c r="Y3" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10">
         <v>2300005</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>564000165</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="10">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="P4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2300006</v>
+      </c>
+      <c r="D5" s="10">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="11">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="11">
+      <c r="M5" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="10">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="10">
         <v>23456</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2300006</v>
-      </c>
-      <c r="D5" s="12">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="12">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N5" s="12">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="12"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="10">
         <v>2300007</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>564000165</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>123456</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="11" t="s">
+      <c r="N6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="P6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="10">
         <v>23456</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="11" t="s">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10" t="s">
         <v>51</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="10">
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="9">
         <v>3600001</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>564000165</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>123456</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="10" t="s">
+      <c r="N7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="P7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="9">
         <v>23456</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" s="10"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="9"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="10">
+      <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="9">
         <v>3300071</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>564000166</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>123456</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="10" t="s">
+      <c r="N8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="P8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="9">
         <v>23456</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10" t="s">
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="9"/>
     </row>
-    <row r="9" s="9" customFormat="1" spans="1:25">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:25">
+      <c r="A9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>2100003</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>564000167</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="H9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="10">
         <v>123456</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="12" t="s">
+      <c r="O9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="P9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="10">
         <v>23456</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="12"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="10"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>2100004</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>564000168</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="H10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>123456</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="P10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="10">
         <v>23456</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y10" s="11" t="s">
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="12" t="s">
+    <row r="11" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="12">
+      <c r="B11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="10">
         <v>2100005</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="E11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="10">
         <v>564000169</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
+      <c r="H11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <v>123456</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="12" t="s">
+      <c r="O11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="P11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="10">
         <v>23456</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="R11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="S11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y11" s="12"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2385,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2400,34 +2400,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2450,22 +2450,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2479,34 +2479,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2514,40 +2514,40 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2555,26 +2555,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2582,108 +2582,108 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
@@ -2697,34 +2697,34 @@
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
@@ -2744,69 +2744,69 @@
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="105">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -150,7 +150,7 @@
     <t>HKD</t>
   </si>
   <si>
-    <t>HKD142000001</t>
+    <t>PL52010</t>
   </si>
   <si>
     <t>Name3</t>
@@ -180,9 +180,6 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>EUR142000001</t>
-  </si>
-  <si>
     <t>BARCGB20</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>PL52010</t>
-  </si>
-  <si>
     <t>WPACAU20</t>
   </si>
   <si>
@@ -222,124 +216,127 @@
     <t>JPY</t>
   </si>
   <si>
+    <t>BOTKJPJ0</t>
+  </si>
+  <si>
+    <t>BOJPJPJ0</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>NORWNOK0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>SGD142000001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>SCFBDE30</t>
+  </si>
+  <si>
+    <t>NOK142000001</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>USD140200001</t>
+  </si>
+  <si>
+    <t>New address</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>HASEHKH0</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>EBRDGB20</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
+  </si>
+  <si>
+    <t>CHBKPHM0</t>
+  </si>
+  <si>
+    <t>Nm5</t>
+  </si>
+  <si>
+    <t>AUD148050001</t>
+  </si>
+  <si>
+    <t>NATAAU30</t>
+  </si>
+  <si>
+    <t>AED148050001</t>
+  </si>
+  <si>
+    <t>NBADAEA0</t>
+  </si>
+  <si>
+    <t>Nm7</t>
+  </si>
+  <si>
+    <t>GBP142000001</t>
+  </si>
+  <si>
+    <t>LOYDGB20</t>
+  </si>
+  <si>
+    <t>Nm8</t>
+  </si>
+  <si>
     <t>JPY142000001</t>
-  </si>
-  <si>
-    <t>BOTKJPJ0</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>NORWNOK0</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>SGD142000001</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>SCFBDE30</t>
-  </si>
-  <si>
-    <t>NOK142000001</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>USD140200001</t>
-  </si>
-  <si>
-    <t>New address</t>
-  </si>
-  <si>
-    <t>Nm3</t>
-  </si>
-  <si>
-    <t>HASEHKH0</t>
-  </si>
-  <si>
-    <t>EUR140200001</t>
-  </si>
-  <si>
-    <t>EBRDGB20</t>
-  </si>
-  <si>
-    <t>CNY140200001</t>
-  </si>
-  <si>
-    <t>CHBKPHM0</t>
-  </si>
-  <si>
-    <t>Nm5</t>
-  </si>
-  <si>
-    <t>AUD148050001</t>
-  </si>
-  <si>
-    <t>NATAAU30</t>
-  </si>
-  <si>
-    <t>AED148050001</t>
-  </si>
-  <si>
-    <t>NBADAEA0</t>
-  </si>
-  <si>
-    <t>Nm7</t>
-  </si>
-  <si>
-    <t>GBP142000001</t>
-  </si>
-  <si>
-    <t>LOYDGB20</t>
-  </si>
-  <si>
-    <t>Nm8</t>
   </si>
   <si>
     <t>Nm9</t>
@@ -1008,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,10 +1027,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,7 +1584,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1683,618 +1686,618 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>661000</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <v>123456</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>23456</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>661001</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>564000165</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>123457</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="10">
         <v>23456</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>2300005</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>564000165</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="11">
         <v>123458</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="11">
         <v>23456</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10" t="s">
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="12">
         <v>2300006</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="12">
         <v>23456</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>2300007</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="11">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="10">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10" t="s">
+      <c r="Y6" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="10">
+        <v>3600001</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9">
-        <v>3600001</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="10"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3300071</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="10">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:25">
+      <c r="A9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="9">
-        <v>3300071</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="9">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="B9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2100003</v>
+      </c>
+      <c r="D9" s="12">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="12">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="H9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M9" s="12">
         <v>123456</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="N9" s="12">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q9" s="12">
         <v>23456</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" s="9"/>
-    </row>
-    <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2100003</v>
-      </c>
-      <c r="D9" s="10">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="10">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="10">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10">
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y9" s="10"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="12"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2100004</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="11">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="Y10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="10">
-        <v>2100004</v>
-      </c>
-      <c r="D10" s="10" t="s">
+    </row>
+    <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="10">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="11" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="C11" s="10">
         <v>2100005</v>
       </c>
-      <c r="D11" s="10">
-        <v>11021223115</v>
+      <c r="D11" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="10">
         <v>564000169</v>
@@ -2318,8 +2321,8 @@
       <c r="M11" s="10">
         <v>123456</v>
       </c>
-      <c r="N11" s="10">
-        <v>11021223115</v>
+      <c r="N11" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>46</v>
@@ -2337,13 +2340,11 @@
         <v>32</v>
       </c>
       <c r="T11" s="10"/>
-      <c r="U11" s="10">
-        <v>11021162884</v>
-      </c>
+      <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="10"/>
     </row>
@@ -2385,7 +2386,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2400,34 +2401,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2450,22 +2451,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" t="s">
         <v>79</v>
       </c>
-      <c r="G2" t="s">
+      <c r="R2" t="s">
         <v>80</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2479,34 +2480,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2520,34 +2521,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2561,20 +2562,20 @@
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2588,225 +2589,225 @@
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>SGD</t>
-  </si>
-  <si>
-    <t>PL51012</t>
   </si>
   <si>
     <t>Name2</t>
@@ -1005,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,16 +1024,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,8 +1574,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1686,665 +1677,665 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
-        <v>661000</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="9">
+        <v>662000</v>
+      </c>
+      <c r="D2" s="9">
+        <v>15000000811</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9">
+        <v>564000165</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="10">
-        <v>564000165</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N2" s="9">
+        <v>15000000811</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9">
+        <v>662001</v>
+      </c>
+      <c r="D3" s="9">
+        <v>15000000986</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9">
+        <v>564000165</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="9">
+        <v>123457</v>
+      </c>
+      <c r="N3" s="9">
+        <v>15000000986</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10">
-        <v>661001</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="10">
-        <v>564000165</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="10">
-        <v>123457</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2300005</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="11">
-        <v>2300005</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="H4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="10">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="11">
+      <c r="O4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2300006</v>
+      </c>
+      <c r="D5" s="10">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="10">
         <v>564000165</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M5" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="10">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="11">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2300006</v>
-      </c>
-      <c r="D5" s="12">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="12">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="S5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N5" s="12">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="12" t="s">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2300007</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="11">
-        <v>2300007</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="11">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="11">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="9">
+        <v>6600002</v>
+      </c>
+      <c r="D7" s="9">
+        <v>15000001591</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="9">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="9">
+        <v>15000001591</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="10">
-        <v>3600001</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="10">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="9"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="9">
+        <v>3300072</v>
+      </c>
+      <c r="D8" s="9">
+        <v>15000001729</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="9">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="9">
+        <v>15000001729</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="10">
-        <v>3300071</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="10">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="1:25">
+      <c r="A9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2100003</v>
+      </c>
+      <c r="D9" s="10">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="10">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M9" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N9" s="10">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y8" s="10"/>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="1:25">
-      <c r="A9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2100003</v>
-      </c>
-      <c r="D9" s="12">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="12">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="S9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="12">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="12"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="10"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="10">
+        <v>2100004</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="10">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="11">
-        <v>2100004</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="11">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="11">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Y10" s="11" t="s">
+    </row>
+    <row r="11" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="C11" s="10">
         <v>2100005</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="10">
         <v>564000169</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="M11" s="10">
         <v>123456</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="Q11" s="10">
         <v>23456</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y11" s="10"/>
     </row>
@@ -2386,7 +2377,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2401,34 +2392,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2451,22 +2442,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>79</v>
-      </c>
-      <c r="R2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2474,40 +2465,40 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2515,40 +2506,40 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2556,26 +2547,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2583,231 +2574,231 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="104">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -1002,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,10 +1024,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,7 +1580,7 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -1677,667 +1683,667 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>662000</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>15000000811</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <v>123456</v>
       </c>
-      <c r="N2" s="9">
-        <v>15000000811</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="10">
+        <v>662000</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>23456</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>662001</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>15000000986</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>564000165</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>123457</v>
       </c>
-      <c r="N3" s="9">
-        <v>15000000986</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="10">
+        <v>662001</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="10">
         <v>23456</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10">
-        <v>2300005</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11">
+        <v>15000001451</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>564000165</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="11">
         <v>123458</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="10" t="s">
+      <c r="N4" s="11">
+        <v>15000001451</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="11">
         <v>23456</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10" t="s">
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="12">
         <v>2300006</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N5" s="10">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="12">
+        <v>2300006</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="12">
         <v>23456</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="10">
-        <v>2300007</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11">
+        <v>15000001532</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>564000165</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="11">
         <v>123456</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="N6" s="11">
+        <v>15000001532</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="11">
         <v>23456</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10" t="s">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>6600002</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>15000001591</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>564000165</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="10">
         <v>123456</v>
       </c>
-      <c r="N7" s="9">
-        <v>15000001591</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="10">
+        <v>6600002</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="10">
         <v>23456</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="10"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>3300072</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>15000001729</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>564000166</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="10">
         <v>123456</v>
       </c>
-      <c r="N8" s="9">
-        <v>15000001729</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="N8" s="10">
+        <v>3300072</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="10">
         <v>23456</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9" t="s">
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="9"/>
+      <c r="Y8" s="10"/>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="10" t="s">
+    <row r="9" s="9" customFormat="1" spans="1:25">
+      <c r="A9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="12">
         <v>2100003</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="12">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="12">
         <v>564000167</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="12">
         <v>123456</v>
       </c>
-      <c r="N9" s="10">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="10" t="s">
+      <c r="N9" s="12">
+        <v>2100003</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="12">
         <v>23456</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10">
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10" t="s">
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="12"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="10">
-        <v>2100004</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="11">
+        <v>15000001877</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>564000168</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="11">
         <v>123456</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="11">
+        <v>15000001877</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2100005</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="E11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="12">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="12">
+        <v>2100005</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q11" s="12">
         <v>23456</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2100005</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="10">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10" t="s">
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="104">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -147,82 +147,82 @@
     <t>HKD</t>
   </si>
   <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>MRMDUS30</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>FINAL REGRESSION COMPANY PL</t>
+  </si>
+  <si>
+    <t>30 SENOKO CRESCENT</t>
+  </si>
+  <si>
+    <t>ICBKCNB0</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>BARCGB20</t>
+  </si>
+  <si>
+    <t>BDFEFRP0</t>
+  </si>
+  <si>
+    <t>ANZBAU30</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>WPACAU20</t>
+  </si>
+  <si>
+    <t>EBILAEA0</t>
+  </si>
+  <si>
+    <t>AED</t>
+  </si>
+  <si>
+    <t>ARABJOA0</t>
+  </si>
+  <si>
+    <t>CHASSGS0</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>BOTKJPJ0</t>
+  </si>
+  <si>
+    <t>BOJPJPJ0</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
     <t>PL52010</t>
-  </si>
-  <si>
-    <t>Name3</t>
-  </si>
-  <si>
-    <t>CRED</t>
-  </si>
-  <si>
-    <t>address3</t>
-  </si>
-  <si>
-    <t>MRMDUS30</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>FINAL REGRESSION COMPANY PL</t>
-  </si>
-  <si>
-    <t>30 SENOKO CRESCENT</t>
-  </si>
-  <si>
-    <t>ICBKCNB0</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>BARCGB20</t>
-  </si>
-  <si>
-    <t>BDFEFRP0</t>
-  </si>
-  <si>
-    <t>ANZBAU30</t>
-  </si>
-  <si>
-    <t>AUD</t>
-  </si>
-  <si>
-    <t>WPACAU20</t>
-  </si>
-  <si>
-    <t>EBILAEA0</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>ARABJOA0</t>
-  </si>
-  <si>
-    <t>CHASSGS0</t>
-  </si>
-  <si>
-    <t>GBP</t>
-  </si>
-  <si>
-    <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>BOTKJPJ0</t>
-  </si>
-  <si>
-    <t>BOJPJPJ0</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK</t>
   </si>
   <si>
     <t>NORWNOK0</t>
@@ -1002,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,16 +1030,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1580,8 +1574,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1683,667 +1677,667 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>662000</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>15000000811</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>123456</v>
       </c>
-      <c r="N2" s="10">
-        <v>662000</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="N2" s="9">
+        <v>15000000811</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>662001</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>15000000986</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>564000165</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>123457</v>
       </c>
-      <c r="N3" s="10">
-        <v>662001</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="9">
+        <v>15000000986</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>23456</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
+        <v>662002</v>
+      </c>
+      <c r="D4" s="10">
         <v>15000001451</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="H4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="10">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="10">
+        <v>15000001451</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9">
+        <v>662003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="9">
         <v>564000165</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="11">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="11">
-        <v>15000001451</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="11">
+      <c r="M5" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="9">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="9">
         <v>23456</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="12">
-        <v>2300006</v>
-      </c>
-      <c r="D5" s="12">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="12">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N5" s="12">
-        <v>2300006</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="12" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="9">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="9"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9">
+        <v>662004</v>
+      </c>
+      <c r="D6" s="10">
+        <v>15000001532</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="10">
+        <v>15000001532</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="11">
-        <v>15000001532</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="11">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="11">
-        <v>15000001532</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
+      <c r="Y6" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="9">
+        <v>662005</v>
+      </c>
+      <c r="D7" s="9">
+        <v>15000001591</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="9">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N7" s="9">
+        <v>15000001591</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="10">
-        <v>6600002</v>
-      </c>
-      <c r="D7" s="10">
-        <v>15000001591</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="10">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N7" s="10">
-        <v>6600002</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="9"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="9">
+        <v>662006</v>
+      </c>
+      <c r="D8" s="9">
+        <v>15000001729</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="9">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="9">
+        <v>15000001729</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="10">
-        <v>3300072</v>
-      </c>
-      <c r="D8" s="10">
-        <v>15000001729</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="10">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:25">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9">
+        <v>662007</v>
+      </c>
+      <c r="D9" s="9">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="9">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="H9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M9" s="9">
         <v>123456</v>
       </c>
-      <c r="N8" s="10">
-        <v>3300072</v>
-      </c>
-      <c r="O8" s="10" t="s">
+      <c r="N9" s="9">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="Q9" s="9">
         <v>23456</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y8" s="10"/>
-    </row>
-    <row r="9" s="9" customFormat="1" spans="1:25">
-      <c r="A9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2100003</v>
-      </c>
-      <c r="D9" s="12">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="12">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="12">
-        <v>2100003</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
+      <c r="T9" s="9"/>
+      <c r="U9" s="9">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y9" s="12"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="9"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="9">
+        <v>662008</v>
+      </c>
+      <c r="D10" s="10">
+        <v>15000001877</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="10">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="10">
+        <v>15000001877</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="11">
-        <v>15000001877</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="11">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="Y10" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2100005</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="9">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M11" s="9">
         <v>123456</v>
       </c>
-      <c r="N10" s="11">
-        <v>15000001877</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="N11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="11">
+      <c r="Q11" s="9">
         <v>23456</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2100005</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="12">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="12">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="12">
-        <v>2100005</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12" t="s">
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2553,7 +2547,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
@@ -2580,7 +2574,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
@@ -2618,10 +2612,10 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
@@ -2645,10 +2639,10 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
@@ -2686,10 +2680,10 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
@@ -2727,10 +2721,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
@@ -2768,10 +2762,10 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="106">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -147,6 +147,9 @@
     <t>HKD</t>
   </si>
   <si>
+    <t>HKD142000001</t>
+  </si>
+  <si>
     <t>Name3</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>EUR</t>
   </si>
   <si>
+    <t>EUR142000001</t>
+  </si>
+  <si>
     <t>BARCGB20</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>JPY</t>
   </si>
   <si>
+    <t>JPY142000001</t>
+  </si>
+  <si>
     <t>BOTKJPJ0</t>
   </si>
   <si>
@@ -331,9 +340,6 @@
   </si>
   <si>
     <t>Nm8</t>
-  </si>
-  <si>
-    <t>JPY142000001</t>
   </si>
   <si>
     <t>Nm9</t>
@@ -1574,8 +1580,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N11"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1823,8 +1829,8 @@
       <c r="C4" s="9">
         <v>662002</v>
       </c>
-      <c r="D4" s="10">
-        <v>15000001451</v>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>38</v>
@@ -1833,10 +1839,10 @@
         <v>564000165</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
@@ -1851,14 +1857,14 @@
       <c r="M4" s="10">
         <v>123458</v>
       </c>
-      <c r="N4" s="10">
-        <v>15000001451</v>
+      <c r="N4" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="10">
         <v>23456</v>
@@ -1874,7 +1880,7 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="10" t="s">
         <v>33</v>
@@ -1883,7 +1889,7 @@
     <row r="5" s="7" customFormat="1" spans="1:25">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="9">
         <v>662003</v>
@@ -1892,7 +1898,7 @@
         <v>11021200638</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="9">
         <v>564000165</v>
@@ -1920,10 +1926,10 @@
         <v>11021200638</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="9">
         <v>23456</v>
@@ -1941,23 +1947,23 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="9"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9">
         <v>662004</v>
       </c>
-      <c r="D6" s="10">
-        <v>15000001532</v>
+      <c r="D6" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="10">
         <v>564000165</v>
@@ -1966,7 +1972,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10" t="s">
@@ -1981,14 +1987,14 @@
       <c r="M6" s="10">
         <v>123456</v>
       </c>
-      <c r="N6" s="10">
-        <v>15000001532</v>
+      <c r="N6" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="10">
         <v>23456</v>
@@ -2004,18 +2010,18 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
       <c r="A7" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="9">
         <v>662005</v>
@@ -2024,7 +2030,7 @@
         <v>15000001591</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9">
         <v>564000165</v>
@@ -2052,10 +2058,10 @@
         <v>15000001591</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="9">
         <v>23456</v>
@@ -2071,16 +2077,16 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y7" s="9"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
       <c r="A8" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="9">
         <v>662006</v>
@@ -2089,7 +2095,7 @@
         <v>15000001729</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F8" s="9">
         <v>564000166</v>
@@ -2117,10 +2123,10 @@
         <v>15000001729</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="9">
         <v>23456</v>
@@ -2136,16 +2142,16 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Y8" s="9"/>
     </row>
     <row r="9" s="7" customFormat="1" spans="1:25">
       <c r="A9" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="9">
         <v>662007</v>
@@ -2154,7 +2160,7 @@
         <v>11021212547</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" s="9">
         <v>564000167</v>
@@ -2163,7 +2169,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
@@ -2182,10 +2188,10 @@
         <v>11021212547</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="9">
         <v>23456</v>
@@ -2203,25 +2209,25 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y9" s="9"/>
     </row>
     <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
       <c r="A10" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="9">
         <v>662008</v>
       </c>
-      <c r="D10" s="10">
-        <v>15000001877</v>
+      <c r="D10" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="10">
         <v>564000168</v>
@@ -2230,7 +2236,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
@@ -2245,14 +2251,14 @@
       <c r="M10" s="10">
         <v>123456</v>
       </c>
-      <c r="N10" s="10">
-        <v>15000001877</v>
+      <c r="N10" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="10">
         <v>23456</v>
@@ -2268,27 +2274,27 @@
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
       <c r="X10" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
       <c r="A11" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9">
         <v>2100005</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" s="9">
         <v>564000169</v>
@@ -2297,7 +2303,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9" t="s">
@@ -2313,13 +2319,13 @@
         <v>123456</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9">
         <v>23456</v>
@@ -2335,7 +2341,7 @@
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Y11" s="9"/>
     </row>
@@ -2377,7 +2383,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2392,34 +2398,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2442,22 +2448,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2471,34 +2477,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2512,34 +2518,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2547,26 +2553,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2574,231 +2580,231 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="108">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -153,33 +153,39 @@
     <t>Name3</t>
   </si>
   <si>
+    <t>DEBT</t>
+  </si>
+  <si>
+    <t>address3</t>
+  </si>
+  <si>
+    <t>HASEHKH0</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>CNY142000001</t>
+  </si>
+  <si>
+    <t>FINAL REGRESSION COMPANY PL</t>
+  </si>
+  <si>
+    <t>30 SENOKO CRESCENT</t>
+  </si>
+  <si>
+    <t>ICBKCNB0</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>EUR142000001</t>
+  </si>
+  <si>
     <t>CRED</t>
   </si>
   <si>
-    <t>address3</t>
-  </si>
-  <si>
-    <t>MRMDUS30</t>
-  </si>
-  <si>
-    <t>CNY</t>
-  </si>
-  <si>
-    <t>FINAL REGRESSION COMPANY PL</t>
-  </si>
-  <si>
-    <t>30 SENOKO CRESCENT</t>
-  </si>
-  <si>
-    <t>ICBKCNB0</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>EUR142000001</t>
-  </si>
-  <si>
     <t>BARCGB20</t>
   </si>
   <si>
@@ -210,6 +216,15 @@
     <t>GBP</t>
   </si>
   <si>
+    <t>GBP142000001</t>
+  </si>
+  <si>
+    <t>LOYDGB20</t>
+  </si>
+  <si>
+    <t>BARCUS30</t>
+  </si>
+  <si>
     <t>SMBCJPJ0</t>
   </si>
   <si>
@@ -300,9 +315,6 @@
     <t>Nm3</t>
   </si>
   <si>
-    <t>HASEHKH0</t>
-  </si>
-  <si>
     <t>EUR140200001</t>
   </si>
   <si>
@@ -331,12 +343,6 @@
   </si>
   <si>
     <t>Nm7</t>
-  </si>
-  <si>
-    <t>GBP142000001</t>
-  </si>
-  <si>
-    <t>LOYDGB20</t>
   </si>
   <si>
     <t>Nm8</t>
@@ -1008,7 +1014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,10 +1042,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1580,8 +1598,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1683,667 +1701,669 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="11">
         <v>662000</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
         <v>15000000811</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="11">
         <v>564000165</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="11">
         <v>123456</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="11">
         <v>15000000811</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="11">
         <v>23456</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9">
-        <v>662001</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="11">
+        <v>66200</v>
+      </c>
+      <c r="D3" s="11">
         <v>15000000986</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>564000165</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="11">
         <v>123457</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="11">
         <v>15000000986</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="11">
         <v>23456</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9">
-        <v>662002</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11">
+        <v>66201</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="12">
         <v>564000165</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="12">
         <v>123458</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="12">
         <v>23456</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="1:25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" s="8" customFormat="1" spans="1:25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="9">
-        <v>662003</v>
-      </c>
-      <c r="D5" s="9">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="11">
+        <v>66202</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="12"/>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="11">
+        <v>66203</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="13">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:25">
+      <c r="A7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="11">
+        <v>66204</v>
+      </c>
+      <c r="D7" s="14">
+        <v>15000001591</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="14">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M7" s="14">
         <v>123456</v>
       </c>
-      <c r="N5" s="9">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="9" t="s">
+      <c r="N7" s="14">
+        <v>15000001591</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="P7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="14">
         <v>23456</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9">
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="14"/>
+    </row>
+    <row r="8" s="10" customFormat="1" spans="1:25">
+      <c r="A8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="11">
+        <v>66205</v>
+      </c>
+      <c r="D8" s="14">
+        <v>15000001729</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="14">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="14">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="14">
+        <v>15000001729</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="1:25">
+      <c r="A9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="11">
+        <v>66206</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="12">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9" t="s">
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="11">
+        <v>66207</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="13">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="9"/>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9">
-        <v>662004</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="10" t="s">
+      <c r="Q10" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="9">
-        <v>662005</v>
-      </c>
-      <c r="D7" s="9">
-        <v>15000001591</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N7" s="9">
-        <v>15000001591</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y7" s="9"/>
-    </row>
-    <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="9">
-        <v>662006</v>
-      </c>
-      <c r="D8" s="9">
-        <v>15000001729</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="9">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N8" s="9">
-        <v>15000001729</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y8" s="9"/>
-    </row>
-    <row r="9" s="7" customFormat="1" spans="1:25">
-      <c r="A9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="9">
-        <v>662007</v>
-      </c>
-      <c r="D9" s="9">
-        <v>11021212547</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="9">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="9">
-        <v>11021212547</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9">
-        <v>11021162884</v>
-      </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" s="9"/>
-    </row>
-    <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="9">
-        <v>662008</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="10">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="10">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>64</v>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2100005</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="A11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11">
+        <v>66208</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="11">
         <v>564000169</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
+      <c r="H11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="11">
         <v>123456</v>
       </c>
-      <c r="N11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="9" t="s">
+      <c r="N11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="P11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="11">
         <v>23456</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y11" s="9"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2383,7 +2403,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2398,34 +2418,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2448,22 +2468,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2477,34 +2497,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2518,34 +2538,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2553,26 +2573,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2586,225 +2606,225 @@
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="105">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -147,9 +147,6 @@
     <t>HKD</t>
   </si>
   <si>
-    <t>HKD142000001</t>
-  </si>
-  <si>
     <t>Name3</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>CNY</t>
   </si>
   <si>
-    <t>CNY142000001</t>
-  </si>
-  <si>
     <t>FINAL REGRESSION COMPANY PL</t>
   </si>
   <si>
@@ -216,133 +210,130 @@
     <t>GBP</t>
   </si>
   <si>
+    <t>LOYDGB20</t>
+  </si>
+  <si>
+    <t>SMBCJPJ0</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>JPY142000001</t>
+  </si>
+  <si>
+    <t>BOTKJPJ0</t>
+  </si>
+  <si>
+    <t>BOJPJPJ0</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>PL52010</t>
+  </si>
+  <si>
+    <t>NORWNOK0</t>
+  </si>
+  <si>
+    <t>Instructed Agent BIC</t>
+  </si>
+  <si>
+    <t>Creditor Bic</t>
+  </si>
+  <si>
+    <t>下一个页面</t>
+  </si>
+  <si>
+    <t>Street Name2</t>
+  </si>
+  <si>
+    <t>Post Code2</t>
+  </si>
+  <si>
+    <t>Town Name3</t>
+  </si>
+  <si>
+    <t>Creditor Country3</t>
+  </si>
+  <si>
+    <t>Sender Reference</t>
+  </si>
+  <si>
+    <t>End To End Identification</t>
+  </si>
+  <si>
+    <t>SGD142000001</t>
+  </si>
+  <si>
+    <t>CITISGS0</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>NOSTRO</t>
+  </si>
+  <si>
+    <t>SCFBDE30</t>
+  </si>
+  <si>
+    <t>NOK142000001</t>
+  </si>
+  <si>
+    <t>New Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Nm2</t>
+  </si>
+  <si>
+    <t>USD140200001</t>
+  </si>
+  <si>
+    <t>New address</t>
+  </si>
+  <si>
+    <t>Nm3</t>
+  </si>
+  <si>
+    <t>EUR140200001</t>
+  </si>
+  <si>
+    <t>EBRDGB20</t>
+  </si>
+  <si>
+    <t>CNY140200001</t>
+  </si>
+  <si>
+    <t>CHBKPHM0</t>
+  </si>
+  <si>
+    <t>Nm5</t>
+  </si>
+  <si>
+    <t>AUD148050001</t>
+  </si>
+  <si>
+    <t>NATAAU30</t>
+  </si>
+  <si>
+    <t>AED148050001</t>
+  </si>
+  <si>
+    <t>NBADAEA0</t>
+  </si>
+  <si>
+    <t>Nm7</t>
+  </si>
+  <si>
     <t>GBP142000001</t>
-  </si>
-  <si>
-    <t>LOYDGB20</t>
-  </si>
-  <si>
-    <t>BARCUS30</t>
-  </si>
-  <si>
-    <t>SMBCJPJ0</t>
-  </si>
-  <si>
-    <t>JPY</t>
-  </si>
-  <si>
-    <t>JPY142000001</t>
-  </si>
-  <si>
-    <t>BOTKJPJ0</t>
-  </si>
-  <si>
-    <t>BOJPJPJ0</t>
-  </si>
-  <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>PL52010</t>
-  </si>
-  <si>
-    <t>NORWNOK0</t>
-  </si>
-  <si>
-    <t>Instructed Agent BIC</t>
-  </si>
-  <si>
-    <t>Creditor Bic</t>
-  </si>
-  <si>
-    <t>下一个页面</t>
-  </si>
-  <si>
-    <t>Street Name2</t>
-  </si>
-  <si>
-    <t>Post Code2</t>
-  </si>
-  <si>
-    <t>Town Name3</t>
-  </si>
-  <si>
-    <t>Creditor Country3</t>
-  </si>
-  <si>
-    <t>Sender Reference</t>
-  </si>
-  <si>
-    <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>SGD142000001</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>lei</t>
-  </si>
-  <si>
-    <t>NOSTRO</t>
-  </si>
-  <si>
-    <t>SCFBDE30</t>
-  </si>
-  <si>
-    <t>NOK142000001</t>
-  </si>
-  <si>
-    <t>New Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Nm2</t>
-  </si>
-  <si>
-    <t>USD140200001</t>
-  </si>
-  <si>
-    <t>New address</t>
-  </si>
-  <si>
-    <t>Nm3</t>
-  </si>
-  <si>
-    <t>EUR140200001</t>
-  </si>
-  <si>
-    <t>EBRDGB20</t>
-  </si>
-  <si>
-    <t>CNY140200001</t>
-  </si>
-  <si>
-    <t>CHBKPHM0</t>
-  </si>
-  <si>
-    <t>Nm5</t>
-  </si>
-  <si>
-    <t>AUD148050001</t>
-  </si>
-  <si>
-    <t>NATAAU30</t>
-  </si>
-  <si>
-    <t>AED148050001</t>
-  </si>
-  <si>
-    <t>NBADAEA0</t>
-  </si>
-  <si>
-    <t>Nm7</t>
   </si>
   <si>
     <t>Nm8</t>
@@ -1014,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,22 +1033,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1598,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1701,669 +1680,665 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>662000</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>15000000811</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>564000165</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <v>123456</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="9">
         <v>15000000811</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="9">
         <v>23456</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>66200</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>15000000986</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>564000165</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>123457</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <v>15000000986</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>23456</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>66201</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10">
+        <v>15000001486</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="12">
-        <v>564000165</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="10">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="10">
+        <v>15000001486</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="Q4" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="12">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="12" t="s">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="12">
-        <v>23456</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>33</v>
-      </c>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9">
+        <v>66202</v>
+      </c>
+      <c r="D5" s="10">
+        <v>15000001494</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="10">
+        <v>15000001494</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="11">
-        <v>66202</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="P5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="Q5" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="10"/>
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="9">
+        <v>66203</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="9">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="12">
+      <c r="P6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:25">
+      <c r="A7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="9">
+        <v>66204</v>
+      </c>
+      <c r="D7" s="9">
+        <v>15000001591</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="9">
         <v>564000165</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="H7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M7" s="9">
         <v>123456</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N7" s="9">
+        <v>15000001591</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="12">
+      <c r="Q7" s="9">
         <v>23456</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="12"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="9"/>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="11">
-        <v>66203</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="13">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="13" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:25">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9">
+        <v>66205</v>
+      </c>
+      <c r="D8" s="9">
+        <v>15000001729</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="9">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="H8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M8" s="9">
         <v>123456</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="13">
+      <c r="N8" s="9">
+        <v>15000001729</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="9">
         <v>23456</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:25">
-      <c r="A7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="11">
-        <v>66204</v>
-      </c>
-      <c r="D7" s="14">
-        <v>15000001591</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="14">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N7" s="14">
-        <v>15000001591</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" s="14"/>
-    </row>
-    <row r="8" s="10" customFormat="1" spans="1:25">
-      <c r="A8" s="14" t="s">
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="11">
-        <v>66205</v>
-      </c>
-      <c r="D8" s="14">
-        <v>15000001729</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="14">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N8" s="14">
-        <v>15000001729</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" s="14"/>
+      <c r="Y8" s="9"/>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9">
+        <v>66206</v>
+      </c>
+      <c r="D9" s="10">
+        <v>15000001826</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="10">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N9" s="10">
+        <v>15000001826</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
+        <v>11021162884</v>
+      </c>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="Y9" s="10"/>
+    </row>
+    <row r="10" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="11">
-        <v>66206</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="12">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="C10" s="9">
+        <v>66207</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="9">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="H10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M10" s="9">
         <v>123456</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="12">
+      <c r="N10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="9">
         <v>23456</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
-        <v>11021162884</v>
-      </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y9" s="12" t="s">
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="13" t="s">
+      <c r="Y10" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="11">
-        <v>66207</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="13">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="13">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="13">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="A11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="9">
         <v>66208</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="D11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="9">
         <v>564000169</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <v>123456</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="11">
+      <c r="N11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="9">
         <v>23456</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y11" s="11"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2403,7 +2378,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2418,34 +2393,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2468,22 +2443,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2497,34 +2472,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2538,34 +2513,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2573,26 +2548,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2600,231 +2575,231 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="105">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -147,6 +147,9 @@
     <t>HKD</t>
   </si>
   <si>
+    <t>PL52010</t>
+  </si>
+  <si>
     <t>Name3</t>
   </si>
   <si>
@@ -232,9 +235,6 @@
   </si>
   <si>
     <t>NOK</t>
-  </si>
-  <si>
-    <t>PL52010</t>
   </si>
   <si>
     <t>NORWNOK0</t>
@@ -1577,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1824,10 +1824,10 @@
         <v>38</v>
       </c>
       <c r="C4" s="9">
-        <v>66201</v>
-      </c>
-      <c r="D4" s="10">
-        <v>15000001486</v>
+        <v>66211</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>38</v>
@@ -1836,10 +1836,10 @@
         <v>564000165</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10" t="s">
@@ -1854,14 +1854,14 @@
       <c r="M4" s="10">
         <v>123458</v>
       </c>
-      <c r="N4" s="10">
-        <v>15000001486</v>
+      <c r="N4" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="10">
         <v>23456</v>
@@ -1877,23 +1877,23 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y4" s="10"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="9">
-        <v>66202</v>
-      </c>
-      <c r="D5" s="10">
-        <v>15000001494</v>
+        <v>66212</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="10">
         <v>564000165</v>
@@ -1902,7 +1902,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
@@ -1917,14 +1917,14 @@
       <c r="M5" s="10">
         <v>123456</v>
       </c>
-      <c r="N5" s="10">
-        <v>15000001494</v>
+      <c r="N5" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="10">
         <v>23456</v>
@@ -1942,23 +1942,23 @@
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="10"/>
     </row>
     <row r="6" s="7" customFormat="1" spans="1:25">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9">
-        <v>66203</v>
+        <v>66213</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="F6" s="9">
         <v>564000165</v>
@@ -1967,7 +1967,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
@@ -1983,13 +1983,13 @@
         <v>123456</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="9">
         <v>23456</v>
@@ -2005,27 +2005,27 @@
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="9">
-        <v>66204</v>
+        <v>66214</v>
       </c>
       <c r="D7" s="9">
         <v>15000001591</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" s="9">
         <v>564000165</v>
@@ -2053,10 +2053,10 @@
         <v>15000001591</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="9">
         <v>23456</v>
@@ -2072,25 +2072,25 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="9"/>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
       <c r="A8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="9">
-        <v>66205</v>
+        <v>66215</v>
       </c>
       <c r="D8" s="9">
         <v>15000001729</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="9">
         <v>564000166</v>
@@ -2118,10 +2118,10 @@
         <v>15000001729</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="9">
         <v>23456</v>
@@ -2137,25 +2137,25 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y8" s="9"/>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:25">
       <c r="A9" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="9">
-        <v>66206</v>
-      </c>
-      <c r="D9" s="10">
-        <v>15000001826</v>
+        <v>66216</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="10">
         <v>564000167</v>
@@ -2164,7 +2164,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
@@ -2179,14 +2179,14 @@
       <c r="M9" s="10">
         <v>123456</v>
       </c>
-      <c r="N9" s="10">
-        <v>15000001826</v>
+      <c r="N9" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="10">
         <v>23456</v>
@@ -2204,25 +2204,25 @@
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
       <c r="X9" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y9" s="10"/>
     </row>
     <row r="10" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
       <c r="A10" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="9">
-        <v>66207</v>
+        <v>66217</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="F10" s="9">
         <v>564000168</v>
@@ -2231,7 +2231,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
@@ -2247,13 +2247,13 @@
         <v>123456</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="9">
         <v>23456</v>
@@ -2269,27 +2269,27 @@
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
       <c r="A11" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="9">
-        <v>66208</v>
+        <v>66218</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="F11" s="9">
         <v>564000169</v>
@@ -2298,7 +2298,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9" t="s">
@@ -2314,13 +2314,13 @@
         <v>123456</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="9">
         <v>23456</v>
@@ -2540,7 +2540,7 @@
         <v>82</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2548,7 +2548,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>370003</v>
@@ -2575,7 +2575,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>370004</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>370005</v>
@@ -2640,10 +2640,10 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
@@ -2696,7 +2696,7 @@
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>85</v>
@@ -2717,21 +2717,21 @@
         <v>82</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="106">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -111,6 +111,9 @@
     <t>SGD</t>
   </si>
   <si>
+    <t>SGD142000001</t>
+  </si>
+  <si>
     <t>Name2</t>
   </si>
   <si>
@@ -129,19 +132,16 @@
     <t>teste</t>
   </si>
   <si>
-    <t>HSBCHKH0</t>
-  </si>
-  <si>
-    <t>HSBCSGS0XXX</t>
+    <t>MRMDUS30</t>
+  </si>
+  <si>
+    <t>IRVTSGS0</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>DEUTSGS0</t>
-  </si>
-  <si>
-    <t>DEHCUS30XXX</t>
+    <t>USD142000001</t>
   </si>
   <si>
     <t>HKD</t>
@@ -195,6 +195,9 @@
     <t>AUD</t>
   </si>
   <si>
+    <t>AUD142000001</t>
+  </si>
+  <si>
     <t>WPACAU20</t>
   </si>
   <si>
@@ -204,9 +207,15 @@
     <t>AED</t>
   </si>
   <si>
+    <t>AED142000001</t>
+  </si>
+  <si>
     <t>ARABJOA0</t>
   </si>
   <si>
+    <t>CBAUAEA0</t>
+  </si>
+  <si>
     <t>CHASSGS0</t>
   </si>
   <si>
@@ -231,9 +240,6 @@
     <t>BOJPJPJ0</t>
   </si>
   <si>
-    <t>IRVTSGS0</t>
-  </si>
-  <si>
     <t>NOK</t>
   </si>
   <si>
@@ -265,9 +271,6 @@
   </si>
   <si>
     <t>End To End Identification</t>
-  </si>
-  <si>
-    <t>SGD142000001</t>
   </si>
   <si>
     <t>CITISGS0</t>
@@ -1005,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,16 +1030,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1578,7 +1590,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1680,665 +1692,669 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>662000</v>
       </c>
-      <c r="D2" s="9">
-        <v>15000000811</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N2" s="9">
-        <v>15000000811</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>23456</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y2" s="9" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10" t="s">
         <v>34</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="10">
+        <v>666200</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="10">
+        <v>123457</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9">
-        <v>66200</v>
-      </c>
-      <c r="D3" s="9">
-        <v>15000000986</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="9">
-        <v>123457</v>
-      </c>
-      <c r="N3" s="9">
-        <v>15000000986</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>37</v>
+      <c r="Y3" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="12">
         <v>66211</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>564000165</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="10">
+      <c r="L4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="11">
         <v>123458</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="11">
         <v>23456</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10" t="s">
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="11"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="12">
         <v>66212</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>564000165</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="11">
         <v>123456</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="11">
         <v>23456</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="11"/>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="13">
+        <v>66213</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="13">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="10"/>
-    </row>
-    <row r="6" s="7" customFormat="1" spans="1:25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="9">
-        <v>66213</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="L6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="13">
         <v>23456</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9" t="s">
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9">
-        <v>66214</v>
-      </c>
-      <c r="D7" s="9">
-        <v>15000001591</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="10">
+        <v>1666214</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>564000165</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="9">
+      <c r="L7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="10">
         <v>123456</v>
       </c>
-      <c r="N7" s="9">
-        <v>15000001591</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="10">
         <v>23456</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" s="9"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="9">
-        <v>66215</v>
-      </c>
-      <c r="D8" s="9">
-        <v>15000001729</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1666215</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10">
         <v>564000166</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="9">
+      <c r="L8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="10">
         <v>123456</v>
       </c>
-      <c r="N8" s="9">
-        <v>15000001729</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="N8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="10">
         <v>23456</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y8" s="9"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="A9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="12">
         <v>66216</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="11">
         <v>564000167</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="10" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="10">
+      <c r="L9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="11">
         <v>123456</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="11">
         <v>23456</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="T9" s="11"/>
+      <c r="U9" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="11"/>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="13">
+        <v>66217</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="13">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10">
-        <v>11021162884</v>
-      </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y9" s="10"/>
+      <c r="L10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="13">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="10" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="9">
-        <v>66217</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="9">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="9" t="s">
+    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="13">
+        <v>66218</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="13">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="9" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="K11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="9">
+      <c r="L11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="13">
         <v>123456</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="N11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q11" s="13">
         <v>23456</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="9">
-        <v>66218</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="9">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y11" s="9"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y11" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2378,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2393,34 +2409,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2443,22 +2459,22 @@
         <v>70000</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2466,40 +2482,40 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1">
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2513,31 +2529,31 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>43</v>
@@ -2554,20 +2570,20 @@
         <v>370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2581,34 +2597,34 @@
         <v>370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2622,184 +2638,184 @@
         <v>370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2">
         <v>370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -1008,7 +1008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,16 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1692,669 +1683,669 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>662000</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <v>123456</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>666200</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>564000165</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>123457</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>23456</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>66211</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>564000165</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>123458</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>23456</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="11"/>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>66212</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>564000165</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>123456</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>23456</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="11"/>
+      <c r="Y5" s="10"/>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" s="8" customFormat="1" spans="1:25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>66213</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>564000165</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="10">
         <v>123456</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="10">
         <v>23456</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>1666214</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>564000165</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>123456</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>23456</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y7" s="10" t="s">
+      <c r="Y7" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>1666215</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>564000166</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>123456</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>23456</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10" t="s">
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Y8" s="10" t="s">
+      <c r="Y8" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>66216</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>564000167</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>123456</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>23456</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11" t="s">
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="11"/>
+      <c r="Y9" s="10"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="13" t="s">
+    <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>66217</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>564000168</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="10">
         <v>123456</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="10">
         <v>23456</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13" t="s">
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="Y10" s="13" t="s">
+      <c r="Y10" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="13" t="s">
+    <row r="11" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>66218</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>564000169</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="10">
         <v>123456</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="10">
         <v>23456</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13" t="s">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Y11" s="13"/>
+      <c r="Y11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2368,7 +2359,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2567,7 +2558,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="2">
-        <v>370003</v>
+        <v>1370003</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>92</v>
@@ -2594,7 +2585,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="2">
-        <v>370004</v>
+        <v>1370004</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>94</v>
@@ -2635,7 +2626,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="2">
-        <v>370005</v>
+        <v>1370005</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>97</v>
@@ -2662,7 +2653,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="2">
-        <v>370006</v>
+        <v>1370006</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>99</v>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="107">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -171,7 +171,10 @@
     <t>30 SENOKO CRESCENT</t>
   </si>
   <si>
-    <t>ICBKCNB0</t>
+    <t>KWHKHKH0</t>
+  </si>
+  <si>
+    <t>BKCHCNB0</t>
   </si>
   <si>
     <t>EUR</t>
@@ -195,10 +198,7 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>AUD142000001</t>
-  </si>
-  <si>
-    <t>WPACAU20</t>
+    <t>ANZBSGS0</t>
   </si>
   <si>
     <t>EBILAEA0</t>
@@ -243,7 +243,10 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>NORWNOK0</t>
+    <t>OCBCSGS0</t>
+  </si>
+  <si>
+    <t>NBHKNOK0</t>
   </si>
   <si>
     <t>Instructed Agent BIC</t>
@@ -1008,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,10 +1033,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,8 +1595,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1683,669 +1698,677 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="11">
         <v>662000</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="11">
         <v>564000165</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="11">
         <v>123456</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="11">
         <v>23456</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="11">
         <v>666200</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>564000165</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="11">
         <v>123457</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="11">
         <v>23456</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="12">
         <v>66211</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="12">
         <v>564000165</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="12">
         <v>123458</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="12">
         <v>23456</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="10"/>
+      <c r="Y4" s="12"/>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <v>66212</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="13">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="13">
         <v>564000165</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="13">
         <v>123456</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="13">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="13">
         <v>23456</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10" t="s">
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="10"/>
+      <c r="Y5" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="12">
         <v>66213</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="F6" s="12">
         <v>564000165</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="12">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="O6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:25">
+      <c r="A7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="13">
+        <v>666214</v>
+      </c>
+      <c r="D7" s="13">
+        <v>11021209775</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="13">
+        <v>564000165</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M7" s="13">
         <v>123456</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="N7" s="13">
+        <v>11021209775</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q7" s="13">
         <v>23456</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="1:25">
-      <c r="A7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="T7" s="13"/>
+      <c r="U7" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1666214</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="11">
         <v>1666215</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="11">
         <v>564000166</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="11">
         <v>123456</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="11">
         <v>23456</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9" t="s">
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Y8" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="10" t="s">
+    <row r="9" s="10" customFormat="1" spans="1:25">
+      <c r="A9" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="14">
         <v>66216</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="14">
         <v>564000167</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="14">
         <v>123456</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="P9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="14">
         <v>23456</v>
       </c>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10">
+      <c r="T9" s="14"/>
+      <c r="U9" s="14">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10" t="s">
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="14"/>
     </row>
-    <row r="10" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="10" t="s">
+    <row r="10" s="10" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="14">
         <v>66217</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="14">
         <v>564000168</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="14">
         <v>123456</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="14">
         <v>23456</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="10" t="s">
+    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="13">
         <v>66218</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="13">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="13">
         <v>564000169</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="H11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="13">
         <v>123456</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="13">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="13">
         <v>23456</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10" t="s">
+      <c r="T11" s="13"/>
+      <c r="U11" s="13">
+        <v>11021162884</v>
+      </c>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2385,7 +2408,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2400,34 +2423,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2456,16 +2479,16 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2479,34 +2502,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2520,31 +2543,31 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>43</v>
@@ -2555,26 +2578,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>1370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2588,61 +2611,61 @@
         <v>1370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>1370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
@@ -2656,34 +2679,34 @@
         <v>1370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
@@ -2697,7 +2720,7 @@
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
@@ -2706,22 +2729,22 @@
         <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>64</v>
@@ -2744,28 +2767,28 @@
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
@@ -2779,34 +2802,34 @@
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -198,7 +198,7 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>ANZBSGS0</t>
+    <t>CTBAAU20</t>
   </si>
   <si>
     <t>EBILAEA0</t>
@@ -207,13 +207,7 @@
     <t>AED</t>
   </si>
   <si>
-    <t>AED142000001</t>
-  </si>
-  <si>
-    <t>ARABJOA0</t>
-  </si>
-  <si>
-    <t>CBAUAEA0</t>
+    <t>QNBAQAQ0</t>
   </si>
   <si>
     <t>CHASSGS0</t>
@@ -1011,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,25 +1030,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1595,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1698,676 +1680,674 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>662000</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>564000165</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <v>123456</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="9">
         <v>23456</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>666200</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>564000165</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>123457</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>23456</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>66211</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>564000165</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="9">
         <v>123458</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="9">
         <v>23456</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="9"/>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" s="7" customFormat="1" spans="1:25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="9">
         <v>66212</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="9">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>564000165</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="9">
         <v>123456</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="9">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="9">
         <v>23456</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13">
+      <c r="T5" s="9"/>
+      <c r="U5" s="9">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13" t="s">
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" spans="1:25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>66213</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>564000165</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="9">
         <v>123456</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="9">
         <v>23456</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="R6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="S6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Y6" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:25">
-      <c r="A7" s="13" t="s">
+    <row r="7" s="8" customFormat="1" spans="1:25">
+      <c r="A7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="13">
-        <v>666214</v>
-      </c>
-      <c r="D7" s="13">
-        <v>11021209775</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="C7" s="10">
+        <v>66621</v>
+      </c>
+      <c r="D7" s="10">
+        <v>11010006320</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>564000165</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="10">
         <v>123456</v>
       </c>
-      <c r="N7" s="13">
-        <v>11021209775</v>
-      </c>
-      <c r="O7" s="13" t="s">
+      <c r="N7" s="10">
+        <v>11010006320</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="10">
         <v>23456</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="13" t="s">
+      <c r="S7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13">
+      <c r="T7" s="10"/>
+      <c r="U7" s="10">
+        <v>11010006320</v>
+      </c>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:25">
+      <c r="A8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="10">
+        <v>66621</v>
+      </c>
+      <c r="D8" s="10">
+        <v>11010006762</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N8" s="10">
+        <v>11010006762</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10">
+        <v>11010006762</v>
+      </c>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" s="7" customFormat="1" spans="1:25">
+      <c r="A9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="9">
+        <v>66216</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="9">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="9">
+        <v>123456</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>23456</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9">
         <v>11021162884</v>
       </c>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" s="9"/>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:25">
-      <c r="A8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1666215</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="11">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="11" t="s">
+    <row r="10" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="9">
+        <v>66217</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="9">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="H10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M10" s="9">
         <v>123456</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="11" t="s">
+      <c r="N10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q10" s="9">
         <v>23456</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>61</v>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="1" spans="1:25">
-      <c r="A9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="14">
-        <v>66216</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="14">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="14" t="s">
+    <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="9">
+        <v>66218</v>
+      </c>
+      <c r="D11" s="9">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="9">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M11" s="9">
         <v>123456</v>
       </c>
-      <c r="N9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="14" t="s">
+      <c r="N11" s="9">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q11" s="9">
         <v>23456</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14">
+      <c r="T11" s="9"/>
+      <c r="U11" s="9">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="14"/>
-    </row>
-    <row r="10" s="10" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="14">
-        <v>66217</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="14">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="14">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y10" s="14" t="s">
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="Y11" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C11" s="13">
-        <v>66218</v>
-      </c>
-      <c r="D11" s="13">
-        <v>11021223115</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="13">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="13">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="13">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13">
-        <v>11021162884</v>
-      </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2423,34 +2403,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2479,16 +2459,16 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" t="s">
         <v>82</v>
       </c>
-      <c r="G2" t="s">
+      <c r="R2" t="s">
         <v>83</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2502,34 +2482,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2543,31 +2523,31 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>43</v>
@@ -2584,20 +2564,20 @@
         <v>1370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2611,34 +2591,34 @@
         <v>1370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
@@ -2652,20 +2632,20 @@
         <v>1370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
@@ -2679,116 +2659,116 @@
         <v>1370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
@@ -2796,40 +2776,40 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="104">
   <si>
     <t>Instructed Agent Bic</t>
   </si>
@@ -147,9 +147,6 @@
     <t>HKD</t>
   </si>
   <si>
-    <t>PL52010</t>
-  </si>
-  <si>
     <t>Name3</t>
   </si>
   <si>
@@ -171,7 +168,7 @@
     <t>30 SENOKO CRESCENT</t>
   </si>
   <si>
-    <t>KWHKHKH0</t>
+    <t>ICBKCNB0</t>
   </si>
   <si>
     <t>BKCHCNB0</t>
@@ -1005,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,10 +1030,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1577,8 +1580,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1680,674 +1683,676 @@
       <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>662000</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>564000165</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="10">
         <v>123456</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>23456</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>666200</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>564000165</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="10">
         <v>123457</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="10">
         <v>23456</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" s="8" customFormat="1" spans="1:25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>66211</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11">
+        <v>11021200646</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="11">
+        <v>564000165</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="H4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="11">
+        <v>123458</v>
+      </c>
+      <c r="N4" s="11">
+        <v>11021200646</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>23456</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="11"/>
+    </row>
+    <row r="5" s="8" customFormat="1" spans="1:25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="11">
+        <v>66212</v>
+      </c>
+      <c r="D5" s="11">
+        <v>11021200638</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="11">
         <v>564000165</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="9">
-        <v>123458</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="9">
+      <c r="M5" s="11">
+        <v>123456</v>
+      </c>
+      <c r="N5" s="11">
+        <v>11021200638</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="11">
         <v>23456</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="9"/>
-    </row>
-    <row r="5" s="7" customFormat="1" spans="1:25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="9">
-        <v>66212</v>
-      </c>
-      <c r="D5" s="9">
-        <v>11021200638</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="9">
-        <v>564000165</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N5" s="9">
-        <v>11021200638</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="9" t="s">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9">
-        <v>11021162884</v>
-      </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9" t="s">
+      <c r="Y5" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" spans="1:25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="10">
+        <v>66213</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="9">
-        <v>66213</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10">
+        <v>564000165</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="9">
+      <c r="O6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:25">
+      <c r="A7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="12">
+        <v>66621</v>
+      </c>
+      <c r="D7" s="12">
+        <v>11010006320</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="12">
         <v>564000165</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="H7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M7" s="12">
         <v>123456</v>
       </c>
-      <c r="N6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="N7" s="12">
+        <v>11010006320</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="9">
+      <c r="Q7" s="12">
         <v>23456</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12">
+        <v>11010006320</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="12"/>
     </row>
-    <row r="7" s="8" customFormat="1" spans="1:25">
-      <c r="A7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="10">
+    <row r="8" s="9" customFormat="1" spans="1:25">
+      <c r="A8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="12">
         <v>66621</v>
       </c>
-      <c r="D7" s="10">
-        <v>11010006320</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="10">
-        <v>564000165</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="D8" s="12">
+        <v>11010006762</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="12">
+        <v>564000166</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="H8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M8" s="12">
         <v>123456</v>
       </c>
-      <c r="N7" s="10">
-        <v>11010006320</v>
-      </c>
-      <c r="O7" s="10" t="s">
+      <c r="N8" s="12">
+        <v>11010006762</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" s="10">
+      <c r="Q8" s="12">
         <v>23456</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="R8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="S8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10">
-        <v>11010006320</v>
-      </c>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y7" s="10"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12">
+        <v>11010006762</v>
+      </c>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" s="12"/>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:25">
-      <c r="A8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="10">
-        <v>66621</v>
-      </c>
-      <c r="D8" s="10">
-        <v>11010006762</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="10">
-        <v>564000166</v>
-      </c>
-      <c r="G8" s="10" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:25">
+      <c r="A9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="11">
+        <v>66216</v>
+      </c>
+      <c r="D9" s="11">
+        <v>11021212547</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="11">
+        <v>564000167</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
+      <c r="H9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M9" s="11">
         <v>123456</v>
       </c>
-      <c r="N8" s="10">
-        <v>11010006762</v>
-      </c>
-      <c r="O8" s="10" t="s">
+      <c r="N9" s="11">
+        <v>11021212547</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="10">
+      <c r="Q9" s="11">
         <v>23456</v>
       </c>
-      <c r="R8" s="10" t="s">
+      <c r="R9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10">
-        <v>11010006762</v>
-      </c>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y8" s="10"/>
-    </row>
-    <row r="9" s="7" customFormat="1" spans="1:25">
-      <c r="A9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="T9" s="11"/>
+      <c r="U9" s="11">
+        <v>11021162884</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="9">
-        <v>66216</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="9">
-        <v>564000167</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9">
-        <v>11021162884</v>
-      </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" s="9"/>
+      <c r="Y9" s="11"/>
     </row>
     <row r="10" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="10">
+        <v>66217</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="9">
-        <v>66217</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="10">
+        <v>564000168</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="9">
-        <v>564000168</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9" t="s">
+      <c r="Y10" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="10">
+        <v>66218</v>
+      </c>
+      <c r="D11" s="10">
+        <v>11021223115</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="10">
+        <v>564000169</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="10">
+        <v>123456</v>
+      </c>
+      <c r="N11" s="10">
+        <v>11021223115</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>23456</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10">
+        <v>11021162884</v>
+      </c>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="9">
-        <v>66218</v>
-      </c>
-      <c r="D11" s="9">
-        <v>11021223115</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="9">
-        <v>564000169</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="9">
-        <v>123456</v>
-      </c>
-      <c r="N11" s="9">
-        <v>11021223115</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>23456</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9">
-        <v>11021162884</v>
-      </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9" t="s">
+      <c r="Y11" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2393,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2403,34 +2408,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>21</v>
@@ -2459,16 +2464,16 @@
         <v>564000165</v>
       </c>
       <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>82</v>
-      </c>
-      <c r="R2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:18">
@@ -2482,34 +2487,34 @@
         <v>10002</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1">
         <v>564000166</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="J3" s="1">
         <v>123544</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
@@ -2523,34 +2528,34 @@
         <v>10003</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1">
         <v>564000167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1">
         <v>123545</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:18">
@@ -2558,26 +2563,26 @@
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>1370003</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1">
         <v>564000168</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2"/>
       <c r="Q5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:18">
@@ -2585,190 +2590,190 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>1370004</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1">
         <v>564000169</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2">
         <v>123547</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:18">
       <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>1370005</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="1">
         <v>564000170</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2"/>
       <c r="Q7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:18">
       <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="C8" s="2">
         <v>1370006</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1">
         <v>564000171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2">
         <v>123549</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C9" s="1">
         <v>370007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="1">
         <v>564000172</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1">
         <v>123550</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:18">
       <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C10" s="1">
         <v>10004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1">
         <v>564000173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1">
         <v>123551</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:18">
@@ -2776,40 +2781,40 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1">
         <v>10002</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
         <v>564000166</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="J11" s="1">
         <v>123544</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_Customer" sheetId="1" r:id="rId1"/>
@@ -1012,12 +1012,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1030,16 +1036,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1580,8 +1580,8 @@
   <sheetPr/>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1611,747 +1611,747 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="1:25">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:25">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>662000</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="11">
         <v>564000165</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="11">
         <v>123456</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="11">
         <v>23456</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:25">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:25">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>666200</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>564000165</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="11">
         <v>123457</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="11">
         <v>23456</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" spans="1:25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" s="10" customFormat="1" spans="1:25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>66211</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="12">
         <v>564000165</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="12">
         <v>123458</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="12">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="12">
         <v>23456</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="11"/>
+      <c r="Y4" s="12"/>
     </row>
-    <row r="5" s="8" customFormat="1" spans="1:25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" s="10" customFormat="1" spans="1:25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>66212</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>564000165</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>123456</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="12">
         <v>23456</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
+      <c r="T5" s="12"/>
+      <c r="U5" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" spans="1:25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" s="9" customFormat="1" spans="1:25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>66213</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>564000165</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="11">
         <v>123456</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="11">
         <v>23456</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10" t="s">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" spans="1:25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>66621</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>11010006320</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>564000165</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>123456</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>11010006320</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>23456</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="S7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11">
         <v>11010006320</v>
       </c>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12" t="s">
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="12"/>
+      <c r="Y7" s="11"/>
     </row>
     <row r="8" s="9" customFormat="1" spans="1:25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>66621</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>11010006762</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>564000166</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>123456</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>11010006762</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>23456</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12">
+      <c r="T8" s="11"/>
+      <c r="U8" s="11">
         <v>11010006762</v>
       </c>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12" t="s">
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y8" s="12"/>
+      <c r="Y8" s="11"/>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:25">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="10" customFormat="1" spans="1:25">
+      <c r="A9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>66216</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>564000167</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="12">
         <v>123456</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="12">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="12">
         <v>23456</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11">
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11" t="s">
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" s="11"/>
+      <c r="Y9" s="12"/>
     </row>
-    <row r="10" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="10" t="s">
+    <row r="10" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="11">
         <v>66217</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="11">
         <v>564000168</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="11">
         <v>123456</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="10" t="s">
+      <c r="P10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="11">
         <v>23456</v>
       </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="10" t="s">
+      <c r="S10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10" t="s">
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Y10" s="10" t="s">
+      <c r="Y10" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="10" t="s">
+    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>66218</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="11">
         <v>564000169</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="11">
         <v>123456</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="11">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="10" t="s">
+      <c r="P11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="11">
         <v>23456</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10">
+      <c r="T11" s="11"/>
+      <c r="U11" s="11">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10" t="s">
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Y11" s="10" t="s">
+      <c r="Y11" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2366,8 +2366,8 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2392,58 +2392,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2517,303 +2517,303 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13" customHeight="1" spans="1:18">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" ht="13" customHeight="1" spans="1:18">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>10003</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>564000167</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>123545</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:18">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:18">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1370003</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>564000168</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="Q5" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="Q5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:18">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:18">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1370004</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>564000169</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>123547</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:18">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:18">
+      <c r="A7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1370005</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="6">
         <v>564000170</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="Q7" s="2" t="s">
+      <c r="G7" s="3"/>
+      <c r="Q7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:18">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="3" customFormat="1" spans="1:18">
+      <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>1370006</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <v>564000171</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>123549</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:18">
+      <c r="A9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="1">
-        <v>370007</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="2">
+        <v>70007</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>564000172</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>123550</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:18">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:18">
+      <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>10004</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>564000173</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>123551</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:18">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="2" customFormat="1" spans="1:18">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>10002</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>564000166</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>123544</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="2" t="s">
         <v>82</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/OE.xlsx
+++ b/src/test/resources/testData/T24Excel/OE.xlsx
@@ -1002,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,18 +1010,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1611,747 +1605,747 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:25">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:25">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>662000</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>564000165</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <v>123456</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="9">
         <v>23456</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11" t="s">
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:25">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:25">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>666200</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>564000165</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>123457</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>23456</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" spans="1:25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" s="8" customFormat="1" spans="1:25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>66211</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>11021200646</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>564000165</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <v>123458</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="10">
         <v>11021200646</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="10">
         <v>23456</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="10"/>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+    <row r="5" s="8" customFormat="1" spans="1:25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>66212</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>11021200638</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <v>564000165</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>123456</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="10">
         <v>11021200638</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <v>23456</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
+      <c r="T5" s="10"/>
+      <c r="U5" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12" t="s">
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" spans="1:25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>66213</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>564000165</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>123456</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="9">
         <v>23456</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="Y6" s="11" t="s">
+      <c r="Y6" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" spans="1:25">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="7" customFormat="1" spans="1:25">
+      <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>66621</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>11010006320</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>564000165</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <v>123456</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <v>11010006320</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="9">
         <v>23456</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11">
+      <c r="T7" s="9"/>
+      <c r="U7" s="9">
         <v>11010006320</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11" t="s">
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Y7" s="11"/>
+      <c r="Y7" s="9"/>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:25">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:25">
+      <c r="A8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>66621</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>11010006762</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>564000166</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>123456</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <v>11010006762</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="9">
         <v>23456</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11">
+      <c r="T8" s="9"/>
+      <c r="U8" s="9">
         <v>11010006762</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11" t="s">
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Y8" s="11"/>
+      <c r="Y8" s="9"/>
     </row>
-    <row r="9" s="10" customFormat="1" spans="1:25">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:25">
+      <c r="A9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>66216</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>11021212547</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <v>564000167</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="10">
         <v>123456</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="10">
         <v>11021212547</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="10">
         <v>23456</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="S9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
+      <c r="T9" s="10"/>
+      <c r="U9" s="10">
         <v>11021162884</v>
       </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12" t="s">
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" s="12"/>
+      <c r="Y9" s="10"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>66217</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>564000168</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <v>123456</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="9">
         <v>23456</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11" t="s">
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Y10" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" ht="13" customHeight="1" spans="1:25">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="7" customFormat="1" ht="13" customHeight="1" spans="1:25">
+      <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>66218</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>11021223115</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>564000169</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="9">
         <v>123456</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="9">
         <v>11021223115</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="9">
         <v>23456</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11">
+      <c r="T11" s="9"/>
+      <c r="U11" s="9">
         <v>11021162884</v>
       </c>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11" t="s">
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Y11" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2366,7 +2360,7 @@
   <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2392,58 +2386,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2558,139 +2552,139 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:18">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:18">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>1370003</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>564000168</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="Q5" s="3" t="s">
+      <c r="G5" s="1"/>
+      <c r="Q5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:18">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:18">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>1370004</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="1">
         <v>564000169</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>123547</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:18">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>1370005</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>564000170</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="Q7" s="3" t="s">
+      <c r="G7" s="1"/>
+      <c r="Q7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:18">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:18">
+      <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>1370006</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>564000171</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>123549</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="1" t="s">
         <v>98</v>
       </c>
     </row>
